--- a/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
+++ b/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79EAF6-F77C-4AE8-8EB9-9A551EA83844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399C790-7371-4896-8604-9076DC0C05D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4857,9 +4857,6 @@
     <t>Mind and Machine Specialization</t>
   </si>
   <si>
-    <t>What is “the mind” and what is artificial intelligence?</t>
-  </si>
-  <si>
     <t>Methods for Solving Problems</t>
   </si>
   <si>
@@ -5259,10 +5256,6 @@
     <t>Unit 3: Other Design and Analysis Topics</t>
   </si>
   <si>
-    <t>University of London
-Goldsmiths University of London</t>
-  </si>
-  <si>
     <t>University of California Irvine</t>
   </si>
   <si>
@@ -5270,6 +5263,12 @@
   </si>
   <si>
     <t>University of California San Diego</t>
+  </si>
+  <si>
+    <t>University of London &amp; Goldsmiths University of London</t>
+  </si>
+  <si>
+    <t>What is the mind and what is artificial intelligence?</t>
   </si>
 </sst>
 </file>
@@ -5878,10 +5877,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5890,13 +5886,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5906,12 +5911,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6278,7 +6277,7 @@
       <c r="G2" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="71" t="s">
@@ -6297,7 +6296,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="138"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="34" t="s">
         <v>334</v>
       </c>
@@ -7512,7 +7511,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="138" t="s">
+      <c r="H64" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I64" s="34" t="s">
@@ -7529,7 +7528,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="139"/>
+      <c r="H65" s="138"/>
       <c r="I65" s="77" t="s">
         <v>1415</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>1462</v>
       </c>
       <c r="C100" s="130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="124" t="s">
         <v>1464</v>
@@ -8889,7 +8888,7 @@
       <c r="G135" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H135" s="136" t="s">
+      <c r="H135" s="139" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="34" t="s">
@@ -8908,7 +8907,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="137"/>
+      <c r="H136" s="140"/>
       <c r="I136" s="34" t="s">
         <v>1516</v>
       </c>
@@ -9388,19 +9387,212 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="A46:A60"/>
-    <mergeCell ref="B46:B60"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G158:G161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="A144:A161"/>
+    <mergeCell ref="B144:B161"/>
+    <mergeCell ref="C144:C161"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="J144:J147"/>
+    <mergeCell ref="K144:K147"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="J148:J151"/>
+    <mergeCell ref="K148:K151"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="F152:F157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="J152:J157"/>
+    <mergeCell ref="K152:K157"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="K129:K134"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="C135:C143"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="E135:E143"/>
+    <mergeCell ref="F135:F143"/>
+    <mergeCell ref="G135:G143"/>
+    <mergeCell ref="J135:J143"/>
+    <mergeCell ref="K135:K143"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="A113:A134"/>
+    <mergeCell ref="B113:B134"/>
+    <mergeCell ref="C113:C134"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="F113:F118"/>
+    <mergeCell ref="G113:G118"/>
+    <mergeCell ref="J113:J118"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="K113:K118"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="E119:E124"/>
+    <mergeCell ref="F119:F124"/>
+    <mergeCell ref="G119:G124"/>
+    <mergeCell ref="J119:J124"/>
+    <mergeCell ref="K119:K124"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="J125:J128"/>
+    <mergeCell ref="K125:K128"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="A100:A112"/>
+    <mergeCell ref="B100:B112"/>
+    <mergeCell ref="C100:C112"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="C84:C99"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="K84:K88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="A61:A83"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="B61:B83"/>
+    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="K61:K65"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K13:K16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="D2:D6"/>
@@ -9425,212 +9617,19 @@
     <mergeCell ref="F38:F42"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="J26:J32"/>
-    <mergeCell ref="K26:K32"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="B61:B83"/>
-    <mergeCell ref="C61:C83"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="J61:J65"/>
-    <mergeCell ref="K61:K65"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="J66:J71"/>
-    <mergeCell ref="K66:K71"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="C84:C99"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="J84:J88"/>
-    <mergeCell ref="K84:K88"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="A61:A83"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="A100:A112"/>
-    <mergeCell ref="B100:B112"/>
-    <mergeCell ref="C100:C112"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="K113:K118"/>
-    <mergeCell ref="D119:D124"/>
-    <mergeCell ref="E119:E124"/>
-    <mergeCell ref="F119:F124"/>
-    <mergeCell ref="G119:G124"/>
-    <mergeCell ref="J119:J124"/>
-    <mergeCell ref="K119:K124"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="J125:J128"/>
-    <mergeCell ref="K125:K128"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="K129:K134"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="C135:C143"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="E135:E143"/>
-    <mergeCell ref="F135:F143"/>
-    <mergeCell ref="G135:G143"/>
-    <mergeCell ref="J135:J143"/>
-    <mergeCell ref="K135:K143"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="A113:A134"/>
-    <mergeCell ref="B113:B134"/>
-    <mergeCell ref="C113:C134"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="F113:F118"/>
-    <mergeCell ref="G113:G118"/>
-    <mergeCell ref="J113:J118"/>
-    <mergeCell ref="G158:G161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="A144:A161"/>
-    <mergeCell ref="B144:B161"/>
-    <mergeCell ref="C144:C161"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="J144:J147"/>
-    <mergeCell ref="K144:K147"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="J148:J151"/>
-    <mergeCell ref="K148:K151"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="F152:F157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="J152:J157"/>
-    <mergeCell ref="K152:K157"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="B46:B60"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E33" r:id="rId1" xr:uid="{635F6B92-C026-4D3A-8191-940C4FDC5525}"/>
@@ -9859,7 +9858,7 @@
       <c r="G7" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="66" t="s">
@@ -9878,7 +9877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="138"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="34" t="s">
         <v>334</v>
       </c>
@@ -9977,7 +9976,7 @@
       <c r="E13" s="141"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="34" t="s">
@@ -9994,7 +9993,7 @@
       <c r="E14" s="141"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="138"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="34" t="s">
         <v>1285</v>
       </c>
@@ -10009,7 +10008,7 @@
       <c r="E15" s="141"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="34" t="s">
@@ -10026,7 +10025,7 @@
       <c r="E16" s="141"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="138"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="34" t="s">
         <v>1601</v>
       </c>
@@ -10058,7 +10057,7 @@
       <c r="E18" s="141"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="138" t="s">
+      <c r="H18" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="34" t="s">
@@ -10075,7 +10074,7 @@
       <c r="E19" s="141"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
-      <c r="H19" s="138"/>
+      <c r="H19" s="137"/>
       <c r="I19" s="34" t="s">
         <v>1602</v>
       </c>
@@ -10090,7 +10089,7 @@
       <c r="E20" s="141"/>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
-      <c r="H20" s="138" t="s">
+      <c r="H20" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="34" t="s">
@@ -10107,7 +10106,7 @@
       <c r="E21" s="141"/>
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
-      <c r="H21" s="138"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="34" t="s">
         <v>1604</v>
       </c>
@@ -10170,7 +10169,7 @@
       <c r="G24" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="66" t="s">
@@ -10189,7 +10188,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="138"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="34" t="s">
         <v>1358</v>
       </c>
@@ -10477,7 +10476,7 @@
       <c r="G41" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H41" s="140" t="s">
+      <c r="H41" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="66" t="s">
@@ -10496,7 +10495,7 @@
       <c r="E42" s="134"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="138"/>
+      <c r="H42" s="137"/>
       <c r="I42" s="34" t="s">
         <v>1377</v>
       </c>
@@ -10638,7 +10637,7 @@
       <c r="G50" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="140" t="s">
+      <c r="H50" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="66" t="s">
@@ -10657,7 +10656,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="138"/>
+      <c r="H51" s="137"/>
       <c r="I51" s="34" t="s">
         <v>1386</v>
       </c>
@@ -10782,7 +10781,7 @@
       <c r="G58" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I58" s="66" t="s">
@@ -10801,7 +10800,7 @@
       <c r="E59" s="134"/>
       <c r="F59" s="125"/>
       <c r="G59" s="125"/>
-      <c r="H59" s="138"/>
+      <c r="H59" s="137"/>
       <c r="I59" s="34" t="s">
         <v>1395</v>
       </c>
@@ -10816,7 +10815,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="138"/>
+      <c r="H60" s="137"/>
       <c r="I60" s="34" t="s">
         <v>1396</v>
       </c>
@@ -11111,7 +11110,7 @@
         <v>1234</v>
       </c>
       <c r="F76" s="124" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G76" s="124" t="s">
         <v>450</v>
@@ -11195,7 +11194,7 @@
         <v>1240</v>
       </c>
       <c r="F80" s="124" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G80" s="124" t="s">
         <v>450</v>
@@ -11296,7 +11295,7 @@
         <v>1246</v>
       </c>
       <c r="F85" s="124" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G85" s="124" t="s">
         <v>450</v>
@@ -11631,13 +11630,13 @@
         <v>1</v>
       </c>
       <c r="D102" s="124" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E102" s="133" t="s">
         <v>1644</v>
       </c>
-      <c r="E102" s="133" t="s">
+      <c r="F102" s="124" t="s">
         <v>1645</v>
-      </c>
-      <c r="F102" s="124" t="s">
-        <v>1646</v>
       </c>
       <c r="G102" s="124" t="s">
         <v>450</v>
@@ -11646,7 +11645,7 @@
         <v>4</v>
       </c>
       <c r="I102" s="106" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J102" s="127">
         <v>20</v>
@@ -11665,7 +11664,7 @@
         <v>7</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J103" s="128"/>
       <c r="K103" s="128"/>
@@ -11682,7 +11681,7 @@
         <v>8</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="J104" s="128"/>
       <c r="K104" s="128"/>
@@ -11699,7 +11698,7 @@
         <v>6</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="J105" s="128"/>
       <c r="K105" s="128"/>
@@ -11716,7 +11715,7 @@
         <v>10</v>
       </c>
       <c r="I106" s="107" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J106" s="129"/>
       <c r="K106" s="129"/>
@@ -11732,13 +11731,13 @@
         <v>1</v>
       </c>
       <c r="D107" s="124" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E107" s="133" t="s">
         <v>1634</v>
       </c>
-      <c r="E107" s="133" t="s">
+      <c r="F107" s="124" t="s">
         <v>1635</v>
-      </c>
-      <c r="F107" s="124" t="s">
-        <v>1636</v>
       </c>
       <c r="G107" s="124" t="s">
         <v>452</v>
@@ -11747,7 +11746,7 @@
         <v>4</v>
       </c>
       <c r="I107" s="96" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="J107" s="127">
         <v>15</v>
@@ -11766,7 +11765,7 @@
         <v>7</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="J108" s="128"/>
       <c r="K108" s="128"/>
@@ -11800,7 +11799,7 @@
         <v>6</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J110" s="128"/>
       <c r="K110" s="128"/>
@@ -11817,7 +11816,7 @@
         <v>10</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J111" s="128"/>
       <c r="K111" s="128"/>
@@ -11850,13 +11849,13 @@
         <v>1</v>
       </c>
       <c r="D113" s="124" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E113" s="133" t="s">
         <v>1637</v>
       </c>
-      <c r="E113" s="133" t="s">
-        <v>1638</v>
-      </c>
       <c r="F113" s="124" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G113" s="124" t="s">
         <v>452</v>
@@ -11865,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="I113" s="101" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="J113" s="127">
         <v>15</v>
@@ -11884,7 +11883,7 @@
         <v>7</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J114" s="128"/>
       <c r="K114" s="128"/>
@@ -11901,7 +11900,7 @@
         <v>8</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J115" s="128"/>
       <c r="K115" s="128"/>
@@ -11918,7 +11917,7 @@
         <v>6</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J116" s="128"/>
       <c r="K116" s="128"/>
@@ -11935,29 +11934,29 @@
         <v>10</v>
       </c>
       <c r="I117" s="102" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J117" s="129"/>
       <c r="K117" s="129"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="124" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B118" s="133" t="s">
         <v>1716</v>
-      </c>
-      <c r="B118" s="133" t="s">
-        <v>1717</v>
       </c>
       <c r="C118" s="124">
         <v>4</v>
       </c>
       <c r="D118" s="124" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E118" s="133" t="s">
         <v>1718</v>
       </c>
-      <c r="E118" s="133" t="s">
+      <c r="F118" s="124" t="s">
         <v>1719</v>
-      </c>
-      <c r="F118" s="124" t="s">
-        <v>1720</v>
       </c>
       <c r="G118" s="124" t="s">
         <v>451</v>
@@ -11966,7 +11965,7 @@
         <v>4</v>
       </c>
       <c r="I118" s="121" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J118" s="127">
         <v>15</v>
@@ -11985,7 +11984,7 @@
         <v>7</v>
       </c>
       <c r="I119" s="34" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J119" s="128"/>
       <c r="K119" s="128"/>
@@ -12002,7 +12001,7 @@
         <v>8</v>
       </c>
       <c r="I120" s="34" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J120" s="128"/>
       <c r="K120" s="128"/>
@@ -12019,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="I121" s="34" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J121" s="128"/>
       <c r="K121" s="128"/>
@@ -12036,7 +12035,7 @@
         <v>10</v>
       </c>
       <c r="I122" s="34" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J122" s="128"/>
       <c r="K122" s="128"/>
@@ -12046,13 +12045,13 @@
       <c r="B123" s="134"/>
       <c r="C123" s="125"/>
       <c r="D123" s="124" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E123" s="133" t="s">
         <v>1726</v>
       </c>
-      <c r="E123" s="133" t="s">
-        <v>1727</v>
-      </c>
       <c r="F123" s="124" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G123" s="124" t="s">
         <v>451</v>
@@ -12061,7 +12060,7 @@
         <v>4</v>
       </c>
       <c r="I123" s="121" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J123" s="127">
         <v>15</v>
@@ -12080,7 +12079,7 @@
         <v>7</v>
       </c>
       <c r="I124" s="34" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J124" s="128"/>
       <c r="K124" s="128"/>
@@ -12097,7 +12096,7 @@
         <v>8</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J125" s="128"/>
       <c r="K125" s="128"/>
@@ -12114,7 +12113,7 @@
         <v>6</v>
       </c>
       <c r="I126" s="34" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J126" s="128"/>
       <c r="K126" s="128"/>
@@ -12124,13 +12123,13 @@
       <c r="B127" s="134"/>
       <c r="C127" s="125"/>
       <c r="D127" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E127" s="133" t="s">
         <v>1732</v>
       </c>
-      <c r="E127" s="133" t="s">
-        <v>1733</v>
-      </c>
       <c r="F127" s="124" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G127" s="124" t="s">
         <v>451</v>
@@ -12139,7 +12138,7 @@
         <v>4</v>
       </c>
       <c r="I127" s="121" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J127" s="127">
         <v>15</v>
@@ -12158,7 +12157,7 @@
         <v>7</v>
       </c>
       <c r="I128" s="34" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J128" s="128"/>
       <c r="K128" s="128"/>
@@ -12175,7 +12174,7 @@
         <v>8</v>
       </c>
       <c r="I129" s="34" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="J129" s="128"/>
       <c r="K129" s="128"/>
@@ -12192,7 +12191,7 @@
         <v>6</v>
       </c>
       <c r="I130" s="34" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J130" s="128"/>
       <c r="K130" s="128"/>
@@ -12202,13 +12201,13 @@
       <c r="B131" s="134"/>
       <c r="C131" s="125"/>
       <c r="D131" s="124" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E131" s="133" t="s">
         <v>1738</v>
       </c>
-      <c r="E131" s="133" t="s">
-        <v>1739</v>
-      </c>
       <c r="F131" s="124" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G131" s="124" t="s">
         <v>451</v>
@@ -12217,7 +12216,7 @@
         <v>4</v>
       </c>
       <c r="I131" s="121" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J131" s="127">
         <v>10</v>
@@ -12236,7 +12235,7 @@
         <v>7</v>
       </c>
       <c r="I132" s="34" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J132" s="128"/>
       <c r="K132" s="128"/>
@@ -12253,13 +12252,169 @@
         <v>8</v>
       </c>
       <c r="I133" s="122" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="J133" s="129"/>
       <c r="K133" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="K102:K106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="F107:F112"/>
+    <mergeCell ref="G107:G112"/>
+    <mergeCell ref="J107:J112"/>
+    <mergeCell ref="K107:K112"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="J12:J23"/>
+    <mergeCell ref="K12:K23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K24:K32"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:F40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="A24:A67"/>
+    <mergeCell ref="B24:B67"/>
+    <mergeCell ref="C24:C67"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="K41:K49"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="G50:G57"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="K50:K57"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="K58:K67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="E58:E67"/>
+    <mergeCell ref="F58:F67"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="J58:J67"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="K80:K84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="J113:J117"/>
+    <mergeCell ref="K113:K117"/>
+    <mergeCell ref="C90:C101"/>
+    <mergeCell ref="A90:A101"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="E113:E117"/>
+    <mergeCell ref="F113:F117"/>
     <mergeCell ref="G131:G133"/>
     <mergeCell ref="J131:J133"/>
     <mergeCell ref="K131:K133"/>
@@ -12284,162 +12439,6 @@
     <mergeCell ref="G127:G130"/>
     <mergeCell ref="J127:J130"/>
     <mergeCell ref="K127:K130"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="E113:E117"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="J113:J117"/>
-    <mergeCell ref="K113:K117"/>
-    <mergeCell ref="C90:C101"/>
-    <mergeCell ref="A90:A101"/>
-    <mergeCell ref="B90:B101"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="K98:K101"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="K85:K89"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="K80:K84"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="K58:K67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="F58:F67"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="J58:J67"/>
-    <mergeCell ref="K24:K32"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="F33:F40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="J33:J40"/>
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="A24:A67"/>
-    <mergeCell ref="B24:B67"/>
-    <mergeCell ref="C24:C67"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="E24:E32"/>
-    <mergeCell ref="F24:F32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J32"/>
-    <mergeCell ref="K41:K49"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="F50:F57"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="K50:K57"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="D12:D23"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="F12:F23"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="J12:J23"/>
-    <mergeCell ref="K12:K23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="F107:F112"/>
-    <mergeCell ref="G107:G112"/>
-    <mergeCell ref="J107:J112"/>
-    <mergeCell ref="K107:K112"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="K102:K106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{C44EB4F9-A338-4115-BF4C-D56C484F697C}"/>
@@ -12857,7 +12856,7 @@
       <c r="G17" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="55" t="s">
@@ -12876,7 +12875,7 @@
       <c r="E18" s="134"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="138"/>
+      <c r="H18" s="137"/>
       <c r="I18" s="34" t="s">
         <v>1158</v>
       </c>
@@ -12942,7 +12941,7 @@
       <c r="E22" s="134"/>
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="34" t="s">
@@ -12959,7 +12958,7 @@
       <c r="E23" s="134"/>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
-      <c r="H23" s="139"/>
+      <c r="H23" s="138"/>
       <c r="I23" s="34" t="s">
         <v>1163</v>
       </c>
@@ -12988,7 +12987,7 @@
       <c r="G24" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="55" t="s">
@@ -13007,7 +13006,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="138"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="34" t="s">
         <v>1177</v>
       </c>
@@ -13073,7 +13072,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="138" t="s">
+      <c r="H29" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="34" t="s">
@@ -13090,7 +13089,7 @@
       <c r="E30" s="134"/>
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
-      <c r="H30" s="139"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="34" t="s">
         <v>1163</v>
       </c>
@@ -13532,7 +13531,7 @@
       <c r="G52" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="140" t="s">
+      <c r="H52" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="41" t="s">
@@ -13551,7 +13550,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>1011</v>
       </c>
@@ -13701,7 +13700,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="138" t="s">
+      <c r="H61" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="34" t="s">
@@ -13718,7 +13717,7 @@
       <c r="E62" s="135"/>
       <c r="F62" s="126"/>
       <c r="G62" s="126"/>
-      <c r="H62" s="139"/>
+      <c r="H62" s="138"/>
       <c r="I62" s="42" t="s">
         <v>888</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>491</v>
       </c>
       <c r="F83" s="124" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G83" s="124" t="s">
         <v>450</v>
@@ -14233,7 +14232,7 @@
         <v>492</v>
       </c>
       <c r="F88" s="124" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G88" s="124" t="s">
         <v>450</v>
@@ -14328,7 +14327,7 @@
         <v>493</v>
       </c>
       <c r="F93" s="124" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G93" s="124" t="s">
         <v>450</v>
@@ -14406,7 +14405,7 @@
         <v>494</v>
       </c>
       <c r="F97" s="124" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="G97" s="124" t="s">
         <v>450</v>
@@ -14505,26 +14504,124 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="C58:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C101"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C31:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="B31:B51"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K24:K30"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="G24:G30"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="K52:K57"/>
+    <mergeCell ref="A58:A78"/>
+    <mergeCell ref="B58:B78"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
     <mergeCell ref="D88:D92"/>
     <mergeCell ref="E88:E92"/>
     <mergeCell ref="F88:F92"/>
@@ -14549,124 +14646,26 @@
     <mergeCell ref="G79:G82"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="E97:E101"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="K52:K57"/>
-    <mergeCell ref="A58:A78"/>
-    <mergeCell ref="B58:B78"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="B31:B51"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K24:K30"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="C58:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C101"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C31:C51"/>
+    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B83" r:id="rId1" xr:uid="{CF6B9291-3D66-4CB8-9C54-731350528C0B}"/>
@@ -14780,7 +14779,7 @@
       <c r="G2" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="41" t="s">
@@ -14799,7 +14798,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="138"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="34" t="s">
         <v>20</v>
       </c>
@@ -14814,7 +14813,7 @@
       <c r="E4" s="134"/>
       <c r="F4" s="125"/>
       <c r="G4" s="125"/>
-      <c r="H4" s="138"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -14829,7 +14828,7 @@
       <c r="E5" s="134"/>
       <c r="F5" s="125"/>
       <c r="G5" s="125"/>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="34" t="s">
@@ -14846,7 +14845,7 @@
       <c r="E6" s="134"/>
       <c r="F6" s="125"/>
       <c r="G6" s="125"/>
-      <c r="H6" s="138"/>
+      <c r="H6" s="137"/>
       <c r="I6" s="34" t="s">
         <v>23</v>
       </c>
@@ -14861,7 +14860,7 @@
       <c r="E7" s="134"/>
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="34" t="s">
@@ -14878,7 +14877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="138"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="34" t="s">
         <v>25</v>
       </c>
@@ -14927,7 +14926,7 @@
       <c r="E11" s="134"/>
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="34" t="s">
@@ -14944,7 +14943,7 @@
       <c r="E12" s="134"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
-      <c r="H12" s="138"/>
+      <c r="H12" s="137"/>
       <c r="I12" s="34" t="s">
         <v>29</v>
       </c>
@@ -14976,7 +14975,7 @@
       <c r="E14" s="134"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="138" t="s">
+      <c r="H14" s="137" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -14993,7 +14992,7 @@
       <c r="E15" s="134"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="138"/>
+      <c r="H15" s="137"/>
       <c r="I15" s="34" t="s">
         <v>32</v>
       </c>
@@ -15008,7 +15007,7 @@
       <c r="E16" s="134"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="138" t="s">
+      <c r="H16" s="137" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="34" t="s">
@@ -15025,7 +15024,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="138"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="34" t="s">
         <v>34</v>
       </c>
@@ -15285,7 +15284,7 @@
         <v>1541</v>
       </c>
       <c r="F30" s="124" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="G30" s="124" t="s">
         <v>450</v>
@@ -15478,7 +15477,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138" t="s">
+      <c r="H40" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="34" t="s">
@@ -15495,7 +15494,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="139"/>
+      <c r="H41" s="138"/>
       <c r="I41" s="42" t="s">
         <v>132</v>
       </c>
@@ -15518,7 +15517,7 @@
       <c r="G42" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H42" s="140" t="s">
+      <c r="H42" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="41" t="s">
@@ -15537,7 +15536,7 @@
       <c r="E43" s="134"/>
       <c r="F43" s="125"/>
       <c r="G43" s="125"/>
-      <c r="H43" s="138"/>
+      <c r="H43" s="137"/>
       <c r="I43" s="22" t="s">
         <v>135</v>
       </c>
@@ -15620,7 +15619,7 @@
       <c r="E48" s="134"/>
       <c r="F48" s="125"/>
       <c r="G48" s="125"/>
-      <c r="H48" s="143" t="s">
+      <c r="H48" s="145" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="22" t="s">
@@ -15637,7 +15636,7 @@
       <c r="E49" s="135"/>
       <c r="F49" s="126"/>
       <c r="G49" s="126"/>
-      <c r="H49" s="144"/>
+      <c r="H49" s="146"/>
       <c r="I49" s="24" t="s">
         <v>132</v>
       </c>
@@ -15660,7 +15659,7 @@
       <c r="G50" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H50" s="145" t="s">
+      <c r="H50" s="147" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="25" t="s">
@@ -15679,7 +15678,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="143"/>
+      <c r="H51" s="145"/>
       <c r="I51" s="22" t="s">
         <v>151</v>
       </c>
@@ -15694,7 +15693,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="143" t="s">
+      <c r="H52" s="145" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -15711,7 +15710,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="143"/>
+      <c r="H53" s="145"/>
       <c r="I53" s="22" t="s">
         <v>149</v>
       </c>
@@ -15743,7 +15742,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="143" t="s">
+      <c r="H55" s="145" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="22" t="s">
@@ -15760,7 +15759,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="143"/>
+      <c r="H56" s="145"/>
       <c r="I56" s="22" t="s">
         <v>146</v>
       </c>
@@ -15932,22 +15931,22 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="130" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C66" s="130">
         <v>4</v>
       </c>
       <c r="D66" s="124" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E66" s="133" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F66" s="124" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G66" s="124" t="s">
         <v>451</v>
@@ -15956,7 +15955,7 @@
         <v>4</v>
       </c>
       <c r="I66" s="116" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J66" s="127">
         <v>10</v>
@@ -15975,7 +15974,7 @@
         <v>7</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J67" s="128"/>
       <c r="K67" s="128"/>
@@ -15992,7 +15991,7 @@
         <v>8</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J68" s="128"/>
       <c r="K68" s="128"/>
@@ -16009,7 +16008,7 @@
         <v>6</v>
       </c>
       <c r="I69" s="117" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J69" s="129"/>
       <c r="K69" s="129"/>
@@ -16019,13 +16018,13 @@
       <c r="B70" s="134"/>
       <c r="C70" s="131"/>
       <c r="D70" s="124" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E70" s="133" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F70" s="124" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G70" s="124" t="s">
         <v>451</v>
@@ -16034,7 +16033,7 @@
         <v>4</v>
       </c>
       <c r="I70" s="116" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J70" s="127">
         <v>5</v>
@@ -16053,7 +16052,7 @@
         <v>7</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J71" s="128"/>
       <c r="K71" s="128"/>
@@ -16070,7 +16069,7 @@
         <v>8</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J72" s="128"/>
       <c r="K72" s="128"/>
@@ -16087,7 +16086,7 @@
         <v>6</v>
       </c>
       <c r="I73" s="117" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="J73" s="129"/>
       <c r="K73" s="129"/>
@@ -16097,13 +16096,13 @@
       <c r="B74" s="134"/>
       <c r="C74" s="131"/>
       <c r="D74" s="124" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="133" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F74" s="124" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G74" s="124" t="s">
         <v>451</v>
@@ -16112,7 +16111,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="116" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J74" s="127">
         <v>5</v>
@@ -16131,7 +16130,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="J75" s="128"/>
       <c r="K75" s="128"/>
@@ -16148,7 +16147,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="34" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="J76" s="128"/>
       <c r="K76" s="128"/>
@@ -16165,7 +16164,7 @@
         <v>6</v>
       </c>
       <c r="I77" s="117" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J77" s="129"/>
       <c r="K77" s="129"/>
@@ -16175,13 +16174,13 @@
       <c r="B78" s="134"/>
       <c r="C78" s="131"/>
       <c r="D78" s="124" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E78" s="133" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F78" s="124" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="G78" s="124" t="s">
         <v>451</v>
@@ -16190,7 +16189,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="116" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J78" s="127">
         <v>5</v>
@@ -16209,7 +16208,7 @@
         <v>7</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J79" s="128"/>
       <c r="K79" s="128"/>
@@ -16226,7 +16225,7 @@
         <v>8</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J80" s="128"/>
       <c r="K80" s="128"/>
@@ -16243,7 +16242,7 @@
         <v>6</v>
       </c>
       <c r="I81" s="117" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J81" s="129"/>
       <c r="K81" s="129"/>
@@ -16270,7 +16269,7 @@
       <c r="G82" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H82" s="140" t="s">
+      <c r="H82" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I82" s="41" t="s">
@@ -16289,7 +16288,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138"/>
+      <c r="H83" s="137"/>
       <c r="I83" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16409,7 +16408,7 @@
       <c r="E89" s="134"/>
       <c r="F89" s="125"/>
       <c r="G89" s="125"/>
-      <c r="H89" s="138" t="s">
+      <c r="H89" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="34" t="s">
@@ -16426,7 +16425,7 @@
       <c r="E90" s="134"/>
       <c r="F90" s="125"/>
       <c r="G90" s="125"/>
-      <c r="H90" s="138"/>
+      <c r="H90" s="137"/>
       <c r="I90" s="34" t="s">
         <v>30</v>
       </c>
@@ -16441,7 +16440,7 @@
       <c r="E91" s="134"/>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
-      <c r="H91" s="138" t="s">
+      <c r="H91" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="34" t="s">
@@ -16458,7 +16457,7 @@
       <c r="E92" s="134"/>
       <c r="F92" s="125"/>
       <c r="G92" s="125"/>
-      <c r="H92" s="138"/>
+      <c r="H92" s="137"/>
       <c r="I92" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16565,7 +16564,7 @@
       <c r="G97" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H97" s="140" t="s">
+      <c r="H97" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="48" t="s">
@@ -16584,7 +16583,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138"/>
+      <c r="H98" s="137"/>
       <c r="I98" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16704,7 +16703,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138" t="s">
+      <c r="H104" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I104" s="34" t="s">
@@ -16721,7 +16720,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="138"/>
+      <c r="H105" s="137"/>
       <c r="I105" s="34" t="s">
         <v>30</v>
       </c>
@@ -16736,7 +16735,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="138" t="s">
+      <c r="H106" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="34" t="s">
@@ -16753,7 +16752,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="138"/>
+      <c r="H107" s="137"/>
       <c r="I107" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16851,7 +16850,7 @@
       <c r="F112" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G112" s="140" t="s">
+      <c r="G112" s="136" t="s">
         <v>450</v>
       </c>
       <c r="H112" s="45" t="s">
@@ -16872,7 +16871,7 @@
       <c r="D113" s="125"/>
       <c r="E113" s="134"/>
       <c r="F113" s="125"/>
-      <c r="G113" s="138"/>
+      <c r="G113" s="137"/>
       <c r="H113" s="46" t="s">
         <v>7</v>
       </c>
@@ -16889,7 +16888,7 @@
       <c r="D114" s="125"/>
       <c r="E114" s="134"/>
       <c r="F114" s="125"/>
-      <c r="G114" s="138"/>
+      <c r="G114" s="137"/>
       <c r="H114" s="46" t="s">
         <v>8</v>
       </c>
@@ -16906,7 +16905,7 @@
       <c r="D115" s="125"/>
       <c r="E115" s="134"/>
       <c r="F115" s="125"/>
-      <c r="G115" s="138"/>
+      <c r="G115" s="137"/>
       <c r="H115" s="46" t="s">
         <v>6</v>
       </c>
@@ -16923,7 +16922,7 @@
       <c r="D116" s="125"/>
       <c r="E116" s="134"/>
       <c r="F116" s="125"/>
-      <c r="G116" s="138"/>
+      <c r="G116" s="137"/>
       <c r="H116" s="46" t="s">
         <v>10</v>
       </c>
@@ -16940,7 +16939,7 @@
       <c r="D117" s="126"/>
       <c r="E117" s="135"/>
       <c r="F117" s="126"/>
-      <c r="G117" s="139"/>
+      <c r="G117" s="138"/>
       <c r="H117" s="46" t="s">
         <v>9</v>
       </c>
@@ -16963,7 +16962,7 @@
       <c r="F118" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G118" s="140" t="s">
+      <c r="G118" s="136" t="s">
         <v>450</v>
       </c>
       <c r="H118" s="45" t="s">
@@ -16984,7 +16983,7 @@
       <c r="D119" s="125"/>
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
-      <c r="G119" s="138"/>
+      <c r="G119" s="137"/>
       <c r="H119" s="46" t="s">
         <v>7</v>
       </c>
@@ -17001,7 +17000,7 @@
       <c r="D120" s="125"/>
       <c r="E120" s="134"/>
       <c r="F120" s="125"/>
-      <c r="G120" s="138"/>
+      <c r="G120" s="137"/>
       <c r="H120" s="46" t="s">
         <v>8</v>
       </c>
@@ -17018,7 +17017,7 @@
       <c r="D121" s="126"/>
       <c r="E121" s="135"/>
       <c r="F121" s="126"/>
-      <c r="G121" s="139"/>
+      <c r="G121" s="138"/>
       <c r="H121" s="47" t="s">
         <v>6</v>
       </c>
@@ -17257,7 +17256,7 @@
       <c r="G133" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H133" s="140" t="s">
+      <c r="H133" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="41" t="s">
@@ -17276,7 +17275,7 @@
       <c r="E134" s="134"/>
       <c r="F134" s="125"/>
       <c r="G134" s="125"/>
-      <c r="H134" s="138"/>
+      <c r="H134" s="137"/>
       <c r="I134" s="34" t="s">
         <v>255</v>
       </c>
@@ -17308,7 +17307,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="138" t="s">
+      <c r="H136" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I136" s="34" t="s">
@@ -17325,7 +17324,7 @@
       <c r="E137" s="135"/>
       <c r="F137" s="126"/>
       <c r="G137" s="126"/>
-      <c r="H137" s="139"/>
+      <c r="H137" s="138"/>
       <c r="I137" s="42" t="s">
         <v>247</v>
       </c>
@@ -17460,7 +17459,7 @@
       <c r="G144" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H144" s="140" t="s">
+      <c r="H144" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I144" s="41" t="s">
@@ -17479,7 +17478,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="138"/>
+      <c r="H145" s="137"/>
       <c r="I145" s="34" t="s">
         <v>266</v>
       </c>
@@ -17494,7 +17493,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="138"/>
+      <c r="H146" s="137"/>
       <c r="I146" s="34" t="s">
         <v>267</v>
       </c>
@@ -17509,7 +17508,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="138" t="s">
+      <c r="H147" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I147" s="34" t="s">
@@ -17526,7 +17525,7 @@
       <c r="E148" s="134"/>
       <c r="F148" s="125"/>
       <c r="G148" s="125"/>
-      <c r="H148" s="138"/>
+      <c r="H148" s="137"/>
       <c r="I148" s="34" t="s">
         <v>269</v>
       </c>
@@ -17541,7 +17540,7 @@
       <c r="E149" s="134"/>
       <c r="F149" s="125"/>
       <c r="G149" s="125"/>
-      <c r="H149" s="138" t="s">
+      <c r="H149" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I149" s="34" t="s">
@@ -17558,7 +17557,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="138"/>
+      <c r="H150" s="137"/>
       <c r="I150" s="34" t="s">
         <v>271</v>
       </c>
@@ -17573,7 +17572,7 @@
       <c r="E151" s="135"/>
       <c r="F151" s="126"/>
       <c r="G151" s="126"/>
-      <c r="H151" s="139"/>
+      <c r="H151" s="138"/>
       <c r="I151" s="42" t="s">
         <v>247</v>
       </c>
@@ -17920,7 +17919,7 @@
       <c r="G168" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H168" s="140" t="s">
+      <c r="H168" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I168" s="41" t="s">
@@ -17939,7 +17938,7 @@
       <c r="E169" s="134"/>
       <c r="F169" s="125"/>
       <c r="G169" s="125"/>
-      <c r="H169" s="138"/>
+      <c r="H169" s="137"/>
       <c r="I169" s="34" t="s">
         <v>421</v>
       </c>
@@ -17988,7 +17987,7 @@
       <c r="E172" s="134"/>
       <c r="F172" s="125"/>
       <c r="G172" s="125"/>
-      <c r="H172" s="138" t="s">
+      <c r="H172" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I172" s="34" t="s">
@@ -18005,7 +18004,7 @@
       <c r="E173" s="135"/>
       <c r="F173" s="126"/>
       <c r="G173" s="126"/>
-      <c r="H173" s="139"/>
+      <c r="H173" s="138"/>
       <c r="I173" s="42" t="s">
         <v>425</v>
       </c>
@@ -18028,7 +18027,7 @@
       <c r="G174" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H174" s="140" t="s">
+      <c r="H174" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I174" s="41" t="s">
@@ -18047,7 +18046,7 @@
       <c r="E175" s="134"/>
       <c r="F175" s="125"/>
       <c r="G175" s="125"/>
-      <c r="H175" s="138"/>
+      <c r="H175" s="137"/>
       <c r="I175" s="34" t="s">
         <v>428</v>
       </c>
@@ -18096,7 +18095,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="138" t="s">
+      <c r="H178" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -18113,7 +18112,7 @@
       <c r="E179" s="135"/>
       <c r="F179" s="126"/>
       <c r="G179" s="126"/>
-      <c r="H179" s="139"/>
+      <c r="H179" s="138"/>
       <c r="I179" s="42" t="s">
         <v>432</v>
       </c>
@@ -18136,7 +18135,7 @@
       <c r="G180" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H180" s="140" t="s">
+      <c r="H180" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I180" s="41" t="s">
@@ -18155,7 +18154,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="138"/>
+      <c r="H181" s="137"/>
       <c r="I181" s="34" t="s">
         <v>435</v>
       </c>
@@ -18341,10 +18340,10 @@
       <c r="G191" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H191" s="140" t="s">
+      <c r="H191" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="I191" s="146" t="s">
+      <c r="I191" s="143" t="s">
         <v>448</v>
       </c>
       <c r="J191" s="127">
@@ -18360,8 +18359,8 @@
       <c r="E192" s="135"/>
       <c r="F192" s="126"/>
       <c r="G192" s="126"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="147"/>
+      <c r="H192" s="138"/>
+      <c r="I192" s="144"/>
       <c r="J192" s="129"/>
       <c r="K192" s="129"/>
     </row>
@@ -18387,7 +18386,7 @@
       <c r="G193" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H193" s="140" t="s">
+      <c r="H193" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I193" s="41" t="s">
@@ -18406,7 +18405,7 @@
       <c r="E194" s="134"/>
       <c r="F194" s="125"/>
       <c r="G194" s="125"/>
-      <c r="H194" s="138"/>
+      <c r="H194" s="137"/>
       <c r="I194" s="34" t="s">
         <v>955</v>
       </c>
@@ -18480,7 +18479,7 @@
       <c r="G198" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H198" s="140" t="s">
+      <c r="H198" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I198" s="25" t="s">
@@ -18499,7 +18498,7 @@
       <c r="E199" s="134"/>
       <c r="F199" s="125"/>
       <c r="G199" s="125"/>
-      <c r="H199" s="138"/>
+      <c r="H199" s="137"/>
       <c r="I199" s="22" t="s">
         <v>4</v>
       </c>
@@ -18607,7 +18606,7 @@
       <c r="G205" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H205" s="140" t="s">
+      <c r="H205" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I205" s="25" t="s">
@@ -18626,7 +18625,7 @@
       <c r="E206" s="134"/>
       <c r="F206" s="125"/>
       <c r="G206" s="125"/>
-      <c r="H206" s="138"/>
+      <c r="H206" s="137"/>
       <c r="I206" s="22" t="s">
         <v>4</v>
       </c>
@@ -18734,7 +18733,7 @@
       <c r="G212" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H212" s="140" t="s">
+      <c r="H212" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I212" s="25" t="s">
@@ -18753,7 +18752,7 @@
       <c r="E213" s="134"/>
       <c r="F213" s="125"/>
       <c r="G213" s="125"/>
-      <c r="H213" s="138"/>
+      <c r="H213" s="137"/>
       <c r="I213" s="22" t="s">
         <v>4</v>
       </c>
@@ -18827,7 +18826,7 @@
       <c r="G217" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H217" s="140" t="s">
+      <c r="H217" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I217" s="25" t="s">
@@ -18846,7 +18845,7 @@
       <c r="E218" s="134"/>
       <c r="F218" s="125"/>
       <c r="G218" s="125"/>
-      <c r="H218" s="138"/>
+      <c r="H218" s="137"/>
       <c r="I218" s="22" t="s">
         <v>606</v>
       </c>
@@ -18895,7 +18894,7 @@
       <c r="E221" s="134"/>
       <c r="F221" s="125"/>
       <c r="G221" s="125"/>
-      <c r="H221" s="138" t="s">
+      <c r="H221" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I221" s="22" t="s">
@@ -18912,7 +18911,7 @@
       <c r="E222" s="135"/>
       <c r="F222" s="126"/>
       <c r="G222" s="126"/>
-      <c r="H222" s="139"/>
+      <c r="H222" s="138"/>
       <c r="I222" s="24" t="s">
         <v>800</v>
       </c>
@@ -18935,7 +18934,7 @@
       <c r="G223" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H223" s="140" t="s">
+      <c r="H223" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I223" s="25" t="s">
@@ -18954,7 +18953,7 @@
       <c r="E224" s="134"/>
       <c r="F224" s="125"/>
       <c r="G224" s="125"/>
-      <c r="H224" s="138"/>
+      <c r="H224" s="137"/>
       <c r="I224" s="22" t="s">
         <v>802</v>
       </c>
@@ -19562,53 +19561,302 @@
     </row>
   </sheetData>
   <mergeCells count="367">
-    <mergeCell ref="J252:J255"/>
-    <mergeCell ref="K252:K255"/>
-    <mergeCell ref="J244:J247"/>
-    <mergeCell ref="K244:K247"/>
-    <mergeCell ref="J248:J251"/>
-    <mergeCell ref="K248:K251"/>
-    <mergeCell ref="J236:J239"/>
-    <mergeCell ref="K236:K239"/>
-    <mergeCell ref="J240:J243"/>
-    <mergeCell ref="K240:K243"/>
-    <mergeCell ref="D236:D239"/>
-    <mergeCell ref="E236:E239"/>
-    <mergeCell ref="F236:F239"/>
-    <mergeCell ref="G236:G239"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="E244:E247"/>
-    <mergeCell ref="F244:F247"/>
-    <mergeCell ref="G244:G247"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="F252:F255"/>
-    <mergeCell ref="G252:G255"/>
-    <mergeCell ref="D248:D251"/>
-    <mergeCell ref="E248:E251"/>
-    <mergeCell ref="F248:F251"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="D240:D243"/>
-    <mergeCell ref="E240:E243"/>
-    <mergeCell ref="F240:F243"/>
-    <mergeCell ref="G240:G243"/>
-    <mergeCell ref="C82:C96"/>
-    <mergeCell ref="C97:C121"/>
-    <mergeCell ref="C122:C151"/>
-    <mergeCell ref="C152:C167"/>
-    <mergeCell ref="C168:C192"/>
-    <mergeCell ref="C193:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C255"/>
-    <mergeCell ref="A236:A255"/>
-    <mergeCell ref="B236:B255"/>
-    <mergeCell ref="B193:B229"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="B152:B167"/>
-    <mergeCell ref="A82:A96"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="A97:A121"/>
-    <mergeCell ref="B97:B121"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B81"/>
+    <mergeCell ref="C66:C81"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="G103:G108"/>
+    <mergeCell ref="J103:J108"/>
+    <mergeCell ref="K103:K108"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A35:A65"/>
+    <mergeCell ref="B35:B65"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J19"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="G50:G59"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J35:J41"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="C35:C65"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="K2:K19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:F49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="K50:K59"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="J60:J65"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="J122:J127"/>
+    <mergeCell ref="K122:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="F103:F108"/>
+    <mergeCell ref="K133:K137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="G138:G143"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="K138:K143"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="G133:G137"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="J164:J167"/>
+    <mergeCell ref="A122:A151"/>
+    <mergeCell ref="B122:B151"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="G122:G127"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="J133:J137"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="K156:K159"/>
+    <mergeCell ref="K144:K151"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="E152:E155"/>
+    <mergeCell ref="F152:F155"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="J152:J155"/>
+    <mergeCell ref="D144:D151"/>
+    <mergeCell ref="E144:E151"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="G144:G151"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="J144:J151"/>
+    <mergeCell ref="K164:K167"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="K160:K163"/>
+    <mergeCell ref="A168:A192"/>
+    <mergeCell ref="B168:B192"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="D185:D190"/>
+    <mergeCell ref="E185:E190"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="G185:G190"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="K168:K173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="J174:J179"/>
+    <mergeCell ref="K174:K179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="F180:F184"/>
+    <mergeCell ref="G180:G184"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="J180:J184"/>
+    <mergeCell ref="K180:K184"/>
+    <mergeCell ref="J185:J190"/>
+    <mergeCell ref="K185:K190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="J193:J197"/>
+    <mergeCell ref="K193:K197"/>
+    <mergeCell ref="D198:D204"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="F198:F204"/>
+    <mergeCell ref="G198:G204"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="J198:J204"/>
+    <mergeCell ref="K198:K204"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="G193:G197"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="J205:J211"/>
+    <mergeCell ref="K205:K211"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E212:E216"/>
+    <mergeCell ref="F212:F216"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="H212:H213"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="K212:K216"/>
+    <mergeCell ref="D205:D211"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="F205:F211"/>
+    <mergeCell ref="G205:G211"/>
     <mergeCell ref="J230:J235"/>
     <mergeCell ref="K230:K235"/>
     <mergeCell ref="A230:A235"/>
@@ -19633,302 +19881,53 @@
     <mergeCell ref="H217:H218"/>
     <mergeCell ref="J217:J222"/>
     <mergeCell ref="A193:A229"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="J205:J211"/>
-    <mergeCell ref="K205:K211"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E212:E216"/>
-    <mergeCell ref="F212:F216"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="H212:H213"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="K212:K216"/>
-    <mergeCell ref="D205:D211"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="F205:F211"/>
-    <mergeCell ref="G205:G211"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="J193:J197"/>
-    <mergeCell ref="K193:K197"/>
-    <mergeCell ref="D198:D204"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="F198:F204"/>
-    <mergeCell ref="G198:G204"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="J198:J204"/>
-    <mergeCell ref="K198:K204"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="G193:G197"/>
-    <mergeCell ref="J185:J190"/>
-    <mergeCell ref="K185:K190"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="J174:J179"/>
-    <mergeCell ref="K174:K179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="F180:F184"/>
-    <mergeCell ref="G180:G184"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="J180:J184"/>
-    <mergeCell ref="K180:K184"/>
-    <mergeCell ref="K164:K167"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="K160:K163"/>
-    <mergeCell ref="A168:A192"/>
-    <mergeCell ref="B168:B192"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="D185:D190"/>
-    <mergeCell ref="E185:E190"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="G185:G190"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="K168:K173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E156:E159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="J156:J159"/>
-    <mergeCell ref="K156:K159"/>
-    <mergeCell ref="K144:K151"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="J152:J155"/>
-    <mergeCell ref="D144:D151"/>
-    <mergeCell ref="E144:E151"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="G144:G151"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="J144:J151"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="G164:G167"/>
-    <mergeCell ref="J164:J167"/>
-    <mergeCell ref="A122:A151"/>
-    <mergeCell ref="B122:B151"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="G122:G127"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="J133:J137"/>
-    <mergeCell ref="K133:K137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="E138:E143"/>
-    <mergeCell ref="F138:F143"/>
-    <mergeCell ref="G138:G143"/>
-    <mergeCell ref="J138:J143"/>
-    <mergeCell ref="K138:K143"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="G133:G137"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="J122:J127"/>
-    <mergeCell ref="K122:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="E103:E108"/>
-    <mergeCell ref="F103:F108"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="K50:K59"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="F60:F65"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="J60:J65"/>
-    <mergeCell ref="K60:K65"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="F42:F49"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="K2:K19"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D2:D19"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="A35:A65"/>
-    <mergeCell ref="B35:B65"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:J19"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="F50:F59"/>
-    <mergeCell ref="G50:G59"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J35:J41"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="C35:C65"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="G103:G108"/>
-    <mergeCell ref="J103:J108"/>
-    <mergeCell ref="K103:K108"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="C66:C81"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="C82:C96"/>
+    <mergeCell ref="C97:C121"/>
+    <mergeCell ref="C122:C151"/>
+    <mergeCell ref="C152:C167"/>
+    <mergeCell ref="C168:C192"/>
+    <mergeCell ref="C193:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C255"/>
+    <mergeCell ref="A236:A255"/>
+    <mergeCell ref="B236:B255"/>
+    <mergeCell ref="B193:B229"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="B152:B167"/>
+    <mergeCell ref="A82:A96"/>
+    <mergeCell ref="B82:B96"/>
+    <mergeCell ref="A97:A121"/>
+    <mergeCell ref="B97:B121"/>
+    <mergeCell ref="D236:D239"/>
+    <mergeCell ref="E236:E239"/>
+    <mergeCell ref="F236:F239"/>
+    <mergeCell ref="G236:G239"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:E247"/>
+    <mergeCell ref="F244:F247"/>
+    <mergeCell ref="G244:G247"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="F252:F255"/>
+    <mergeCell ref="G252:G255"/>
+    <mergeCell ref="D248:D251"/>
+    <mergeCell ref="E248:E251"/>
+    <mergeCell ref="F248:F251"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="D240:D243"/>
+    <mergeCell ref="E240:E243"/>
+    <mergeCell ref="F240:F243"/>
+    <mergeCell ref="G240:G243"/>
+    <mergeCell ref="J252:J255"/>
+    <mergeCell ref="K252:K255"/>
+    <mergeCell ref="J244:J247"/>
+    <mergeCell ref="K244:K247"/>
+    <mergeCell ref="J248:J251"/>
+    <mergeCell ref="K248:K251"/>
+    <mergeCell ref="J236:J239"/>
+    <mergeCell ref="K236:K239"/>
+    <mergeCell ref="J240:J243"/>
+    <mergeCell ref="K240:K243"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{564D3010-D93D-4F69-9C69-AC86DC76B81C}"/>
@@ -20359,7 +20358,7 @@
       <c r="G16" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="81" t="s">
@@ -20378,7 +20377,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="138"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="34" t="s">
         <v>1593</v>
       </c>
@@ -20430,10 +20429,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>1609</v>
+        <v>1746</v>
       </c>
       <c r="E20" s="133" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="F20" s="124" t="s">
         <v>484</v>
@@ -20464,7 +20463,7 @@
         <v>7</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="J21" s="128"/>
       <c r="K21" s="128"/>
@@ -20481,7 +20480,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="J22" s="128"/>
       <c r="K22" s="128"/>
@@ -20498,7 +20497,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="92" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="J23" s="129"/>
       <c r="K23" s="129"/>
@@ -20508,10 +20507,10 @@
       <c r="B24" s="134"/>
       <c r="C24" s="131"/>
       <c r="D24" s="124" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E24" s="133" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="F24" s="124" t="s">
         <v>484</v>
@@ -20523,7 +20522,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="91" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="J24" s="127">
         <v>10</v>
@@ -20542,7 +20541,7 @@
         <v>7</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="J25" s="128"/>
       <c r="K25" s="128"/>
@@ -20559,7 +20558,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J26" s="128"/>
       <c r="K26" s="128"/>
@@ -20576,7 +20575,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="J27" s="129"/>
       <c r="K27" s="129"/>
@@ -20586,10 +20585,10 @@
       <c r="B28" s="134"/>
       <c r="C28" s="131"/>
       <c r="D28" s="124" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E28" s="133" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F28" s="124" t="s">
         <v>484</v>
@@ -20620,7 +20619,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J29" s="128"/>
       <c r="K29" s="128"/>
@@ -20637,7 +20636,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="J30" s="128"/>
       <c r="K30" s="128"/>
@@ -20654,7 +20653,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="J31" s="129"/>
       <c r="K31" s="129"/>
@@ -20664,10 +20663,10 @@
       <c r="B32" s="134"/>
       <c r="C32" s="131"/>
       <c r="D32" s="124" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E32" s="133" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F32" s="124" t="s">
         <v>484</v>
@@ -20698,7 +20697,7 @@
         <v>7</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J33" s="128"/>
       <c r="K33" s="128"/>
@@ -20715,7 +20714,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="J34" s="128"/>
       <c r="K34" s="128"/>
@@ -20732,7 +20731,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J35" s="129"/>
       <c r="K35" s="129"/>
@@ -21549,7 +21548,7 @@
       <c r="G78" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H78" s="140" t="s">
+      <c r="H78" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I78" s="20" t="s">
@@ -21568,7 +21567,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="138"/>
+      <c r="H79" s="137"/>
       <c r="I79" s="8" t="s">
         <v>910</v>
       </c>
@@ -21583,7 +21582,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="138" t="s">
+      <c r="H80" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -21600,7 +21599,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138"/>
+      <c r="H81" s="137"/>
       <c r="I81" s="8" t="s">
         <v>912</v>
       </c>
@@ -21615,7 +21614,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="138" t="s">
+      <c r="H82" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -21632,7 +21631,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138"/>
+      <c r="H83" s="137"/>
       <c r="I83" s="8" t="s">
         <v>914</v>
       </c>
@@ -21647,7 +21646,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138" t="s">
+      <c r="H84" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="8" t="s">
@@ -21664,7 +21663,7 @@
       <c r="E85" s="134"/>
       <c r="F85" s="125"/>
       <c r="G85" s="125"/>
-      <c r="H85" s="138"/>
+      <c r="H85" s="137"/>
       <c r="I85" s="8" t="s">
         <v>247</v>
       </c>
@@ -21679,7 +21678,7 @@
       <c r="E86" s="135"/>
       <c r="F86" s="126"/>
       <c r="G86" s="126"/>
-      <c r="H86" s="139"/>
+      <c r="H86" s="138"/>
       <c r="I86" s="21" t="s">
         <v>395</v>
       </c>
@@ -21898,7 +21897,7 @@
       <c r="G97" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H97" s="140" t="s">
+      <c r="H97" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="20" t="s">
@@ -21917,7 +21916,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138"/>
+      <c r="H98" s="137"/>
       <c r="I98" s="8" t="s">
         <v>910</v>
       </c>
@@ -21932,7 +21931,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="138" t="s">
+      <c r="H99" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I99" s="8" t="s">
@@ -21949,7 +21948,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="138"/>
+      <c r="H100" s="137"/>
       <c r="I100" s="8" t="s">
         <v>912</v>
       </c>
@@ -21964,7 +21963,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="138" t="s">
+      <c r="H101" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="8" t="s">
@@ -21981,7 +21980,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="138"/>
+      <c r="H102" s="137"/>
       <c r="I102" s="8" t="s">
         <v>914</v>
       </c>
@@ -21996,7 +21995,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I103" s="8" t="s">
@@ -22013,7 +22012,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138"/>
+      <c r="H104" s="137"/>
       <c r="I104" s="8" t="s">
         <v>247</v>
       </c>
@@ -22028,7 +22027,7 @@
       <c r="E105" s="135"/>
       <c r="F105" s="126"/>
       <c r="G105" s="126"/>
-      <c r="H105" s="139"/>
+      <c r="H105" s="138"/>
       <c r="I105" s="21" t="s">
         <v>395</v>
       </c>
@@ -22258,7 +22257,7 @@
       <c r="G117" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="140" t="s">
+      <c r="H117" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I117" s="20" t="s">
@@ -22277,7 +22276,7 @@
       <c r="E118" s="134"/>
       <c r="F118" s="125"/>
       <c r="G118" s="125"/>
-      <c r="H118" s="138"/>
+      <c r="H118" s="137"/>
       <c r="I118" s="8" t="s">
         <v>747</v>
       </c>
@@ -22292,7 +22291,7 @@
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
       <c r="G119" s="125"/>
-      <c r="H119" s="138"/>
+      <c r="H119" s="137"/>
       <c r="I119" s="8" t="s">
         <v>748</v>
       </c>
@@ -23091,6 +23090,214 @@
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="A133:A148"/>
+    <mergeCell ref="B133:B148"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A87:A122"/>
+    <mergeCell ref="B87:B122"/>
+    <mergeCell ref="K123:K128"/>
+    <mergeCell ref="J145:J148"/>
+    <mergeCell ref="J123:J128"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J105"/>
+    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="J111:J116"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="K78:K86"/>
+    <mergeCell ref="K111:K116"/>
+    <mergeCell ref="K117:K122"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="K129:K132"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="F97:F105"/>
+    <mergeCell ref="G97:G105"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="K133:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="A36:A69"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C36:C69"/>
+    <mergeCell ref="C70:C86"/>
+    <mergeCell ref="C87:C122"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="J149:J152"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K51:K57"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="D78:D86"/>
+    <mergeCell ref="E78:E86"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="B36:B69"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="J78:J86"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="J137:J140"/>
+    <mergeCell ref="J141:J144"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K105"/>
+    <mergeCell ref="K106:K110"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="K141:K144"/>
+    <mergeCell ref="K145:K148"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="F78:F86"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="J129:J132"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="J10:J12"/>
@@ -23115,214 +23322,6 @@
     <mergeCell ref="K24:K27"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="F78:F86"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="J129:J132"/>
-    <mergeCell ref="J133:J136"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K105"/>
-    <mergeCell ref="K106:K110"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="K145:K148"/>
-    <mergeCell ref="B36:B69"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="J78:J86"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="G106:G110"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="A149:A158"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C36:C69"/>
-    <mergeCell ref="C70:C86"/>
-    <mergeCell ref="C87:C122"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="J149:J152"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K51:K57"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="D78:D86"/>
-    <mergeCell ref="E78:E86"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K36:K42"/>
-    <mergeCell ref="K133:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="A36:A69"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="F97:F105"/>
-    <mergeCell ref="G97:G105"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="A133:A148"/>
-    <mergeCell ref="B133:B148"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="A87:A122"/>
-    <mergeCell ref="B87:B122"/>
-    <mergeCell ref="K123:K128"/>
-    <mergeCell ref="J145:J148"/>
-    <mergeCell ref="J123:J128"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J97:J105"/>
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="J111:J116"/>
-    <mergeCell ref="J117:J122"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="K78:K86"/>
-    <mergeCell ref="K111:K116"/>
-    <mergeCell ref="K117:K122"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="K129:K132"/>
-    <mergeCell ref="K87:K92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E123" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
@@ -23455,7 +23454,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="J2" s="127">
         <v>30</v>
@@ -23474,7 +23473,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J3" s="128"/>
       <c r="K3" s="128"/>
@@ -23491,7 +23490,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="J4" s="128"/>
       <c r="K4" s="128"/>
@@ -23508,7 +23507,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J5" s="129"/>
       <c r="K5" s="129"/>
@@ -23533,7 +23532,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J6" s="127">
         <v>20</v>
@@ -23552,7 +23551,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J7" s="128"/>
       <c r="K7" s="128"/>
@@ -23569,7 +23568,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="J8" s="129"/>
       <c r="K8" s="129"/>
@@ -23594,7 +23593,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J9" s="127">
         <v>20</v>
@@ -23613,7 +23612,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J10" s="128"/>
       <c r="K10" s="128"/>
@@ -23630,7 +23629,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J11" s="128"/>
       <c r="K11" s="128"/>
@@ -23647,7 +23646,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="J12" s="129"/>
       <c r="K12" s="129"/>
@@ -23708,7 +23707,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J15" s="129"/>
       <c r="K15" s="129"/>
@@ -24174,7 +24173,7 @@
       <c r="G39" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H39" s="140" t="s">
+      <c r="H39" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="76" t="s">
@@ -24193,7 +24192,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138"/>
+      <c r="H40" s="137"/>
       <c r="I40" s="34" t="s">
         <v>1552</v>
       </c>
@@ -24208,7 +24207,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="138"/>
+      <c r="H41" s="137"/>
       <c r="I41" s="34" t="s">
         <v>1553</v>
       </c>
@@ -24257,7 +24256,7 @@
       <c r="E44" s="134"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="138" t="s">
+      <c r="H44" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="34" t="s">
@@ -24274,7 +24273,7 @@
       <c r="E45" s="134"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="138"/>
+      <c r="H45" s="137"/>
       <c r="I45" s="34" t="s">
         <v>1557</v>
       </c>
@@ -24289,7 +24288,7 @@
       <c r="E46" s="134"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="138" t="s">
+      <c r="H46" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
@@ -24306,7 +24305,7 @@
       <c r="E47" s="134"/>
       <c r="F47" s="125"/>
       <c r="G47" s="125"/>
-      <c r="H47" s="138"/>
+      <c r="H47" s="137"/>
       <c r="I47" s="34" t="s">
         <v>1559</v>
       </c>
@@ -24389,7 +24388,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="138" t="s">
+      <c r="H52" s="137" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="34" t="s">
@@ -24406,7 +24405,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>1565</v>
       </c>
@@ -24421,7 +24420,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="138" t="s">
+      <c r="H54" s="137" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -24438,7 +24437,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="138"/>
+      <c r="H55" s="137"/>
       <c r="I55" s="4" t="s">
         <v>1567</v>
       </c>
@@ -24910,7 +24909,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138" t="s">
+      <c r="H81" s="137" t="s">
         <v>17</v>
       </c>
       <c r="I81" s="34" t="s">
@@ -24927,7 +24926,7 @@
       <c r="E82" s="135"/>
       <c r="F82" s="126"/>
       <c r="G82" s="126"/>
-      <c r="H82" s="139"/>
+      <c r="H82" s="138"/>
       <c r="I82" s="42" t="s">
         <v>605</v>
       </c>
@@ -25423,22 +25422,22 @@
     </row>
     <row r="108" spans="1:11" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="130" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B108" s="133" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C108" s="130">
         <v>3</v>
       </c>
       <c r="D108" s="124" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E108" s="133" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F108" s="124" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G108" s="124" t="s">
         <v>450</v>
@@ -25447,7 +25446,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="111" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J108" s="127">
         <v>40</v>
@@ -25466,7 +25465,7 @@
         <v>7</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J109" s="128"/>
       <c r="K109" s="128"/>
@@ -25483,7 +25482,7 @@
         <v>8</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="J110" s="128"/>
       <c r="K110" s="128"/>
@@ -25500,7 +25499,7 @@
         <v>6</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="J111" s="128"/>
       <c r="K111" s="128"/>
@@ -25517,7 +25516,7 @@
         <v>10</v>
       </c>
       <c r="I112" s="34" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="J112" s="128"/>
       <c r="K112" s="128"/>
@@ -25534,7 +25533,7 @@
         <v>9</v>
       </c>
       <c r="I113" s="34" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J113" s="128"/>
       <c r="K113" s="128"/>
@@ -25551,7 +25550,7 @@
         <v>14</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="J114" s="128"/>
       <c r="K114" s="128"/>
@@ -25568,7 +25567,7 @@
         <v>15</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="J115" s="128"/>
       <c r="K115" s="128"/>
@@ -25585,7 +25584,7 @@
         <v>16</v>
       </c>
       <c r="I116" s="112" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J116" s="129"/>
       <c r="K116" s="129"/>
@@ -25595,13 +25594,13 @@
       <c r="B117" s="134"/>
       <c r="C117" s="131"/>
       <c r="D117" s="124" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E117" s="133" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F117" s="124" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G117" s="124" t="s">
         <v>450</v>
@@ -25629,7 +25628,7 @@
         <v>7</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J118" s="128"/>
       <c r="K118" s="128"/>
@@ -25646,7 +25645,7 @@
         <v>8</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J119" s="128"/>
       <c r="K119" s="128"/>
@@ -25663,7 +25662,7 @@
         <v>6</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J120" s="128"/>
       <c r="K120" s="128"/>
@@ -25680,7 +25679,7 @@
         <v>10</v>
       </c>
       <c r="I121" s="22" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J121" s="128"/>
       <c r="K121" s="128"/>
@@ -25697,7 +25696,7 @@
         <v>9</v>
       </c>
       <c r="I122" s="22" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J122" s="128"/>
       <c r="K122" s="128"/>
@@ -25724,13 +25723,13 @@
       <c r="B124" s="134"/>
       <c r="C124" s="131"/>
       <c r="D124" s="124" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E124" s="133" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F124" s="124" t="s">
         <v>1668</v>
-      </c>
-      <c r="E124" s="133" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F124" s="124" t="s">
-        <v>1669</v>
       </c>
       <c r="G124" s="124" t="s">
         <v>450</v>
@@ -25758,7 +25757,7 @@
         <v>7</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J125" s="128"/>
       <c r="K125" s="128"/>
@@ -25775,7 +25774,7 @@
         <v>8</v>
       </c>
       <c r="I126" s="22" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J126" s="128"/>
       <c r="K126" s="128"/>
@@ -25792,7 +25791,7 @@
         <v>6</v>
       </c>
       <c r="I127" s="22" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J127" s="128"/>
       <c r="K127" s="128"/>
@@ -25816,69 +25815,63 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A108:A128"/>
-    <mergeCell ref="B108:B128"/>
-    <mergeCell ref="C108:C128"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="J117:J123"/>
-    <mergeCell ref="K117:K123"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="J124:J128"/>
-    <mergeCell ref="K124:K128"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:E116"/>
-    <mergeCell ref="F108:F116"/>
-    <mergeCell ref="G108:G116"/>
-    <mergeCell ref="J108:J116"/>
-    <mergeCell ref="K108:K116"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="G16:G24"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="K16:K24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="J104:J107"/>
-    <mergeCell ref="K104:K107"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="A92:A107"/>
-    <mergeCell ref="B92:B107"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:E107"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="C92:C107"/>
+    <mergeCell ref="D39:D59"/>
+    <mergeCell ref="E39:E59"/>
+    <mergeCell ref="F39:F59"/>
+    <mergeCell ref="G39:G59"/>
+    <mergeCell ref="J39:J59"/>
+    <mergeCell ref="K39:K59"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="C60:C71"/>
+    <mergeCell ref="C72:C82"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="A39:A59"/>
+    <mergeCell ref="B39:B59"/>
+    <mergeCell ref="C39:C59"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="D60:D71"/>
     <mergeCell ref="E60:E71"/>
     <mergeCell ref="F60:F71"/>
@@ -25903,63 +25896,69 @@
     <mergeCell ref="G72:G82"/>
     <mergeCell ref="J72:J82"/>
     <mergeCell ref="C83:C91"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="A39:A59"/>
-    <mergeCell ref="B39:B59"/>
-    <mergeCell ref="C39:C59"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="C60:C71"/>
-    <mergeCell ref="C72:C82"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D39:D59"/>
-    <mergeCell ref="E39:E59"/>
-    <mergeCell ref="F39:F59"/>
-    <mergeCell ref="G39:G59"/>
-    <mergeCell ref="J39:J59"/>
-    <mergeCell ref="K39:K59"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="A92:A107"/>
+    <mergeCell ref="B92:B107"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="C92:C107"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="K104:K107"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="K16:K24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="A108:A128"/>
+    <mergeCell ref="B108:B128"/>
+    <mergeCell ref="C108:C128"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="J117:J123"/>
+    <mergeCell ref="K117:K123"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:E116"/>
+    <mergeCell ref="F108:F116"/>
+    <mergeCell ref="G108:G116"/>
+    <mergeCell ref="J108:J116"/>
+    <mergeCell ref="K108:K116"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -28086,7 +28085,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -28103,7 +28102,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138"/>
+      <c r="H104" s="137"/>
       <c r="I104" s="34" t="s">
         <v>571</v>
       </c>
@@ -28118,7 +28117,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="138" t="s">
+      <c r="H105" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="34" t="s">
@@ -28135,7 +28134,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="138"/>
+      <c r="H106" s="137"/>
       <c r="I106" s="34" t="s">
         <v>573</v>
       </c>
@@ -28150,7 +28149,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="138" t="s">
+      <c r="H107" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I107" s="34" t="s">
@@ -28167,7 +28166,7 @@
       <c r="E108" s="134"/>
       <c r="F108" s="125"/>
       <c r="G108" s="125"/>
-      <c r="H108" s="138"/>
+      <c r="H108" s="137"/>
       <c r="I108" s="34" t="s">
         <v>754</v>
       </c>
@@ -28694,7 +28693,7 @@
       <c r="G135" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H135" s="140" t="s">
+      <c r="H135" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="41" t="s">
@@ -28713,7 +28712,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="138"/>
+      <c r="H136" s="137"/>
       <c r="I136" s="34" t="s">
         <v>359</v>
       </c>
@@ -28728,7 +28727,7 @@
       <c r="E137" s="134"/>
       <c r="F137" s="125"/>
       <c r="G137" s="125"/>
-      <c r="H137" s="138"/>
+      <c r="H137" s="137"/>
       <c r="I137" s="34" t="s">
         <v>360</v>
       </c>
@@ -28743,7 +28742,7 @@
       <c r="E138" s="134"/>
       <c r="F138" s="125"/>
       <c r="G138" s="125"/>
-      <c r="H138" s="138" t="s">
+      <c r="H138" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="34" t="s">
@@ -28760,7 +28759,7 @@
       <c r="E139" s="134"/>
       <c r="F139" s="125"/>
       <c r="G139" s="125"/>
-      <c r="H139" s="138"/>
+      <c r="H139" s="137"/>
       <c r="I139" s="34" t="s">
         <v>362</v>
       </c>
@@ -28775,7 +28774,7 @@
       <c r="E140" s="134"/>
       <c r="F140" s="125"/>
       <c r="G140" s="125"/>
-      <c r="H140" s="138" t="s">
+      <c r="H140" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I140" s="34" t="s">
@@ -28792,7 +28791,7 @@
       <c r="E141" s="135"/>
       <c r="F141" s="126"/>
       <c r="G141" s="126"/>
-      <c r="H141" s="139"/>
+      <c r="H141" s="138"/>
       <c r="I141" s="42" t="s">
         <v>247</v>
       </c>
@@ -28815,7 +28814,7 @@
       <c r="G142" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H142" s="140" t="s">
+      <c r="H142" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I142" s="41" t="s">
@@ -28834,7 +28833,7 @@
       <c r="E143" s="134"/>
       <c r="F143" s="125"/>
       <c r="G143" s="125"/>
-      <c r="H143" s="138"/>
+      <c r="H143" s="137"/>
       <c r="I143" s="34" t="s">
         <v>365</v>
       </c>
@@ -28849,7 +28848,7 @@
       <c r="E144" s="134"/>
       <c r="F144" s="125"/>
       <c r="G144" s="125"/>
-      <c r="H144" s="138"/>
+      <c r="H144" s="137"/>
       <c r="I144" s="34" t="s">
         <v>366</v>
       </c>
@@ -28864,7 +28863,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="138" t="s">
+      <c r="H145" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I145" s="34" t="s">
@@ -28881,7 +28880,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="138"/>
+      <c r="H146" s="137"/>
       <c r="I146" s="34" t="s">
         <v>368</v>
       </c>
@@ -28896,7 +28895,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="138"/>
+      <c r="H147" s="137"/>
       <c r="I147" s="34" t="s">
         <v>369</v>
       </c>
@@ -28911,7 +28910,7 @@
       <c r="E148" s="135"/>
       <c r="F148" s="126"/>
       <c r="G148" s="126"/>
-      <c r="H148" s="139"/>
+      <c r="H148" s="138"/>
       <c r="I148" s="42" t="s">
         <v>370</v>
       </c>
@@ -28934,7 +28933,7 @@
       <c r="G149" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H149" s="140" t="s">
+      <c r="H149" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="41" t="s">
@@ -28953,7 +28952,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="138"/>
+      <c r="H150" s="137"/>
       <c r="I150" s="34" t="s">
         <v>372</v>
       </c>
@@ -28968,7 +28967,7 @@
       <c r="E151" s="134"/>
       <c r="F151" s="125"/>
       <c r="G151" s="125"/>
-      <c r="H151" s="138"/>
+      <c r="H151" s="137"/>
       <c r="I151" s="34" t="s">
         <v>373</v>
       </c>
@@ -28983,7 +28982,7 @@
       <c r="E152" s="134"/>
       <c r="F152" s="125"/>
       <c r="G152" s="125"/>
-      <c r="H152" s="138" t="s">
+      <c r="H152" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I152" s="34" t="s">
@@ -29000,7 +28999,7 @@
       <c r="E153" s="134"/>
       <c r="F153" s="125"/>
       <c r="G153" s="125"/>
-      <c r="H153" s="138"/>
+      <c r="H153" s="137"/>
       <c r="I153" s="34" t="s">
         <v>375</v>
       </c>
@@ -29015,7 +29014,7 @@
       <c r="E154" s="134"/>
       <c r="F154" s="125"/>
       <c r="G154" s="125"/>
-      <c r="H154" s="138"/>
+      <c r="H154" s="137"/>
       <c r="I154" s="34" t="s">
         <v>376</v>
       </c>
@@ -29030,7 +29029,7 @@
       <c r="E155" s="135"/>
       <c r="F155" s="126"/>
       <c r="G155" s="126"/>
-      <c r="H155" s="139"/>
+      <c r="H155" s="138"/>
       <c r="I155" s="42" t="s">
         <v>247</v>
       </c>
@@ -29053,7 +29052,7 @@
       <c r="G156" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H156" s="140" t="s">
+      <c r="H156" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I156" s="41" t="s">
@@ -29072,7 +29071,7 @@
       <c r="E157" s="134"/>
       <c r="F157" s="125"/>
       <c r="G157" s="125"/>
-      <c r="H157" s="138"/>
+      <c r="H157" s="137"/>
       <c r="I157" s="34" t="s">
         <v>189</v>
       </c>
@@ -29087,7 +29086,7 @@
       <c r="E158" s="134"/>
       <c r="F158" s="125"/>
       <c r="G158" s="125"/>
-      <c r="H158" s="138"/>
+      <c r="H158" s="137"/>
       <c r="I158" s="34" t="s">
         <v>378</v>
       </c>
@@ -29102,7 +29101,7 @@
       <c r="E159" s="134"/>
       <c r="F159" s="125"/>
       <c r="G159" s="125"/>
-      <c r="H159" s="138" t="s">
+      <c r="H159" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I159" s="34" t="s">
@@ -29119,7 +29118,7 @@
       <c r="E160" s="134"/>
       <c r="F160" s="125"/>
       <c r="G160" s="125"/>
-      <c r="H160" s="138"/>
+      <c r="H160" s="137"/>
       <c r="I160" s="34" t="s">
         <v>380</v>
       </c>
@@ -29134,7 +29133,7 @@
       <c r="E161" s="134"/>
       <c r="F161" s="125"/>
       <c r="G161" s="125"/>
-      <c r="H161" s="138"/>
+      <c r="H161" s="137"/>
       <c r="I161" s="34" t="s">
         <v>381</v>
       </c>
@@ -29149,7 +29148,7 @@
       <c r="E162" s="135"/>
       <c r="F162" s="126"/>
       <c r="G162" s="126"/>
-      <c r="H162" s="139"/>
+      <c r="H162" s="138"/>
       <c r="I162" s="42" t="s">
         <v>247</v>
       </c>
@@ -29172,7 +29171,7 @@
       <c r="G163" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H163" s="140" t="s">
+      <c r="H163" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I163" s="41" t="s">
@@ -29191,7 +29190,7 @@
       <c r="E164" s="134"/>
       <c r="F164" s="125"/>
       <c r="G164" s="125"/>
-      <c r="H164" s="138"/>
+      <c r="H164" s="137"/>
       <c r="I164" s="34" t="s">
         <v>383</v>
       </c>
@@ -29206,7 +29205,7 @@
       <c r="E165" s="134"/>
       <c r="F165" s="125"/>
       <c r="G165" s="125"/>
-      <c r="H165" s="138"/>
+      <c r="H165" s="137"/>
       <c r="I165" s="34" t="s">
         <v>384</v>
       </c>
@@ -29221,7 +29220,7 @@
       <c r="E166" s="134"/>
       <c r="F166" s="125"/>
       <c r="G166" s="125"/>
-      <c r="H166" s="138" t="s">
+      <c r="H166" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I166" s="34" t="s">
@@ -29238,7 +29237,7 @@
       <c r="E167" s="134"/>
       <c r="F167" s="125"/>
       <c r="G167" s="125"/>
-      <c r="H167" s="138"/>
+      <c r="H167" s="137"/>
       <c r="I167" s="34" t="s">
         <v>386</v>
       </c>
@@ -29253,7 +29252,7 @@
       <c r="E168" s="135"/>
       <c r="F168" s="126"/>
       <c r="G168" s="126"/>
-      <c r="H168" s="139"/>
+      <c r="H168" s="138"/>
       <c r="I168" s="42" t="s">
         <v>247</v>
       </c>
@@ -29394,7 +29393,7 @@
       <c r="G175" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H175" s="140" t="s">
+      <c r="H175" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I175" s="41" t="s">
@@ -29413,7 +29412,7 @@
       <c r="E176" s="134"/>
       <c r="F176" s="125"/>
       <c r="G176" s="125"/>
-      <c r="H176" s="138"/>
+      <c r="H176" s="137"/>
       <c r="I176" s="34" t="s">
         <v>73</v>
       </c>
@@ -29428,7 +29427,7 @@
       <c r="E177" s="134"/>
       <c r="F177" s="125"/>
       <c r="G177" s="125"/>
-      <c r="H177" s="138"/>
+      <c r="H177" s="137"/>
       <c r="I177" s="34" t="s">
         <v>74</v>
       </c>
@@ -29443,7 +29442,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="138" t="s">
+      <c r="H178" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -29460,7 +29459,7 @@
       <c r="E179" s="134"/>
       <c r="F179" s="125"/>
       <c r="G179" s="125"/>
-      <c r="H179" s="138"/>
+      <c r="H179" s="137"/>
       <c r="I179" s="34" t="s">
         <v>76</v>
       </c>
@@ -29475,7 +29474,7 @@
       <c r="E180" s="134"/>
       <c r="F180" s="125"/>
       <c r="G180" s="125"/>
-      <c r="H180" s="138"/>
+      <c r="H180" s="137"/>
       <c r="I180" s="34" t="s">
         <v>77</v>
       </c>
@@ -29490,7 +29489,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="138" t="s">
+      <c r="H181" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I181" s="34" t="s">
@@ -29507,7 +29506,7 @@
       <c r="E182" s="134"/>
       <c r="F182" s="125"/>
       <c r="G182" s="125"/>
-      <c r="H182" s="138"/>
+      <c r="H182" s="137"/>
       <c r="I182" s="34" t="s">
         <v>79</v>
       </c>
@@ -29522,7 +29521,7 @@
       <c r="E183" s="134"/>
       <c r="F183" s="125"/>
       <c r="G183" s="125"/>
-      <c r="H183" s="138" t="s">
+      <c r="H183" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I183" s="34" t="s">
@@ -29539,7 +29538,7 @@
       <c r="E184" s="134"/>
       <c r="F184" s="125"/>
       <c r="G184" s="125"/>
-      <c r="H184" s="138"/>
+      <c r="H184" s="137"/>
       <c r="I184" s="34" t="s">
         <v>81</v>
       </c>
@@ -29554,7 +29553,7 @@
       <c r="E185" s="134"/>
       <c r="F185" s="125"/>
       <c r="G185" s="125"/>
-      <c r="H185" s="138"/>
+      <c r="H185" s="137"/>
       <c r="I185" s="34" t="s">
         <v>82</v>
       </c>
@@ -29569,7 +29568,7 @@
       <c r="E186" s="134"/>
       <c r="F186" s="125"/>
       <c r="G186" s="125"/>
-      <c r="H186" s="138" t="s">
+      <c r="H186" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="34" t="s">
@@ -29586,7 +29585,7 @@
       <c r="E187" s="135"/>
       <c r="F187" s="126"/>
       <c r="G187" s="126"/>
-      <c r="H187" s="139"/>
+      <c r="H187" s="138"/>
       <c r="I187" s="42" t="s">
         <v>69</v>
       </c>
@@ -29696,7 +29695,7 @@
       <c r="E193" s="134"/>
       <c r="F193" s="125"/>
       <c r="G193" s="125"/>
-      <c r="H193" s="138" t="s">
+      <c r="H193" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I193" s="34" t="s">
@@ -29713,7 +29712,7 @@
       <c r="E194" s="135"/>
       <c r="F194" s="126"/>
       <c r="G194" s="126"/>
-      <c r="H194" s="139"/>
+      <c r="H194" s="138"/>
       <c r="I194" s="42" t="s">
         <v>92</v>
       </c>
@@ -30132,34 +30131,268 @@
     </row>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="D211:D215"/>
-    <mergeCell ref="E211:E215"/>
-    <mergeCell ref="F211:F215"/>
-    <mergeCell ref="G211:G215"/>
-    <mergeCell ref="J211:J215"/>
-    <mergeCell ref="K211:K215"/>
-    <mergeCell ref="D206:D210"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="F206:F210"/>
-    <mergeCell ref="G206:G210"/>
-    <mergeCell ref="J206:J210"/>
-    <mergeCell ref="K206:K210"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="D201:D205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:G205"/>
-    <mergeCell ref="J201:J205"/>
-    <mergeCell ref="K201:K205"/>
-    <mergeCell ref="J188:J194"/>
-    <mergeCell ref="K188:K194"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="J195:J200"/>
-    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="C169:C215"/>
+    <mergeCell ref="A60:A76"/>
+    <mergeCell ref="B60:B76"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="C34:C49"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="C60:C76"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="C87:C119"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="A87:A119"/>
+    <mergeCell ref="B87:B119"/>
+    <mergeCell ref="A135:A168"/>
+    <mergeCell ref="B135:B168"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="K69:K72"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="A120:A134"/>
+    <mergeCell ref="B120:B134"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="G120:G124"/>
+    <mergeCell ref="J120:J124"/>
+    <mergeCell ref="K120:K124"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="K125:K129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="E130:E134"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="G130:G134"/>
+    <mergeCell ref="J130:J134"/>
+    <mergeCell ref="K130:K134"/>
+    <mergeCell ref="C120:C134"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G102:G109"/>
+    <mergeCell ref="J102:J109"/>
+    <mergeCell ref="K102:K109"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="F115:F119"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="J115:J119"/>
+    <mergeCell ref="K115:K119"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="F110:F114"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="K110:K114"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="F163:F168"/>
+    <mergeCell ref="G163:G168"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="J149:J155"/>
+    <mergeCell ref="J163:J168"/>
+    <mergeCell ref="C135:C168"/>
+    <mergeCell ref="D135:D141"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="G135:G141"/>
+    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="J135:J141"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="D149:D155"/>
+    <mergeCell ref="E149:E155"/>
+    <mergeCell ref="F149:F155"/>
+    <mergeCell ref="G149:G155"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="K135:K141"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="D142:D148"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="F142:F148"/>
+    <mergeCell ref="G142:G148"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="J142:J148"/>
+    <mergeCell ref="K142:K148"/>
+    <mergeCell ref="K149:K155"/>
+    <mergeCell ref="H152:H155"/>
+    <mergeCell ref="D156:D162"/>
+    <mergeCell ref="E156:E162"/>
+    <mergeCell ref="F156:F162"/>
+    <mergeCell ref="G156:G162"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="J156:J162"/>
+    <mergeCell ref="K156:K162"/>
+    <mergeCell ref="H159:H162"/>
     <mergeCell ref="K163:K168"/>
     <mergeCell ref="H166:H168"/>
     <mergeCell ref="A169:A215"/>
@@ -30184,268 +30417,34 @@
     <mergeCell ref="J175:J187"/>
     <mergeCell ref="K175:K187"/>
     <mergeCell ref="H178:H180"/>
-    <mergeCell ref="K149:K155"/>
-    <mergeCell ref="H152:H155"/>
-    <mergeCell ref="D156:D162"/>
-    <mergeCell ref="E156:E162"/>
-    <mergeCell ref="F156:F162"/>
-    <mergeCell ref="G156:G162"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="J156:J162"/>
-    <mergeCell ref="K156:K162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="K135:K141"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="D142:D148"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="F142:F148"/>
-    <mergeCell ref="G142:G148"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="J142:J148"/>
-    <mergeCell ref="K142:K148"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:E168"/>
-    <mergeCell ref="F163:F168"/>
-    <mergeCell ref="G163:G168"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="J149:J155"/>
-    <mergeCell ref="J163:J168"/>
-    <mergeCell ref="C135:C168"/>
-    <mergeCell ref="D135:D141"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="G135:G141"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="J135:J141"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="D149:D155"/>
-    <mergeCell ref="E149:E155"/>
-    <mergeCell ref="F149:F155"/>
-    <mergeCell ref="G149:G155"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="F115:F119"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="J115:J119"/>
-    <mergeCell ref="K115:K119"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="E110:E114"/>
-    <mergeCell ref="F110:F114"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="K110:K114"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="G102:G109"/>
-    <mergeCell ref="J102:J109"/>
-    <mergeCell ref="K102:K109"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="K87:K92"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="J130:J134"/>
-    <mergeCell ref="K130:K134"/>
-    <mergeCell ref="C120:C134"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="K73:K76"/>
-    <mergeCell ref="A120:A134"/>
-    <mergeCell ref="B120:B134"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="G120:G124"/>
-    <mergeCell ref="J120:J124"/>
-    <mergeCell ref="K120:K124"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="J125:J129"/>
-    <mergeCell ref="K125:K129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="G130:G134"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="K69:K72"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="C169:C215"/>
-    <mergeCell ref="A60:A76"/>
-    <mergeCell ref="B60:B76"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C49"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="C60:C76"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="C87:C119"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="A87:A119"/>
-    <mergeCell ref="B87:B119"/>
-    <mergeCell ref="A135:A168"/>
-    <mergeCell ref="B135:B168"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="D201:D205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:G205"/>
+    <mergeCell ref="J201:J205"/>
+    <mergeCell ref="K201:K205"/>
+    <mergeCell ref="J188:J194"/>
+    <mergeCell ref="K188:K194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="J195:J200"/>
+    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="D211:D215"/>
+    <mergeCell ref="E211:E215"/>
+    <mergeCell ref="F211:F215"/>
+    <mergeCell ref="G211:G215"/>
+    <mergeCell ref="J211:J215"/>
+    <mergeCell ref="K211:K215"/>
+    <mergeCell ref="D206:D210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="F206:F210"/>
+    <mergeCell ref="G206:G210"/>
+    <mergeCell ref="J206:J210"/>
+    <mergeCell ref="K206:K210"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E7FBFF0D-DBB0-40E7-AB39-A55B670BE339}"/>
@@ -31326,7 +31325,7 @@
       <c r="G39" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H39" s="140" t="s">
+      <c r="H39" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="41" t="s">
@@ -31345,7 +31344,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138"/>
+      <c r="H40" s="137"/>
       <c r="I40" s="34" t="s">
         <v>774</v>
       </c>
@@ -31611,7 +31610,7 @@
       <c r="G52" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H52" s="140" t="s">
+      <c r="H52" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="66" t="s">
@@ -31630,7 +31629,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>359</v>
       </c>
@@ -31645,7 +31644,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="138"/>
+      <c r="H54" s="137"/>
       <c r="I54" s="34" t="s">
         <v>360</v>
       </c>
@@ -31660,7 +31659,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="138" t="s">
+      <c r="H55" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="34" t="s">
@@ -31677,7 +31676,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="138"/>
+      <c r="H56" s="137"/>
       <c r="I56" s="34" t="s">
         <v>362</v>
       </c>
@@ -31692,7 +31691,7 @@
       <c r="E57" s="134"/>
       <c r="F57" s="125"/>
       <c r="G57" s="125"/>
-      <c r="H57" s="138" t="s">
+      <c r="H57" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="34" t="s">
@@ -31709,7 +31708,7 @@
       <c r="E58" s="135"/>
       <c r="F58" s="126"/>
       <c r="G58" s="126"/>
-      <c r="H58" s="139"/>
+      <c r="H58" s="138"/>
       <c r="I58" s="67" t="s">
         <v>247</v>
       </c>
@@ -31732,7 +31731,7 @@
       <c r="G59" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H59" s="140" t="s">
+      <c r="H59" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="66" t="s">
@@ -31751,7 +31750,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="138"/>
+      <c r="H60" s="137"/>
       <c r="I60" s="34" t="s">
         <v>365</v>
       </c>
@@ -31766,7 +31765,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="138"/>
+      <c r="H61" s="137"/>
       <c r="I61" s="34" t="s">
         <v>366</v>
       </c>
@@ -31781,7 +31780,7 @@
       <c r="E62" s="134"/>
       <c r="F62" s="125"/>
       <c r="G62" s="125"/>
-      <c r="H62" s="138" t="s">
+      <c r="H62" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="34" t="s">
@@ -31798,7 +31797,7 @@
       <c r="E63" s="134"/>
       <c r="F63" s="125"/>
       <c r="G63" s="125"/>
-      <c r="H63" s="138"/>
+      <c r="H63" s="137"/>
       <c r="I63" s="34" t="s">
         <v>368</v>
       </c>
@@ -31813,7 +31812,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="138"/>
+      <c r="H64" s="137"/>
       <c r="I64" s="34" t="s">
         <v>369</v>
       </c>
@@ -31828,7 +31827,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="139"/>
+      <c r="H65" s="138"/>
       <c r="I65" s="67" t="s">
         <v>370</v>
       </c>
@@ -31851,7 +31850,7 @@
       <c r="G66" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H66" s="140" t="s">
+      <c r="H66" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="66" t="s">
@@ -31870,7 +31869,7 @@
       <c r="E67" s="134"/>
       <c r="F67" s="125"/>
       <c r="G67" s="125"/>
-      <c r="H67" s="138"/>
+      <c r="H67" s="137"/>
       <c r="I67" s="34" t="s">
         <v>372</v>
       </c>
@@ -31885,7 +31884,7 @@
       <c r="E68" s="134"/>
       <c r="F68" s="125"/>
       <c r="G68" s="125"/>
-      <c r="H68" s="138"/>
+      <c r="H68" s="137"/>
       <c r="I68" s="34" t="s">
         <v>373</v>
       </c>
@@ -31900,7 +31899,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="138" t="s">
+      <c r="H69" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="34" t="s">
@@ -31917,7 +31916,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="138"/>
+      <c r="H70" s="137"/>
       <c r="I70" s="34" t="s">
         <v>375</v>
       </c>
@@ -31932,7 +31931,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="138"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="34" t="s">
         <v>376</v>
       </c>
@@ -31947,7 +31946,7 @@
       <c r="E72" s="135"/>
       <c r="F72" s="126"/>
       <c r="G72" s="126"/>
-      <c r="H72" s="139"/>
+      <c r="H72" s="138"/>
       <c r="I72" s="67" t="s">
         <v>247</v>
       </c>
@@ -31970,7 +31969,7 @@
       <c r="G73" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H73" s="140" t="s">
+      <c r="H73" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I73" s="66" t="s">
@@ -31989,7 +31988,7 @@
       <c r="E74" s="134"/>
       <c r="F74" s="125"/>
       <c r="G74" s="125"/>
-      <c r="H74" s="138"/>
+      <c r="H74" s="137"/>
       <c r="I74" s="34" t="s">
         <v>189</v>
       </c>
@@ -32004,7 +32003,7 @@
       <c r="E75" s="134"/>
       <c r="F75" s="125"/>
       <c r="G75" s="125"/>
-      <c r="H75" s="138"/>
+      <c r="H75" s="137"/>
       <c r="I75" s="34" t="s">
         <v>378</v>
       </c>
@@ -32019,7 +32018,7 @@
       <c r="E76" s="134"/>
       <c r="F76" s="125"/>
       <c r="G76" s="125"/>
-      <c r="H76" s="138" t="s">
+      <c r="H76" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="34" t="s">
@@ -32036,7 +32035,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="138"/>
+      <c r="H77" s="137"/>
       <c r="I77" s="34" t="s">
         <v>380</v>
       </c>
@@ -32051,7 +32050,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="138"/>
+      <c r="H78" s="137"/>
       <c r="I78" s="34" t="s">
         <v>381</v>
       </c>
@@ -32066,7 +32065,7 @@
       <c r="E79" s="135"/>
       <c r="F79" s="126"/>
       <c r="G79" s="126"/>
-      <c r="H79" s="139"/>
+      <c r="H79" s="138"/>
       <c r="I79" s="67" t="s">
         <v>247</v>
       </c>
@@ -32089,7 +32088,7 @@
       <c r="G80" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H80" s="140" t="s">
+      <c r="H80" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I80" s="66" t="s">
@@ -32108,7 +32107,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138"/>
+      <c r="H81" s="137"/>
       <c r="I81" s="34" t="s">
         <v>383</v>
       </c>
@@ -32123,7 +32122,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="138"/>
+      <c r="H82" s="137"/>
       <c r="I82" s="34" t="s">
         <v>384</v>
       </c>
@@ -32138,7 +32137,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138" t="s">
+      <c r="H83" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="34" t="s">
@@ -32155,7 +32154,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138"/>
+      <c r="H84" s="137"/>
       <c r="I84" s="34" t="s">
         <v>386</v>
       </c>
@@ -32170,7 +32169,7 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="139"/>
+      <c r="H85" s="138"/>
       <c r="I85" s="67" t="s">
         <v>247</v>
       </c>
@@ -32311,7 +32310,7 @@
       <c r="G92" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H92" s="140" t="s">
+      <c r="H92" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I92" s="66" t="s">
@@ -32330,7 +32329,7 @@
       <c r="E93" s="134"/>
       <c r="F93" s="125"/>
       <c r="G93" s="125"/>
-      <c r="H93" s="138"/>
+      <c r="H93" s="137"/>
       <c r="I93" s="34" t="s">
         <v>73</v>
       </c>
@@ -32345,7 +32344,7 @@
       <c r="E94" s="134"/>
       <c r="F94" s="125"/>
       <c r="G94" s="125"/>
-      <c r="H94" s="138"/>
+      <c r="H94" s="137"/>
       <c r="I94" s="34" t="s">
         <v>74</v>
       </c>
@@ -32360,7 +32359,7 @@
       <c r="E95" s="134"/>
       <c r="F95" s="125"/>
       <c r="G95" s="125"/>
-      <c r="H95" s="138" t="s">
+      <c r="H95" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="34" t="s">
@@ -32377,7 +32376,7 @@
       <c r="E96" s="134"/>
       <c r="F96" s="125"/>
       <c r="G96" s="125"/>
-      <c r="H96" s="138"/>
+      <c r="H96" s="137"/>
       <c r="I96" s="34" t="s">
         <v>76</v>
       </c>
@@ -32392,7 +32391,7 @@
       <c r="E97" s="134"/>
       <c r="F97" s="125"/>
       <c r="G97" s="125"/>
-      <c r="H97" s="138"/>
+      <c r="H97" s="137"/>
       <c r="I97" s="34" t="s">
         <v>77</v>
       </c>
@@ -32407,7 +32406,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138" t="s">
+      <c r="H98" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="34" t="s">
@@ -32424,7 +32423,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="138"/>
+      <c r="H99" s="137"/>
       <c r="I99" s="34" t="s">
         <v>79</v>
       </c>
@@ -32439,7 +32438,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="138" t="s">
+      <c r="H100" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I100" s="34" t="s">
@@ -32456,7 +32455,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="138"/>
+      <c r="H101" s="137"/>
       <c r="I101" s="34" t="s">
         <v>81</v>
       </c>
@@ -32471,7 +32470,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="138"/>
+      <c r="H102" s="137"/>
       <c r="I102" s="34" t="s">
         <v>82</v>
       </c>
@@ -32486,7 +32485,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -32503,7 +32502,7 @@
       <c r="E104" s="135"/>
       <c r="F104" s="126"/>
       <c r="G104" s="126"/>
-      <c r="H104" s="139"/>
+      <c r="H104" s="138"/>
       <c r="I104" s="67" t="s">
         <v>69</v>
       </c>
@@ -32613,7 +32612,7 @@
       <c r="E110" s="134"/>
       <c r="F110" s="125"/>
       <c r="G110" s="125"/>
-      <c r="H110" s="138" t="s">
+      <c r="H110" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="34" t="s">
@@ -32630,7 +32629,7 @@
       <c r="E111" s="135"/>
       <c r="F111" s="126"/>
       <c r="G111" s="126"/>
-      <c r="H111" s="139"/>
+      <c r="H111" s="138"/>
       <c r="I111" s="67" t="s">
         <v>92</v>
       </c>
@@ -33036,77 +33035,109 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="K123:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="F105:F111"/>
-    <mergeCell ref="G105:G111"/>
-    <mergeCell ref="J105:J111"/>
-    <mergeCell ref="K105:K111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="F92:F104"/>
-    <mergeCell ref="G92:G104"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="J92:J104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="A86:A132"/>
-    <mergeCell ref="B86:B132"/>
-    <mergeCell ref="C86:C132"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="D92:D104"/>
-    <mergeCell ref="E92:E104"/>
-    <mergeCell ref="K66:K72"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="G59:G65"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="K59:K65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="F80:F85"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="J80:J85"/>
-    <mergeCell ref="K80:K85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="G73:G79"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="J73:J79"/>
-    <mergeCell ref="K73:K79"/>
-    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
     <mergeCell ref="F52:F58"/>
     <mergeCell ref="G52:G58"/>
     <mergeCell ref="H52:H54"/>
@@ -33131,109 +33162,77 @@
     <mergeCell ref="G66:G72"/>
     <mergeCell ref="H66:H68"/>
     <mergeCell ref="J66:J72"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C51"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="G59:G65"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="K59:K65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="J80:J85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="G73:G79"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="J73:J79"/>
+    <mergeCell ref="K73:K79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="A86:A132"/>
+    <mergeCell ref="B86:B132"/>
+    <mergeCell ref="C86:C132"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="E92:E104"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="G105:G111"/>
+    <mergeCell ref="J105:J111"/>
+    <mergeCell ref="K105:K111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="F92:F104"/>
+    <mergeCell ref="G92:G104"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1" xr:uid="{B873AAFA-B675-43DD-B8CA-F179497ABCA7}"/>
@@ -33859,7 +33858,7 @@
       <c r="G28" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="140" t="s">
+      <c r="H28" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="41" t="s">
@@ -33878,7 +33877,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="138"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="34" t="s">
         <v>463</v>
       </c>
@@ -34645,7 +34644,7 @@
       <c r="G68" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H68" s="140" t="s">
+      <c r="H68" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I68" s="41" t="s">
@@ -34664,7 +34663,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="138"/>
+      <c r="H69" s="137"/>
       <c r="I69" s="34" t="s">
         <v>545</v>
       </c>
@@ -34679,7 +34678,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="138" t="s">
+      <c r="H70" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="34" t="s">
@@ -34696,7 +34695,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="138"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="34" t="s">
         <v>547</v>
       </c>
@@ -34796,7 +34795,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="138" t="s">
+      <c r="H77" s="137" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="34" t="s">
@@ -34813,7 +34812,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="138"/>
+      <c r="H78" s="137"/>
       <c r="I78" s="34" t="s">
         <v>554</v>
       </c>
@@ -34828,7 +34827,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="138" t="s">
+      <c r="H79" s="137" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="34" t="s">
@@ -34845,7 +34844,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="138"/>
+      <c r="H80" s="137"/>
       <c r="I80" s="34" t="s">
         <v>556</v>
       </c>
@@ -34911,7 +34910,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138" t="s">
+      <c r="H84" s="137" t="s">
         <v>543</v>
       </c>
       <c r="I84" s="34" t="s">
@@ -34928,7 +34927,7 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="139"/>
+      <c r="H85" s="138"/>
       <c r="I85" s="42" t="s">
         <v>132</v>
       </c>
@@ -35152,57 +35151,63 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="C46:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C85"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="J62:J67"/>
-    <mergeCell ref="K62:K67"/>
-    <mergeCell ref="A68:A85"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="D68:D85"/>
-    <mergeCell ref="E68:E85"/>
-    <mergeCell ref="F68:F85"/>
-    <mergeCell ref="G68:G85"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J85"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="K68:K85"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A28:A45"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="K19:K27"/>
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="E38:E41"/>
@@ -35227,63 +35232,57 @@
     <mergeCell ref="F58:F61"/>
     <mergeCell ref="G58:G61"/>
     <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
-    <mergeCell ref="A28:A45"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="K62:K67"/>
+    <mergeCell ref="A68:A85"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="D68:D85"/>
+    <mergeCell ref="E68:E85"/>
+    <mergeCell ref="F68:F85"/>
+    <mergeCell ref="G68:G85"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J85"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="K68:K85"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="C46:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C85"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E86" r:id="rId1" xr:uid="{B011B613-9CAB-4328-8D38-B7F9F35A327C}"/>

--- a/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
+++ b/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399C790-7371-4896-8604-9076DC0C05D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C430015-CD20-487D-AC74-317FD6240D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculus and Algebra" sheetId="10" r:id="rId1"/>
@@ -5877,7 +5877,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5886,22 +5889,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5911,6 +5905,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6200,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88A8C84-0507-4A26-A483-AE7054777E77}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6277,7 +6277,7 @@
       <c r="G2" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="71" t="s">
@@ -6296,7 +6296,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="137"/>
+      <c r="H3" s="138"/>
       <c r="I3" s="34" t="s">
         <v>334</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="137" t="s">
+      <c r="H64" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I64" s="34" t="s">
@@ -7528,7 +7528,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="138"/>
+      <c r="H65" s="139"/>
       <c r="I65" s="77" t="s">
         <v>1415</v>
       </c>
@@ -8888,7 +8888,7 @@
       <c r="G135" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H135" s="139" t="s">
+      <c r="H135" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="34" t="s">
@@ -8907,7 +8907,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="140"/>
+      <c r="H136" s="137"/>
       <c r="I136" s="34" t="s">
         <v>1516</v>
       </c>
@@ -9387,6 +9387,225 @@
     </row>
   </sheetData>
   <mergeCells count="243">
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="B46:B60"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="C46:C60"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="B61:B83"/>
+    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="K61:K65"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="C84:C99"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="K84:K88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="A61:A83"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="A100:A112"/>
+    <mergeCell ref="B100:B112"/>
+    <mergeCell ref="C100:C112"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="K113:K118"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="E119:E124"/>
+    <mergeCell ref="F119:F124"/>
+    <mergeCell ref="G119:G124"/>
+    <mergeCell ref="J119:J124"/>
+    <mergeCell ref="K119:K124"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="J125:J128"/>
+    <mergeCell ref="K125:K128"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="K129:K134"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="C135:C143"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="E135:E143"/>
+    <mergeCell ref="F135:F143"/>
+    <mergeCell ref="G135:G143"/>
+    <mergeCell ref="J135:J143"/>
+    <mergeCell ref="K135:K143"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="A113:A134"/>
+    <mergeCell ref="B113:B134"/>
+    <mergeCell ref="C113:C134"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="F113:F118"/>
+    <mergeCell ref="G113:G118"/>
+    <mergeCell ref="J113:J118"/>
     <mergeCell ref="G158:G161"/>
     <mergeCell ref="J158:J161"/>
     <mergeCell ref="K158:K161"/>
@@ -9411,225 +9630,6 @@
     <mergeCell ref="G152:G157"/>
     <mergeCell ref="J152:J157"/>
     <mergeCell ref="K152:K157"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="K129:K134"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="C135:C143"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="E135:E143"/>
-    <mergeCell ref="F135:F143"/>
-    <mergeCell ref="G135:G143"/>
-    <mergeCell ref="J135:J143"/>
-    <mergeCell ref="K135:K143"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="A113:A134"/>
-    <mergeCell ref="B113:B134"/>
-    <mergeCell ref="C113:C134"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="F113:F118"/>
-    <mergeCell ref="G113:G118"/>
-    <mergeCell ref="J113:J118"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="K113:K118"/>
-    <mergeCell ref="D119:D124"/>
-    <mergeCell ref="E119:E124"/>
-    <mergeCell ref="F119:F124"/>
-    <mergeCell ref="G119:G124"/>
-    <mergeCell ref="J119:J124"/>
-    <mergeCell ref="K119:K124"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="J125:J128"/>
-    <mergeCell ref="K125:K128"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="A100:A112"/>
-    <mergeCell ref="B100:B112"/>
-    <mergeCell ref="C100:C112"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="J66:J71"/>
-    <mergeCell ref="K66:K71"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="C84:C99"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="J84:J88"/>
-    <mergeCell ref="K84:K88"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="A61:A83"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="B61:B83"/>
-    <mergeCell ref="C61:C83"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="J61:J65"/>
-    <mergeCell ref="K61:K65"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="J26:J32"/>
-    <mergeCell ref="K26:K32"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="C46:C60"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="A46:A60"/>
-    <mergeCell ref="B46:B60"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E33" r:id="rId1" xr:uid="{635F6B92-C026-4D3A-8191-940C4FDC5525}"/>
@@ -9858,7 +9858,7 @@
       <c r="G7" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="66" t="s">
@@ -9877,7 +9877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="137"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="34" t="s">
         <v>334</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="E13" s="141"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="137" t="s">
+      <c r="H13" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="34" t="s">
@@ -9993,7 +9993,7 @@
       <c r="E14" s="141"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="137"/>
+      <c r="H14" s="138"/>
       <c r="I14" s="34" t="s">
         <v>1285</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="E15" s="141"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="137" t="s">
+      <c r="H15" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="34" t="s">
@@ -10025,7 +10025,7 @@
       <c r="E16" s="141"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="137"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="34" t="s">
         <v>1601</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="E18" s="141"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="34" t="s">
@@ -10074,7 +10074,7 @@
       <c r="E19" s="141"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
-      <c r="H19" s="137"/>
+      <c r="H19" s="138"/>
       <c r="I19" s="34" t="s">
         <v>1602</v>
       </c>
@@ -10089,7 +10089,7 @@
       <c r="E20" s="141"/>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
-      <c r="H20" s="137" t="s">
+      <c r="H20" s="138" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="34" t="s">
@@ -10106,7 +10106,7 @@
       <c r="E21" s="141"/>
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
-      <c r="H21" s="137"/>
+      <c r="H21" s="138"/>
       <c r="I21" s="34" t="s">
         <v>1604</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="G24" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="66" t="s">
@@ -10188,7 +10188,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="137"/>
+      <c r="H25" s="138"/>
       <c r="I25" s="34" t="s">
         <v>1358</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="G41" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H41" s="136" t="s">
+      <c r="H41" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="66" t="s">
@@ -10495,7 +10495,7 @@
       <c r="E42" s="134"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="137"/>
+      <c r="H42" s="138"/>
       <c r="I42" s="34" t="s">
         <v>1377</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="G50" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="136" t="s">
+      <c r="H50" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="66" t="s">
@@ -10656,7 +10656,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="137"/>
+      <c r="H51" s="138"/>
       <c r="I51" s="34" t="s">
         <v>1386</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="G58" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H58" s="136" t="s">
+      <c r="H58" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I58" s="66" t="s">
@@ -10800,7 +10800,7 @@
       <c r="E59" s="134"/>
       <c r="F59" s="125"/>
       <c r="G59" s="125"/>
-      <c r="H59" s="137"/>
+      <c r="H59" s="138"/>
       <c r="I59" s="34" t="s">
         <v>1395</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="137"/>
+      <c r="H60" s="138"/>
       <c r="I60" s="34" t="s">
         <v>1396</v>
       </c>
@@ -12259,56 +12259,112 @@
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="K102:K106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="F107:F112"/>
-    <mergeCell ref="G107:G112"/>
-    <mergeCell ref="J107:J112"/>
-    <mergeCell ref="K107:K112"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="D12:D23"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="F12:F23"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="J12:J23"/>
-    <mergeCell ref="K12:K23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="J131:J133"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="A118:A133"/>
+    <mergeCell ref="B118:B133"/>
+    <mergeCell ref="C118:C133"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="G123:G126"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="F127:F130"/>
+    <mergeCell ref="G127:G130"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="K127:K130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="E113:E117"/>
+    <mergeCell ref="F113:F117"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="J113:J117"/>
+    <mergeCell ref="K113:K117"/>
+    <mergeCell ref="C90:C101"/>
+    <mergeCell ref="A90:A101"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="K80:K84"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="K58:K67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="E58:E67"/>
+    <mergeCell ref="F58:F67"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="J58:J67"/>
     <mergeCell ref="K24:K32"/>
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="E33:E40"/>
@@ -12333,112 +12389,56 @@
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="J50:J57"/>
     <mergeCell ref="K50:K57"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="K58:K67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="F58:F67"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="J58:J67"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="K80:K84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="K85:K89"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="J113:J117"/>
-    <mergeCell ref="K113:K117"/>
-    <mergeCell ref="C90:C101"/>
-    <mergeCell ref="A90:A101"/>
-    <mergeCell ref="B90:B101"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="K98:K101"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="E113:E117"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="G131:G133"/>
-    <mergeCell ref="J131:J133"/>
-    <mergeCell ref="K131:K133"/>
-    <mergeCell ref="A118:A133"/>
-    <mergeCell ref="B118:B133"/>
-    <mergeCell ref="C118:C133"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="E127:E130"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="K127:K130"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="J12:J23"/>
+    <mergeCell ref="K12:K23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="F107:F112"/>
+    <mergeCell ref="G107:G112"/>
+    <mergeCell ref="J107:J112"/>
+    <mergeCell ref="K107:K112"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="K102:K106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{C44EB4F9-A338-4115-BF4C-D56C484F697C}"/>
@@ -12856,7 +12856,7 @@
       <c r="G17" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H17" s="136" t="s">
+      <c r="H17" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="55" t="s">
@@ -12875,7 +12875,7 @@
       <c r="E18" s="134"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="137"/>
+      <c r="H18" s="138"/>
       <c r="I18" s="34" t="s">
         <v>1158</v>
       </c>
@@ -12941,7 +12941,7 @@
       <c r="E22" s="134"/>
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="34" t="s">
@@ -12958,7 +12958,7 @@
       <c r="E23" s="134"/>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
-      <c r="H23" s="138"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="34" t="s">
         <v>1163</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="G24" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="55" t="s">
@@ -13006,7 +13006,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="137"/>
+      <c r="H25" s="138"/>
       <c r="I25" s="34" t="s">
         <v>1177</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="34" t="s">
@@ -13089,7 +13089,7 @@
       <c r="E30" s="134"/>
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
-      <c r="H30" s="138"/>
+      <c r="H30" s="139"/>
       <c r="I30" s="34" t="s">
         <v>1163</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="G52" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="136" t="s">
+      <c r="H52" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="41" t="s">
@@ -13550,7 +13550,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="137"/>
+      <c r="H53" s="138"/>
       <c r="I53" s="34" t="s">
         <v>1011</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="137" t="s">
+      <c r="H61" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="34" t="s">
@@ -13717,7 +13717,7 @@
       <c r="E62" s="135"/>
       <c r="F62" s="126"/>
       <c r="G62" s="126"/>
-      <c r="H62" s="138"/>
+      <c r="H62" s="139"/>
       <c r="I62" s="42" t="s">
         <v>888</v>
       </c>
@@ -14504,6 +14504,144 @@
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="C58:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C101"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C31:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="J88:J92"/>
+    <mergeCell ref="K88:K92"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="A83:A101"/>
+    <mergeCell ref="B83:B101"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="J83:J87"/>
+    <mergeCell ref="K83:K87"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="G79:G82"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="K52:K57"/>
+    <mergeCell ref="A58:A78"/>
+    <mergeCell ref="B58:B78"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="G24:G30"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="B31:B51"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K24:K30"/>
     <mergeCell ref="K17:K23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="A12:A16"/>
@@ -14528,144 +14666,6 @@
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="D17:D23"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="B31:B51"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K24:K30"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="K52:K57"/>
-    <mergeCell ref="A58:A78"/>
-    <mergeCell ref="B58:B78"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="G88:G92"/>
-    <mergeCell ref="J88:J92"/>
-    <mergeCell ref="K88:K92"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="A83:A101"/>
-    <mergeCell ref="B83:B101"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="G83:G87"/>
-    <mergeCell ref="J83:J87"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="G79:G82"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="C58:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C101"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C31:C51"/>
-    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B83" r:id="rId1" xr:uid="{CF6B9291-3D66-4CB8-9C54-731350528C0B}"/>
@@ -14779,7 +14779,7 @@
       <c r="G2" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="41" t="s">
@@ -14798,7 +14798,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="137"/>
+      <c r="H3" s="138"/>
       <c r="I3" s="34" t="s">
         <v>20</v>
       </c>
@@ -14813,7 +14813,7 @@
       <c r="E4" s="134"/>
       <c r="F4" s="125"/>
       <c r="G4" s="125"/>
-      <c r="H4" s="137"/>
+      <c r="H4" s="138"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="E5" s="134"/>
       <c r="F5" s="125"/>
       <c r="G5" s="125"/>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="34" t="s">
@@ -14845,7 +14845,7 @@
       <c r="E6" s="134"/>
       <c r="F6" s="125"/>
       <c r="G6" s="125"/>
-      <c r="H6" s="137"/>
+      <c r="H6" s="138"/>
       <c r="I6" s="34" t="s">
         <v>23</v>
       </c>
@@ -14860,7 +14860,7 @@
       <c r="E7" s="134"/>
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="34" t="s">
@@ -14877,7 +14877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="137"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="34" t="s">
         <v>25</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="E11" s="134"/>
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="138" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="34" t="s">
@@ -14943,7 +14943,7 @@
       <c r="E12" s="134"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
-      <c r="H12" s="137"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="34" t="s">
         <v>29</v>
       </c>
@@ -14975,7 +14975,7 @@
       <c r="E14" s="134"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="138" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -14992,7 +14992,7 @@
       <c r="E15" s="134"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="137"/>
+      <c r="H15" s="138"/>
       <c r="I15" s="34" t="s">
         <v>32</v>
       </c>
@@ -15007,7 +15007,7 @@
       <c r="E16" s="134"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="137" t="s">
+      <c r="H16" s="138" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="34" t="s">
@@ -15024,7 +15024,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="137"/>
+      <c r="H17" s="138"/>
       <c r="I17" s="34" t="s">
         <v>34</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="137" t="s">
+      <c r="H40" s="138" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="34" t="s">
@@ -15494,7 +15494,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="138"/>
+      <c r="H41" s="139"/>
       <c r="I41" s="42" t="s">
         <v>132</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="G42" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H42" s="136" t="s">
+      <c r="H42" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="41" t="s">
@@ -15536,7 +15536,7 @@
       <c r="E43" s="134"/>
       <c r="F43" s="125"/>
       <c r="G43" s="125"/>
-      <c r="H43" s="137"/>
+      <c r="H43" s="138"/>
       <c r="I43" s="22" t="s">
         <v>135</v>
       </c>
@@ -15619,7 +15619,7 @@
       <c r="E48" s="134"/>
       <c r="F48" s="125"/>
       <c r="G48" s="125"/>
-      <c r="H48" s="145" t="s">
+      <c r="H48" s="143" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="22" t="s">
@@ -15636,7 +15636,7 @@
       <c r="E49" s="135"/>
       <c r="F49" s="126"/>
       <c r="G49" s="126"/>
-      <c r="H49" s="146"/>
+      <c r="H49" s="144"/>
       <c r="I49" s="24" t="s">
         <v>132</v>
       </c>
@@ -15659,7 +15659,7 @@
       <c r="G50" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H50" s="147" t="s">
+      <c r="H50" s="145" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="25" t="s">
@@ -15678,7 +15678,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="145"/>
+      <c r="H51" s="143"/>
       <c r="I51" s="22" t="s">
         <v>151</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="145" t="s">
+      <c r="H52" s="143" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -15710,7 +15710,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="145"/>
+      <c r="H53" s="143"/>
       <c r="I53" s="22" t="s">
         <v>149</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="145" t="s">
+      <c r="H55" s="143" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="22" t="s">
@@ -15759,7 +15759,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="145"/>
+      <c r="H56" s="143"/>
       <c r="I56" s="22" t="s">
         <v>146</v>
       </c>
@@ -16269,7 +16269,7 @@
       <c r="G82" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H82" s="136" t="s">
+      <c r="H82" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I82" s="41" t="s">
@@ -16288,7 +16288,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="137"/>
+      <c r="H83" s="138"/>
       <c r="I83" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16408,7 +16408,7 @@
       <c r="E89" s="134"/>
       <c r="F89" s="125"/>
       <c r="G89" s="125"/>
-      <c r="H89" s="137" t="s">
+      <c r="H89" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="34" t="s">
@@ -16425,7 +16425,7 @@
       <c r="E90" s="134"/>
       <c r="F90" s="125"/>
       <c r="G90" s="125"/>
-      <c r="H90" s="137"/>
+      <c r="H90" s="138"/>
       <c r="I90" s="34" t="s">
         <v>30</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="E91" s="134"/>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
-      <c r="H91" s="137" t="s">
+      <c r="H91" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="34" t="s">
@@ -16457,7 +16457,7 @@
       <c r="E92" s="134"/>
       <c r="F92" s="125"/>
       <c r="G92" s="125"/>
-      <c r="H92" s="137"/>
+      <c r="H92" s="138"/>
       <c r="I92" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="G97" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H97" s="136" t="s">
+      <c r="H97" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="48" t="s">
@@ -16583,7 +16583,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="137"/>
+      <c r="H98" s="138"/>
       <c r="I98" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16703,7 +16703,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="137" t="s">
+      <c r="H104" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I104" s="34" t="s">
@@ -16720,7 +16720,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="137"/>
+      <c r="H105" s="138"/>
       <c r="I105" s="34" t="s">
         <v>30</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="137" t="s">
+      <c r="H106" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="34" t="s">
@@ -16752,7 +16752,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="137"/>
+      <c r="H107" s="138"/>
       <c r="I107" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="F112" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G112" s="136" t="s">
+      <c r="G112" s="140" t="s">
         <v>450</v>
       </c>
       <c r="H112" s="45" t="s">
@@ -16871,7 +16871,7 @@
       <c r="D113" s="125"/>
       <c r="E113" s="134"/>
       <c r="F113" s="125"/>
-      <c r="G113" s="137"/>
+      <c r="G113" s="138"/>
       <c r="H113" s="46" t="s">
         <v>7</v>
       </c>
@@ -16888,7 +16888,7 @@
       <c r="D114" s="125"/>
       <c r="E114" s="134"/>
       <c r="F114" s="125"/>
-      <c r="G114" s="137"/>
+      <c r="G114" s="138"/>
       <c r="H114" s="46" t="s">
         <v>8</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="D115" s="125"/>
       <c r="E115" s="134"/>
       <c r="F115" s="125"/>
-      <c r="G115" s="137"/>
+      <c r="G115" s="138"/>
       <c r="H115" s="46" t="s">
         <v>6</v>
       </c>
@@ -16922,7 +16922,7 @@
       <c r="D116" s="125"/>
       <c r="E116" s="134"/>
       <c r="F116" s="125"/>
-      <c r="G116" s="137"/>
+      <c r="G116" s="138"/>
       <c r="H116" s="46" t="s">
         <v>10</v>
       </c>
@@ -16939,7 +16939,7 @@
       <c r="D117" s="126"/>
       <c r="E117" s="135"/>
       <c r="F117" s="126"/>
-      <c r="G117" s="138"/>
+      <c r="G117" s="139"/>
       <c r="H117" s="46" t="s">
         <v>9</v>
       </c>
@@ -16962,7 +16962,7 @@
       <c r="F118" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G118" s="136" t="s">
+      <c r="G118" s="140" t="s">
         <v>450</v>
       </c>
       <c r="H118" s="45" t="s">
@@ -16983,7 +16983,7 @@
       <c r="D119" s="125"/>
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
-      <c r="G119" s="137"/>
+      <c r="G119" s="138"/>
       <c r="H119" s="46" t="s">
         <v>7</v>
       </c>
@@ -17000,7 +17000,7 @@
       <c r="D120" s="125"/>
       <c r="E120" s="134"/>
       <c r="F120" s="125"/>
-      <c r="G120" s="137"/>
+      <c r="G120" s="138"/>
       <c r="H120" s="46" t="s">
         <v>8</v>
       </c>
@@ -17017,7 +17017,7 @@
       <c r="D121" s="126"/>
       <c r="E121" s="135"/>
       <c r="F121" s="126"/>
-      <c r="G121" s="138"/>
+      <c r="G121" s="139"/>
       <c r="H121" s="47" t="s">
         <v>6</v>
       </c>
@@ -17256,7 +17256,7 @@
       <c r="G133" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H133" s="136" t="s">
+      <c r="H133" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="41" t="s">
@@ -17275,7 +17275,7 @@
       <c r="E134" s="134"/>
       <c r="F134" s="125"/>
       <c r="G134" s="125"/>
-      <c r="H134" s="137"/>
+      <c r="H134" s="138"/>
       <c r="I134" s="34" t="s">
         <v>255</v>
       </c>
@@ -17307,7 +17307,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="137" t="s">
+      <c r="H136" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I136" s="34" t="s">
@@ -17324,7 +17324,7 @@
       <c r="E137" s="135"/>
       <c r="F137" s="126"/>
       <c r="G137" s="126"/>
-      <c r="H137" s="138"/>
+      <c r="H137" s="139"/>
       <c r="I137" s="42" t="s">
         <v>247</v>
       </c>
@@ -17459,7 +17459,7 @@
       <c r="G144" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H144" s="136" t="s">
+      <c r="H144" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I144" s="41" t="s">
@@ -17478,7 +17478,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="137"/>
+      <c r="H145" s="138"/>
       <c r="I145" s="34" t="s">
         <v>266</v>
       </c>
@@ -17493,7 +17493,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="137"/>
+      <c r="H146" s="138"/>
       <c r="I146" s="34" t="s">
         <v>267</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="137" t="s">
+      <c r="H147" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I147" s="34" t="s">
@@ -17525,7 +17525,7 @@
       <c r="E148" s="134"/>
       <c r="F148" s="125"/>
       <c r="G148" s="125"/>
-      <c r="H148" s="137"/>
+      <c r="H148" s="138"/>
       <c r="I148" s="34" t="s">
         <v>269</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="E149" s="134"/>
       <c r="F149" s="125"/>
       <c r="G149" s="125"/>
-      <c r="H149" s="137" t="s">
+      <c r="H149" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I149" s="34" t="s">
@@ -17557,7 +17557,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="137"/>
+      <c r="H150" s="138"/>
       <c r="I150" s="34" t="s">
         <v>271</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="E151" s="135"/>
       <c r="F151" s="126"/>
       <c r="G151" s="126"/>
-      <c r="H151" s="138"/>
+      <c r="H151" s="139"/>
       <c r="I151" s="42" t="s">
         <v>247</v>
       </c>
@@ -17919,7 +17919,7 @@
       <c r="G168" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H168" s="136" t="s">
+      <c r="H168" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I168" s="41" t="s">
@@ -17938,7 +17938,7 @@
       <c r="E169" s="134"/>
       <c r="F169" s="125"/>
       <c r="G169" s="125"/>
-      <c r="H169" s="137"/>
+      <c r="H169" s="138"/>
       <c r="I169" s="34" t="s">
         <v>421</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="E172" s="134"/>
       <c r="F172" s="125"/>
       <c r="G172" s="125"/>
-      <c r="H172" s="137" t="s">
+      <c r="H172" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I172" s="34" t="s">
@@ -18004,7 +18004,7 @@
       <c r="E173" s="135"/>
       <c r="F173" s="126"/>
       <c r="G173" s="126"/>
-      <c r="H173" s="138"/>
+      <c r="H173" s="139"/>
       <c r="I173" s="42" t="s">
         <v>425</v>
       </c>
@@ -18027,7 +18027,7 @@
       <c r="G174" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H174" s="136" t="s">
+      <c r="H174" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I174" s="41" t="s">
@@ -18046,7 +18046,7 @@
       <c r="E175" s="134"/>
       <c r="F175" s="125"/>
       <c r="G175" s="125"/>
-      <c r="H175" s="137"/>
+      <c r="H175" s="138"/>
       <c r="I175" s="34" t="s">
         <v>428</v>
       </c>
@@ -18095,7 +18095,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="137" t="s">
+      <c r="H178" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -18112,7 +18112,7 @@
       <c r="E179" s="135"/>
       <c r="F179" s="126"/>
       <c r="G179" s="126"/>
-      <c r="H179" s="138"/>
+      <c r="H179" s="139"/>
       <c r="I179" s="42" t="s">
         <v>432</v>
       </c>
@@ -18135,7 +18135,7 @@
       <c r="G180" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H180" s="136" t="s">
+      <c r="H180" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I180" s="41" t="s">
@@ -18154,7 +18154,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="137"/>
+      <c r="H181" s="138"/>
       <c r="I181" s="34" t="s">
         <v>435</v>
       </c>
@@ -18340,10 +18340,10 @@
       <c r="G191" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H191" s="136" t="s">
+      <c r="H191" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="I191" s="143" t="s">
+      <c r="I191" s="146" t="s">
         <v>448</v>
       </c>
       <c r="J191" s="127">
@@ -18359,8 +18359,8 @@
       <c r="E192" s="135"/>
       <c r="F192" s="126"/>
       <c r="G192" s="126"/>
-      <c r="H192" s="138"/>
-      <c r="I192" s="144"/>
+      <c r="H192" s="139"/>
+      <c r="I192" s="147"/>
       <c r="J192" s="129"/>
       <c r="K192" s="129"/>
     </row>
@@ -18386,7 +18386,7 @@
       <c r="G193" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H193" s="136" t="s">
+      <c r="H193" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I193" s="41" t="s">
@@ -18405,7 +18405,7 @@
       <c r="E194" s="134"/>
       <c r="F194" s="125"/>
       <c r="G194" s="125"/>
-      <c r="H194" s="137"/>
+      <c r="H194" s="138"/>
       <c r="I194" s="34" t="s">
         <v>955</v>
       </c>
@@ -18479,7 +18479,7 @@
       <c r="G198" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H198" s="136" t="s">
+      <c r="H198" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I198" s="25" t="s">
@@ -18498,7 +18498,7 @@
       <c r="E199" s="134"/>
       <c r="F199" s="125"/>
       <c r="G199" s="125"/>
-      <c r="H199" s="137"/>
+      <c r="H199" s="138"/>
       <c r="I199" s="22" t="s">
         <v>4</v>
       </c>
@@ -18606,7 +18606,7 @@
       <c r="G205" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H205" s="136" t="s">
+      <c r="H205" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I205" s="25" t="s">
@@ -18625,7 +18625,7 @@
       <c r="E206" s="134"/>
       <c r="F206" s="125"/>
       <c r="G206" s="125"/>
-      <c r="H206" s="137"/>
+      <c r="H206" s="138"/>
       <c r="I206" s="22" t="s">
         <v>4</v>
       </c>
@@ -18733,7 +18733,7 @@
       <c r="G212" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H212" s="136" t="s">
+      <c r="H212" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I212" s="25" t="s">
@@ -18752,7 +18752,7 @@
       <c r="E213" s="134"/>
       <c r="F213" s="125"/>
       <c r="G213" s="125"/>
-      <c r="H213" s="137"/>
+      <c r="H213" s="138"/>
       <c r="I213" s="22" t="s">
         <v>4</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="G217" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H217" s="136" t="s">
+      <c r="H217" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I217" s="25" t="s">
@@ -18845,7 +18845,7 @@
       <c r="E218" s="134"/>
       <c r="F218" s="125"/>
       <c r="G218" s="125"/>
-      <c r="H218" s="137"/>
+      <c r="H218" s="138"/>
       <c r="I218" s="22" t="s">
         <v>606</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="E221" s="134"/>
       <c r="F221" s="125"/>
       <c r="G221" s="125"/>
-      <c r="H221" s="137" t="s">
+      <c r="H221" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I221" s="22" t="s">
@@ -18911,7 +18911,7 @@
       <c r="E222" s="135"/>
       <c r="F222" s="126"/>
       <c r="G222" s="126"/>
-      <c r="H222" s="138"/>
+      <c r="H222" s="139"/>
       <c r="I222" s="24" t="s">
         <v>800</v>
       </c>
@@ -18934,7 +18934,7 @@
       <c r="G223" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H223" s="136" t="s">
+      <c r="H223" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I223" s="25" t="s">
@@ -18953,7 +18953,7 @@
       <c r="E224" s="134"/>
       <c r="F224" s="125"/>
       <c r="G224" s="125"/>
-      <c r="H224" s="137"/>
+      <c r="H224" s="138"/>
       <c r="I224" s="22" t="s">
         <v>802</v>
       </c>
@@ -19561,82 +19561,273 @@
     </row>
   </sheetData>
   <mergeCells count="367">
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="C66:C81"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="G103:G108"/>
-    <mergeCell ref="J103:J108"/>
-    <mergeCell ref="K103:K108"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="J252:J255"/>
+    <mergeCell ref="K252:K255"/>
+    <mergeCell ref="J244:J247"/>
+    <mergeCell ref="K244:K247"/>
+    <mergeCell ref="J248:J251"/>
+    <mergeCell ref="K248:K251"/>
+    <mergeCell ref="J236:J239"/>
+    <mergeCell ref="K236:K239"/>
+    <mergeCell ref="J240:J243"/>
+    <mergeCell ref="K240:K243"/>
+    <mergeCell ref="D236:D239"/>
+    <mergeCell ref="E236:E239"/>
+    <mergeCell ref="F236:F239"/>
+    <mergeCell ref="G236:G239"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:E247"/>
+    <mergeCell ref="F244:F247"/>
+    <mergeCell ref="G244:G247"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="F252:F255"/>
+    <mergeCell ref="G252:G255"/>
+    <mergeCell ref="D248:D251"/>
+    <mergeCell ref="E248:E251"/>
+    <mergeCell ref="F248:F251"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="D240:D243"/>
+    <mergeCell ref="E240:E243"/>
+    <mergeCell ref="F240:F243"/>
+    <mergeCell ref="G240:G243"/>
+    <mergeCell ref="C82:C96"/>
+    <mergeCell ref="C97:C121"/>
+    <mergeCell ref="C122:C151"/>
+    <mergeCell ref="C152:C167"/>
+    <mergeCell ref="C168:C192"/>
+    <mergeCell ref="C193:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C255"/>
+    <mergeCell ref="A236:A255"/>
+    <mergeCell ref="B236:B255"/>
+    <mergeCell ref="B193:B229"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="B152:B167"/>
+    <mergeCell ref="A82:A96"/>
+    <mergeCell ref="B82:B96"/>
+    <mergeCell ref="A97:A121"/>
+    <mergeCell ref="B97:B121"/>
+    <mergeCell ref="J230:J235"/>
+    <mergeCell ref="K230:K235"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="D230:D235"/>
+    <mergeCell ref="E230:E235"/>
+    <mergeCell ref="F230:F235"/>
+    <mergeCell ref="G230:G235"/>
+    <mergeCell ref="K217:K222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="D223:D229"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F229"/>
+    <mergeCell ref="G223:G229"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="J223:J229"/>
+    <mergeCell ref="K223:K229"/>
+    <mergeCell ref="D217:D222"/>
+    <mergeCell ref="E217:E222"/>
+    <mergeCell ref="F217:F222"/>
+    <mergeCell ref="G217:G222"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="J217:J222"/>
+    <mergeCell ref="A193:A229"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="J205:J211"/>
+    <mergeCell ref="K205:K211"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E212:E216"/>
+    <mergeCell ref="F212:F216"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="H212:H213"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="K212:K216"/>
+    <mergeCell ref="D205:D211"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="F205:F211"/>
+    <mergeCell ref="G205:G211"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="J193:J197"/>
+    <mergeCell ref="K193:K197"/>
+    <mergeCell ref="D198:D204"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="F198:F204"/>
+    <mergeCell ref="G198:G204"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="J198:J204"/>
+    <mergeCell ref="K198:K204"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="G193:G197"/>
+    <mergeCell ref="J185:J190"/>
+    <mergeCell ref="K185:K190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="J174:J179"/>
+    <mergeCell ref="K174:K179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="F180:F184"/>
+    <mergeCell ref="G180:G184"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="J180:J184"/>
+    <mergeCell ref="K180:K184"/>
+    <mergeCell ref="K164:K167"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="K160:K163"/>
+    <mergeCell ref="A168:A192"/>
+    <mergeCell ref="B168:B192"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="D185:D190"/>
+    <mergeCell ref="E185:E190"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="G185:G190"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="K168:K173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="K156:K159"/>
+    <mergeCell ref="K144:K151"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="E152:E155"/>
+    <mergeCell ref="F152:F155"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="J152:J155"/>
+    <mergeCell ref="D144:D151"/>
+    <mergeCell ref="E144:E151"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="G144:G151"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="J144:J151"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="J164:J167"/>
+    <mergeCell ref="A122:A151"/>
+    <mergeCell ref="B122:B151"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="G122:G127"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="J133:J137"/>
+    <mergeCell ref="K133:K137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="G138:G143"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="K138:K143"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="G133:G137"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="J122:J127"/>
+    <mergeCell ref="K122:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="F103:F108"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="K50:K59"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="J60:J65"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:F49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="K2:K19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="C2:C19"/>
     <mergeCell ref="A35:A65"/>
     <mergeCell ref="B35:B65"/>
     <mergeCell ref="D35:D41"/>
@@ -19661,273 +19852,82 @@
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
-    <mergeCell ref="K2:K19"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D2:D19"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="F42:F49"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="K50:K59"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="F60:F65"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="J60:J65"/>
-    <mergeCell ref="K60:K65"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="J122:J127"/>
-    <mergeCell ref="K122:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="E103:E108"/>
-    <mergeCell ref="F103:F108"/>
-    <mergeCell ref="K133:K137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="E138:E143"/>
-    <mergeCell ref="F138:F143"/>
-    <mergeCell ref="G138:G143"/>
-    <mergeCell ref="J138:J143"/>
-    <mergeCell ref="K138:K143"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="G133:G137"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="G164:G167"/>
-    <mergeCell ref="J164:J167"/>
-    <mergeCell ref="A122:A151"/>
-    <mergeCell ref="B122:B151"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="G122:G127"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="J133:J137"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E156:E159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="J156:J159"/>
-    <mergeCell ref="K156:K159"/>
-    <mergeCell ref="K144:K151"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="J152:J155"/>
-    <mergeCell ref="D144:D151"/>
-    <mergeCell ref="E144:E151"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="G144:G151"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="J144:J151"/>
-    <mergeCell ref="K164:K167"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="K160:K163"/>
-    <mergeCell ref="A168:A192"/>
-    <mergeCell ref="B168:B192"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="D185:D190"/>
-    <mergeCell ref="E185:E190"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="G185:G190"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="K168:K173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="J174:J179"/>
-    <mergeCell ref="K174:K179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="F180:F184"/>
-    <mergeCell ref="G180:G184"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="J180:J184"/>
-    <mergeCell ref="K180:K184"/>
-    <mergeCell ref="J185:J190"/>
-    <mergeCell ref="K185:K190"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="J193:J197"/>
-    <mergeCell ref="K193:K197"/>
-    <mergeCell ref="D198:D204"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="F198:F204"/>
-    <mergeCell ref="G198:G204"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="J198:J204"/>
-    <mergeCell ref="K198:K204"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="G193:G197"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="J205:J211"/>
-    <mergeCell ref="K205:K211"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E212:E216"/>
-    <mergeCell ref="F212:F216"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="H212:H213"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="K212:K216"/>
-    <mergeCell ref="D205:D211"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="F205:F211"/>
-    <mergeCell ref="G205:G211"/>
-    <mergeCell ref="J230:J235"/>
-    <mergeCell ref="K230:K235"/>
-    <mergeCell ref="A230:A235"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="D230:D235"/>
-    <mergeCell ref="E230:E235"/>
-    <mergeCell ref="F230:F235"/>
-    <mergeCell ref="G230:G235"/>
-    <mergeCell ref="K217:K222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="D223:D229"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F229"/>
-    <mergeCell ref="G223:G229"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="J223:J229"/>
-    <mergeCell ref="K223:K229"/>
-    <mergeCell ref="D217:D222"/>
-    <mergeCell ref="E217:E222"/>
-    <mergeCell ref="F217:F222"/>
-    <mergeCell ref="G217:G222"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="J217:J222"/>
-    <mergeCell ref="A193:A229"/>
-    <mergeCell ref="C82:C96"/>
-    <mergeCell ref="C97:C121"/>
-    <mergeCell ref="C122:C151"/>
-    <mergeCell ref="C152:C167"/>
-    <mergeCell ref="C168:C192"/>
-    <mergeCell ref="C193:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C255"/>
-    <mergeCell ref="A236:A255"/>
-    <mergeCell ref="B236:B255"/>
-    <mergeCell ref="B193:B229"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="B152:B167"/>
-    <mergeCell ref="A82:A96"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="A97:A121"/>
-    <mergeCell ref="B97:B121"/>
-    <mergeCell ref="D236:D239"/>
-    <mergeCell ref="E236:E239"/>
-    <mergeCell ref="F236:F239"/>
-    <mergeCell ref="G236:G239"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="E244:E247"/>
-    <mergeCell ref="F244:F247"/>
-    <mergeCell ref="G244:G247"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="F252:F255"/>
-    <mergeCell ref="G252:G255"/>
-    <mergeCell ref="D248:D251"/>
-    <mergeCell ref="E248:E251"/>
-    <mergeCell ref="F248:F251"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="D240:D243"/>
-    <mergeCell ref="E240:E243"/>
-    <mergeCell ref="F240:F243"/>
-    <mergeCell ref="G240:G243"/>
-    <mergeCell ref="J252:J255"/>
-    <mergeCell ref="K252:K255"/>
-    <mergeCell ref="J244:J247"/>
-    <mergeCell ref="K244:K247"/>
-    <mergeCell ref="J248:J251"/>
-    <mergeCell ref="K248:K251"/>
-    <mergeCell ref="J236:J239"/>
-    <mergeCell ref="K236:K239"/>
-    <mergeCell ref="J240:J243"/>
-    <mergeCell ref="K240:K243"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="G103:G108"/>
+    <mergeCell ref="J103:J108"/>
+    <mergeCell ref="K103:K108"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B81"/>
+    <mergeCell ref="C66:C81"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{564D3010-D93D-4F69-9C69-AC86DC76B81C}"/>
@@ -20358,7 +20358,7 @@
       <c r="G16" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="81" t="s">
@@ -20377,7 +20377,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="137"/>
+      <c r="H17" s="138"/>
       <c r="I17" s="34" t="s">
         <v>1593</v>
       </c>
@@ -21548,7 +21548,7 @@
       <c r="G78" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H78" s="136" t="s">
+      <c r="H78" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I78" s="20" t="s">
@@ -21567,7 +21567,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="137"/>
+      <c r="H79" s="138"/>
       <c r="I79" s="8" t="s">
         <v>910</v>
       </c>
@@ -21582,7 +21582,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="137" t="s">
+      <c r="H80" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -21599,7 +21599,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="137"/>
+      <c r="H81" s="138"/>
       <c r="I81" s="8" t="s">
         <v>912</v>
       </c>
@@ -21614,7 +21614,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="137" t="s">
+      <c r="H82" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -21631,7 +21631,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="137"/>
+      <c r="H83" s="138"/>
       <c r="I83" s="8" t="s">
         <v>914</v>
       </c>
@@ -21646,7 +21646,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="137" t="s">
+      <c r="H84" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="8" t="s">
@@ -21663,7 +21663,7 @@
       <c r="E85" s="134"/>
       <c r="F85" s="125"/>
       <c r="G85" s="125"/>
-      <c r="H85" s="137"/>
+      <c r="H85" s="138"/>
       <c r="I85" s="8" t="s">
         <v>247</v>
       </c>
@@ -21678,7 +21678,7 @@
       <c r="E86" s="135"/>
       <c r="F86" s="126"/>
       <c r="G86" s="126"/>
-      <c r="H86" s="138"/>
+      <c r="H86" s="139"/>
       <c r="I86" s="21" t="s">
         <v>395</v>
       </c>
@@ -21897,7 +21897,7 @@
       <c r="G97" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H97" s="136" t="s">
+      <c r="H97" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="20" t="s">
@@ -21916,7 +21916,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="137"/>
+      <c r="H98" s="138"/>
       <c r="I98" s="8" t="s">
         <v>910</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="137" t="s">
+      <c r="H99" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I99" s="8" t="s">
@@ -21948,7 +21948,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="137"/>
+      <c r="H100" s="138"/>
       <c r="I100" s="8" t="s">
         <v>912</v>
       </c>
@@ -21963,7 +21963,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="137" t="s">
+      <c r="H101" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="8" t="s">
@@ -21980,7 +21980,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="137"/>
+      <c r="H102" s="138"/>
       <c r="I102" s="8" t="s">
         <v>914</v>
       </c>
@@ -21995,7 +21995,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="137" t="s">
+      <c r="H103" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I103" s="8" t="s">
@@ -22012,7 +22012,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="137"/>
+      <c r="H104" s="138"/>
       <c r="I104" s="8" t="s">
         <v>247</v>
       </c>
@@ -22027,7 +22027,7 @@
       <c r="E105" s="135"/>
       <c r="F105" s="126"/>
       <c r="G105" s="126"/>
-      <c r="H105" s="138"/>
+      <c r="H105" s="139"/>
       <c r="I105" s="21" t="s">
         <v>395</v>
       </c>
@@ -22257,7 +22257,7 @@
       <c r="G117" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="136" t="s">
+      <c r="H117" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I117" s="20" t="s">
@@ -22276,7 +22276,7 @@
       <c r="E118" s="134"/>
       <c r="F118" s="125"/>
       <c r="G118" s="125"/>
-      <c r="H118" s="137"/>
+      <c r="H118" s="138"/>
       <c r="I118" s="8" t="s">
         <v>747</v>
       </c>
@@ -22291,7 +22291,7 @@
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
       <c r="G119" s="125"/>
-      <c r="H119" s="137"/>
+      <c r="H119" s="138"/>
       <c r="I119" s="8" t="s">
         <v>748</v>
       </c>
@@ -23090,6 +23090,214 @@
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C35"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="F78:F86"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="J129:J132"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K105"/>
+    <mergeCell ref="K106:K110"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="K141:K144"/>
+    <mergeCell ref="K145:K148"/>
+    <mergeCell ref="B36:B69"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="J78:J86"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="J137:J140"/>
+    <mergeCell ref="J141:J144"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C36:C69"/>
+    <mergeCell ref="C70:C86"/>
+    <mergeCell ref="C87:C122"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="J149:J152"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K51:K57"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="D78:D86"/>
+    <mergeCell ref="E78:E86"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="K133:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="A36:A69"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="F97:F105"/>
+    <mergeCell ref="G97:G105"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G111:G116"/>
     <mergeCell ref="A133:A148"/>
     <mergeCell ref="B133:B148"/>
     <mergeCell ref="A70:A86"/>
@@ -23114,214 +23322,6 @@
     <mergeCell ref="F141:F144"/>
     <mergeCell ref="K129:K132"/>
     <mergeCell ref="K87:K92"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="F97:F105"/>
-    <mergeCell ref="G97:G105"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K36:K42"/>
-    <mergeCell ref="K133:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="A36:A69"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C36:C69"/>
-    <mergeCell ref="C70:C86"/>
-    <mergeCell ref="C87:C122"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="J149:J152"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K51:K57"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="D78:D86"/>
-    <mergeCell ref="E78:E86"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="A149:A158"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="B36:B69"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="J78:J86"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="G106:G110"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K105"/>
-    <mergeCell ref="K106:K110"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="K145:K148"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="F78:F86"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="J129:J132"/>
-    <mergeCell ref="J133:J136"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="A20:A35"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C35"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E123" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
@@ -24173,7 +24173,7 @@
       <c r="G39" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H39" s="136" t="s">
+      <c r="H39" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="76" t="s">
@@ -24192,7 +24192,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="137"/>
+      <c r="H40" s="138"/>
       <c r="I40" s="34" t="s">
         <v>1552</v>
       </c>
@@ -24207,7 +24207,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="137"/>
+      <c r="H41" s="138"/>
       <c r="I41" s="34" t="s">
         <v>1553</v>
       </c>
@@ -24256,7 +24256,7 @@
       <c r="E44" s="134"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="137" t="s">
+      <c r="H44" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="34" t="s">
@@ -24273,7 +24273,7 @@
       <c r="E45" s="134"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="137"/>
+      <c r="H45" s="138"/>
       <c r="I45" s="34" t="s">
         <v>1557</v>
       </c>
@@ -24288,7 +24288,7 @@
       <c r="E46" s="134"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="137" t="s">
+      <c r="H46" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
@@ -24305,7 +24305,7 @@
       <c r="E47" s="134"/>
       <c r="F47" s="125"/>
       <c r="G47" s="125"/>
-      <c r="H47" s="137"/>
+      <c r="H47" s="138"/>
       <c r="I47" s="34" t="s">
         <v>1559</v>
       </c>
@@ -24388,7 +24388,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="137" t="s">
+      <c r="H52" s="138" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="34" t="s">
@@ -24405,7 +24405,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="137"/>
+      <c r="H53" s="138"/>
       <c r="I53" s="34" t="s">
         <v>1565</v>
       </c>
@@ -24420,7 +24420,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="137" t="s">
+      <c r="H54" s="138" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -24437,7 +24437,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="137"/>
+      <c r="H55" s="138"/>
       <c r="I55" s="4" t="s">
         <v>1567</v>
       </c>
@@ -24909,7 +24909,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="137" t="s">
+      <c r="H81" s="138" t="s">
         <v>17</v>
       </c>
       <c r="I81" s="34" t="s">
@@ -24926,7 +24926,7 @@
       <c r="E82" s="135"/>
       <c r="F82" s="126"/>
       <c r="G82" s="126"/>
-      <c r="H82" s="138"/>
+      <c r="H82" s="139"/>
       <c r="I82" s="42" t="s">
         <v>605</v>
       </c>
@@ -25815,17 +25815,115 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="D39:D59"/>
-    <mergeCell ref="E39:E59"/>
-    <mergeCell ref="F39:F59"/>
-    <mergeCell ref="G39:G59"/>
-    <mergeCell ref="J39:J59"/>
-    <mergeCell ref="K39:K59"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="A108:A128"/>
+    <mergeCell ref="B108:B128"/>
+    <mergeCell ref="C108:C128"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="J117:J123"/>
+    <mergeCell ref="K117:K123"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:E116"/>
+    <mergeCell ref="F108:F116"/>
+    <mergeCell ref="G108:G116"/>
+    <mergeCell ref="J108:J116"/>
+    <mergeCell ref="K108:K116"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="K16:K24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="K104:K107"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="A92:A107"/>
+    <mergeCell ref="B92:B107"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="C92:C107"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="F60:F71"/>
+    <mergeCell ref="G60:G71"/>
+    <mergeCell ref="J60:J71"/>
+    <mergeCell ref="K60:K71"/>
+    <mergeCell ref="K72:K82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="J83:J91"/>
+    <mergeCell ref="K83:K91"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="B72:B82"/>
+    <mergeCell ref="D72:D82"/>
+    <mergeCell ref="E72:E82"/>
+    <mergeCell ref="F72:F82"/>
+    <mergeCell ref="G72:G82"/>
+    <mergeCell ref="J72:J82"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="A39:A59"/>
+    <mergeCell ref="B39:B59"/>
+    <mergeCell ref="C39:C59"/>
     <mergeCell ref="D31:D38"/>
     <mergeCell ref="E31:E38"/>
     <mergeCell ref="F31:F38"/>
@@ -25850,115 +25948,17 @@
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="A39:A59"/>
-    <mergeCell ref="B39:B59"/>
-    <mergeCell ref="C39:C59"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D60:D71"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="F60:F71"/>
-    <mergeCell ref="G60:G71"/>
-    <mergeCell ref="J60:J71"/>
-    <mergeCell ref="K60:K71"/>
-    <mergeCell ref="K72:K82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="J83:J91"/>
-    <mergeCell ref="K83:K91"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="B72:B82"/>
-    <mergeCell ref="D72:D82"/>
-    <mergeCell ref="E72:E82"/>
-    <mergeCell ref="F72:F82"/>
-    <mergeCell ref="G72:G82"/>
-    <mergeCell ref="J72:J82"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="A92:A107"/>
-    <mergeCell ref="B92:B107"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:E107"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="C92:C107"/>
-    <mergeCell ref="J104:J107"/>
-    <mergeCell ref="K104:K107"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="G16:G24"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="K16:K24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="A108:A128"/>
-    <mergeCell ref="B108:B128"/>
-    <mergeCell ref="C108:C128"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="J117:J123"/>
-    <mergeCell ref="K117:K123"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="J124:J128"/>
-    <mergeCell ref="K124:K128"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:E116"/>
-    <mergeCell ref="F108:F116"/>
-    <mergeCell ref="G108:G116"/>
-    <mergeCell ref="J108:J116"/>
-    <mergeCell ref="K108:K116"/>
+    <mergeCell ref="D39:D59"/>
+    <mergeCell ref="E39:E59"/>
+    <mergeCell ref="F39:F59"/>
+    <mergeCell ref="G39:G59"/>
+    <mergeCell ref="J39:J59"/>
+    <mergeCell ref="K39:K59"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -25993,7 +25993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F5260F-2AAF-4F2E-9369-7A38E6089BE0}">
   <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -28085,7 +28085,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="137" t="s">
+      <c r="H103" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -28102,7 +28102,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="137"/>
+      <c r="H104" s="138"/>
       <c r="I104" s="34" t="s">
         <v>571</v>
       </c>
@@ -28117,7 +28117,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="137" t="s">
+      <c r="H105" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="34" t="s">
@@ -28134,7 +28134,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="137"/>
+      <c r="H106" s="138"/>
       <c r="I106" s="34" t="s">
         <v>573</v>
       </c>
@@ -28149,7 +28149,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="137" t="s">
+      <c r="H107" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I107" s="34" t="s">
@@ -28166,7 +28166,7 @@
       <c r="E108" s="134"/>
       <c r="F108" s="125"/>
       <c r="G108" s="125"/>
-      <c r="H108" s="137"/>
+      <c r="H108" s="138"/>
       <c r="I108" s="34" t="s">
         <v>754</v>
       </c>
@@ -28693,7 +28693,7 @@
       <c r="G135" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H135" s="136" t="s">
+      <c r="H135" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="41" t="s">
@@ -28712,7 +28712,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="137"/>
+      <c r="H136" s="138"/>
       <c r="I136" s="34" t="s">
         <v>359</v>
       </c>
@@ -28727,7 +28727,7 @@
       <c r="E137" s="134"/>
       <c r="F137" s="125"/>
       <c r="G137" s="125"/>
-      <c r="H137" s="137"/>
+      <c r="H137" s="138"/>
       <c r="I137" s="34" t="s">
         <v>360</v>
       </c>
@@ -28742,7 +28742,7 @@
       <c r="E138" s="134"/>
       <c r="F138" s="125"/>
       <c r="G138" s="125"/>
-      <c r="H138" s="137" t="s">
+      <c r="H138" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="34" t="s">
@@ -28759,7 +28759,7 @@
       <c r="E139" s="134"/>
       <c r="F139" s="125"/>
       <c r="G139" s="125"/>
-      <c r="H139" s="137"/>
+      <c r="H139" s="138"/>
       <c r="I139" s="34" t="s">
         <v>362</v>
       </c>
@@ -28774,7 +28774,7 @@
       <c r="E140" s="134"/>
       <c r="F140" s="125"/>
       <c r="G140" s="125"/>
-      <c r="H140" s="137" t="s">
+      <c r="H140" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I140" s="34" t="s">
@@ -28791,7 +28791,7 @@
       <c r="E141" s="135"/>
       <c r="F141" s="126"/>
       <c r="G141" s="126"/>
-      <c r="H141" s="138"/>
+      <c r="H141" s="139"/>
       <c r="I141" s="42" t="s">
         <v>247</v>
       </c>
@@ -28814,7 +28814,7 @@
       <c r="G142" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H142" s="136" t="s">
+      <c r="H142" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I142" s="41" t="s">
@@ -28833,7 +28833,7 @@
       <c r="E143" s="134"/>
       <c r="F143" s="125"/>
       <c r="G143" s="125"/>
-      <c r="H143" s="137"/>
+      <c r="H143" s="138"/>
       <c r="I143" s="34" t="s">
         <v>365</v>
       </c>
@@ -28848,7 +28848,7 @@
       <c r="E144" s="134"/>
       <c r="F144" s="125"/>
       <c r="G144" s="125"/>
-      <c r="H144" s="137"/>
+      <c r="H144" s="138"/>
       <c r="I144" s="34" t="s">
         <v>366</v>
       </c>
@@ -28863,7 +28863,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="137" t="s">
+      <c r="H145" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I145" s="34" t="s">
@@ -28880,7 +28880,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="137"/>
+      <c r="H146" s="138"/>
       <c r="I146" s="34" t="s">
         <v>368</v>
       </c>
@@ -28895,7 +28895,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="137"/>
+      <c r="H147" s="138"/>
       <c r="I147" s="34" t="s">
         <v>369</v>
       </c>
@@ -28910,7 +28910,7 @@
       <c r="E148" s="135"/>
       <c r="F148" s="126"/>
       <c r="G148" s="126"/>
-      <c r="H148" s="138"/>
+      <c r="H148" s="139"/>
       <c r="I148" s="42" t="s">
         <v>370</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="G149" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H149" s="136" t="s">
+      <c r="H149" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="41" t="s">
@@ -28952,7 +28952,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="137"/>
+      <c r="H150" s="138"/>
       <c r="I150" s="34" t="s">
         <v>372</v>
       </c>
@@ -28967,7 +28967,7 @@
       <c r="E151" s="134"/>
       <c r="F151" s="125"/>
       <c r="G151" s="125"/>
-      <c r="H151" s="137"/>
+      <c r="H151" s="138"/>
       <c r="I151" s="34" t="s">
         <v>373</v>
       </c>
@@ -28982,7 +28982,7 @@
       <c r="E152" s="134"/>
       <c r="F152" s="125"/>
       <c r="G152" s="125"/>
-      <c r="H152" s="137" t="s">
+      <c r="H152" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I152" s="34" t="s">
@@ -28999,7 +28999,7 @@
       <c r="E153" s="134"/>
       <c r="F153" s="125"/>
       <c r="G153" s="125"/>
-      <c r="H153" s="137"/>
+      <c r="H153" s="138"/>
       <c r="I153" s="34" t="s">
         <v>375</v>
       </c>
@@ -29014,7 +29014,7 @@
       <c r="E154" s="134"/>
       <c r="F154" s="125"/>
       <c r="G154" s="125"/>
-      <c r="H154" s="137"/>
+      <c r="H154" s="138"/>
       <c r="I154" s="34" t="s">
         <v>376</v>
       </c>
@@ -29029,7 +29029,7 @@
       <c r="E155" s="135"/>
       <c r="F155" s="126"/>
       <c r="G155" s="126"/>
-      <c r="H155" s="138"/>
+      <c r="H155" s="139"/>
       <c r="I155" s="42" t="s">
         <v>247</v>
       </c>
@@ -29052,7 +29052,7 @@
       <c r="G156" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H156" s="136" t="s">
+      <c r="H156" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I156" s="41" t="s">
@@ -29071,7 +29071,7 @@
       <c r="E157" s="134"/>
       <c r="F157" s="125"/>
       <c r="G157" s="125"/>
-      <c r="H157" s="137"/>
+      <c r="H157" s="138"/>
       <c r="I157" s="34" t="s">
         <v>189</v>
       </c>
@@ -29086,7 +29086,7 @@
       <c r="E158" s="134"/>
       <c r="F158" s="125"/>
       <c r="G158" s="125"/>
-      <c r="H158" s="137"/>
+      <c r="H158" s="138"/>
       <c r="I158" s="34" t="s">
         <v>378</v>
       </c>
@@ -29101,7 +29101,7 @@
       <c r="E159" s="134"/>
       <c r="F159" s="125"/>
       <c r="G159" s="125"/>
-      <c r="H159" s="137" t="s">
+      <c r="H159" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I159" s="34" t="s">
@@ -29118,7 +29118,7 @@
       <c r="E160" s="134"/>
       <c r="F160" s="125"/>
       <c r="G160" s="125"/>
-      <c r="H160" s="137"/>
+      <c r="H160" s="138"/>
       <c r="I160" s="34" t="s">
         <v>380</v>
       </c>
@@ -29133,7 +29133,7 @@
       <c r="E161" s="134"/>
       <c r="F161" s="125"/>
       <c r="G161" s="125"/>
-      <c r="H161" s="137"/>
+      <c r="H161" s="138"/>
       <c r="I161" s="34" t="s">
         <v>381</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="E162" s="135"/>
       <c r="F162" s="126"/>
       <c r="G162" s="126"/>
-      <c r="H162" s="138"/>
+      <c r="H162" s="139"/>
       <c r="I162" s="42" t="s">
         <v>247</v>
       </c>
@@ -29171,7 +29171,7 @@
       <c r="G163" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H163" s="136" t="s">
+      <c r="H163" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I163" s="41" t="s">
@@ -29190,7 +29190,7 @@
       <c r="E164" s="134"/>
       <c r="F164" s="125"/>
       <c r="G164" s="125"/>
-      <c r="H164" s="137"/>
+      <c r="H164" s="138"/>
       <c r="I164" s="34" t="s">
         <v>383</v>
       </c>
@@ -29205,7 +29205,7 @@
       <c r="E165" s="134"/>
       <c r="F165" s="125"/>
       <c r="G165" s="125"/>
-      <c r="H165" s="137"/>
+      <c r="H165" s="138"/>
       <c r="I165" s="34" t="s">
         <v>384</v>
       </c>
@@ -29220,7 +29220,7 @@
       <c r="E166" s="134"/>
       <c r="F166" s="125"/>
       <c r="G166" s="125"/>
-      <c r="H166" s="137" t="s">
+      <c r="H166" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I166" s="34" t="s">
@@ -29237,7 +29237,7 @@
       <c r="E167" s="134"/>
       <c r="F167" s="125"/>
       <c r="G167" s="125"/>
-      <c r="H167" s="137"/>
+      <c r="H167" s="138"/>
       <c r="I167" s="34" t="s">
         <v>386</v>
       </c>
@@ -29252,7 +29252,7 @@
       <c r="E168" s="135"/>
       <c r="F168" s="126"/>
       <c r="G168" s="126"/>
-      <c r="H168" s="138"/>
+      <c r="H168" s="139"/>
       <c r="I168" s="42" t="s">
         <v>247</v>
       </c>
@@ -29393,7 +29393,7 @@
       <c r="G175" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H175" s="136" t="s">
+      <c r="H175" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I175" s="41" t="s">
@@ -29412,7 +29412,7 @@
       <c r="E176" s="134"/>
       <c r="F176" s="125"/>
       <c r="G176" s="125"/>
-      <c r="H176" s="137"/>
+      <c r="H176" s="138"/>
       <c r="I176" s="34" t="s">
         <v>73</v>
       </c>
@@ -29427,7 +29427,7 @@
       <c r="E177" s="134"/>
       <c r="F177" s="125"/>
       <c r="G177" s="125"/>
-      <c r="H177" s="137"/>
+      <c r="H177" s="138"/>
       <c r="I177" s="34" t="s">
         <v>74</v>
       </c>
@@ -29442,7 +29442,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="137" t="s">
+      <c r="H178" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -29459,7 +29459,7 @@
       <c r="E179" s="134"/>
       <c r="F179" s="125"/>
       <c r="G179" s="125"/>
-      <c r="H179" s="137"/>
+      <c r="H179" s="138"/>
       <c r="I179" s="34" t="s">
         <v>76</v>
       </c>
@@ -29474,7 +29474,7 @@
       <c r="E180" s="134"/>
       <c r="F180" s="125"/>
       <c r="G180" s="125"/>
-      <c r="H180" s="137"/>
+      <c r="H180" s="138"/>
       <c r="I180" s="34" t="s">
         <v>77</v>
       </c>
@@ -29489,7 +29489,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="137" t="s">
+      <c r="H181" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I181" s="34" t="s">
@@ -29506,7 +29506,7 @@
       <c r="E182" s="134"/>
       <c r="F182" s="125"/>
       <c r="G182" s="125"/>
-      <c r="H182" s="137"/>
+      <c r="H182" s="138"/>
       <c r="I182" s="34" t="s">
         <v>79</v>
       </c>
@@ -29521,7 +29521,7 @@
       <c r="E183" s="134"/>
       <c r="F183" s="125"/>
       <c r="G183" s="125"/>
-      <c r="H183" s="137" t="s">
+      <c r="H183" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I183" s="34" t="s">
@@ -29538,7 +29538,7 @@
       <c r="E184" s="134"/>
       <c r="F184" s="125"/>
       <c r="G184" s="125"/>
-      <c r="H184" s="137"/>
+      <c r="H184" s="138"/>
       <c r="I184" s="34" t="s">
         <v>81</v>
       </c>
@@ -29553,7 +29553,7 @@
       <c r="E185" s="134"/>
       <c r="F185" s="125"/>
       <c r="G185" s="125"/>
-      <c r="H185" s="137"/>
+      <c r="H185" s="138"/>
       <c r="I185" s="34" t="s">
         <v>82</v>
       </c>
@@ -29568,7 +29568,7 @@
       <c r="E186" s="134"/>
       <c r="F186" s="125"/>
       <c r="G186" s="125"/>
-      <c r="H186" s="137" t="s">
+      <c r="H186" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="34" t="s">
@@ -29585,7 +29585,7 @@
       <c r="E187" s="135"/>
       <c r="F187" s="126"/>
       <c r="G187" s="126"/>
-      <c r="H187" s="138"/>
+      <c r="H187" s="139"/>
       <c r="I187" s="42" t="s">
         <v>69</v>
       </c>
@@ -29695,7 +29695,7 @@
       <c r="E193" s="134"/>
       <c r="F193" s="125"/>
       <c r="G193" s="125"/>
-      <c r="H193" s="137" t="s">
+      <c r="H193" s="138" t="s">
         <v>9</v>
       </c>
       <c r="I193" s="34" t="s">
@@ -29712,7 +29712,7 @@
       <c r="E194" s="135"/>
       <c r="F194" s="126"/>
       <c r="G194" s="126"/>
-      <c r="H194" s="138"/>
+      <c r="H194" s="139"/>
       <c r="I194" s="42" t="s">
         <v>92</v>
       </c>
@@ -30131,40 +30131,262 @@
     </row>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="C169:C215"/>
-    <mergeCell ref="A60:A76"/>
-    <mergeCell ref="B60:B76"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C49"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="C60:C76"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="C87:C119"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="A87:A119"/>
-    <mergeCell ref="B87:B119"/>
-    <mergeCell ref="A135:A168"/>
-    <mergeCell ref="B135:B168"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="D211:D215"/>
+    <mergeCell ref="E211:E215"/>
+    <mergeCell ref="F211:F215"/>
+    <mergeCell ref="G211:G215"/>
+    <mergeCell ref="J211:J215"/>
+    <mergeCell ref="K211:K215"/>
+    <mergeCell ref="D206:D210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="F206:F210"/>
+    <mergeCell ref="G206:G210"/>
+    <mergeCell ref="J206:J210"/>
+    <mergeCell ref="K206:K210"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="D201:D205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:G205"/>
+    <mergeCell ref="J201:J205"/>
+    <mergeCell ref="K201:K205"/>
+    <mergeCell ref="J188:J194"/>
+    <mergeCell ref="K188:K194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="J195:J200"/>
+    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="K163:K168"/>
+    <mergeCell ref="H166:H168"/>
+    <mergeCell ref="A169:A215"/>
+    <mergeCell ref="B169:B215"/>
+    <mergeCell ref="D169:D174"/>
+    <mergeCell ref="E169:E174"/>
+    <mergeCell ref="F169:F174"/>
+    <mergeCell ref="G169:G174"/>
+    <mergeCell ref="J169:J174"/>
+    <mergeCell ref="H183:H185"/>
+    <mergeCell ref="H186:H187"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="E188:E194"/>
+    <mergeCell ref="F188:F194"/>
+    <mergeCell ref="G188:G194"/>
+    <mergeCell ref="K169:K174"/>
+    <mergeCell ref="D175:D187"/>
+    <mergeCell ref="E175:E187"/>
+    <mergeCell ref="F175:F187"/>
+    <mergeCell ref="G175:G187"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="J175:J187"/>
+    <mergeCell ref="K175:K187"/>
+    <mergeCell ref="H178:H180"/>
+    <mergeCell ref="K149:K155"/>
+    <mergeCell ref="H152:H155"/>
+    <mergeCell ref="D156:D162"/>
+    <mergeCell ref="E156:E162"/>
+    <mergeCell ref="F156:F162"/>
+    <mergeCell ref="G156:G162"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="J156:J162"/>
+    <mergeCell ref="K156:K162"/>
+    <mergeCell ref="H159:H162"/>
+    <mergeCell ref="K135:K141"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="D142:D148"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="F142:F148"/>
+    <mergeCell ref="G142:G148"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="J142:J148"/>
+    <mergeCell ref="K142:K148"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="F163:F168"/>
+    <mergeCell ref="G163:G168"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="J149:J155"/>
+    <mergeCell ref="J163:J168"/>
+    <mergeCell ref="C135:C168"/>
+    <mergeCell ref="D135:D141"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="G135:G141"/>
+    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="J135:J141"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="D149:D155"/>
+    <mergeCell ref="E149:E155"/>
+    <mergeCell ref="F149:F155"/>
+    <mergeCell ref="G149:G155"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="F115:F119"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="J115:J119"/>
+    <mergeCell ref="K115:K119"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="F110:F114"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="K110:K114"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G102:G109"/>
+    <mergeCell ref="J102:J109"/>
+    <mergeCell ref="K102:K109"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="J130:J134"/>
+    <mergeCell ref="K130:K134"/>
+    <mergeCell ref="C120:C134"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="A120:A134"/>
+    <mergeCell ref="B120:B134"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="G120:G124"/>
+    <mergeCell ref="J120:J124"/>
+    <mergeCell ref="K120:K124"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="K125:K129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="E130:E134"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="G130:G134"/>
     <mergeCell ref="D84:D86"/>
     <mergeCell ref="E84:E86"/>
     <mergeCell ref="F84:F86"/>
@@ -30189,262 +30411,40 @@
     <mergeCell ref="G69:G72"/>
     <mergeCell ref="J69:J72"/>
     <mergeCell ref="K69:K72"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="K73:K76"/>
-    <mergeCell ref="A120:A134"/>
-    <mergeCell ref="B120:B134"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="G120:G124"/>
-    <mergeCell ref="J120:J124"/>
-    <mergeCell ref="K120:K124"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="J125:J129"/>
-    <mergeCell ref="K125:K129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="G130:G134"/>
-    <mergeCell ref="J130:J134"/>
-    <mergeCell ref="K130:K134"/>
-    <mergeCell ref="C120:C134"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="K87:K92"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="G102:G109"/>
-    <mergeCell ref="J102:J109"/>
-    <mergeCell ref="K102:K109"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="F115:F119"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="J115:J119"/>
-    <mergeCell ref="K115:K119"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="E110:E114"/>
-    <mergeCell ref="F110:F114"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="K110:K114"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:E168"/>
-    <mergeCell ref="F163:F168"/>
-    <mergeCell ref="G163:G168"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="J149:J155"/>
-    <mergeCell ref="J163:J168"/>
-    <mergeCell ref="C135:C168"/>
-    <mergeCell ref="D135:D141"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="G135:G141"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="J135:J141"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="D149:D155"/>
-    <mergeCell ref="E149:E155"/>
-    <mergeCell ref="F149:F155"/>
-    <mergeCell ref="G149:G155"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="K135:K141"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="D142:D148"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="F142:F148"/>
-    <mergeCell ref="G142:G148"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="J142:J148"/>
-    <mergeCell ref="K142:K148"/>
-    <mergeCell ref="K149:K155"/>
-    <mergeCell ref="H152:H155"/>
-    <mergeCell ref="D156:D162"/>
-    <mergeCell ref="E156:E162"/>
-    <mergeCell ref="F156:F162"/>
-    <mergeCell ref="G156:G162"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="J156:J162"/>
-    <mergeCell ref="K156:K162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="K163:K168"/>
-    <mergeCell ref="H166:H168"/>
-    <mergeCell ref="A169:A215"/>
-    <mergeCell ref="B169:B215"/>
-    <mergeCell ref="D169:D174"/>
-    <mergeCell ref="E169:E174"/>
-    <mergeCell ref="F169:F174"/>
-    <mergeCell ref="G169:G174"/>
-    <mergeCell ref="J169:J174"/>
-    <mergeCell ref="H183:H185"/>
-    <mergeCell ref="H186:H187"/>
-    <mergeCell ref="D188:D194"/>
-    <mergeCell ref="E188:E194"/>
-    <mergeCell ref="F188:F194"/>
-    <mergeCell ref="G188:G194"/>
-    <mergeCell ref="K169:K174"/>
-    <mergeCell ref="D175:D187"/>
-    <mergeCell ref="E175:E187"/>
-    <mergeCell ref="F175:F187"/>
-    <mergeCell ref="G175:G187"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="J175:J187"/>
-    <mergeCell ref="K175:K187"/>
-    <mergeCell ref="H178:H180"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="D201:D205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:G205"/>
-    <mergeCell ref="J201:J205"/>
-    <mergeCell ref="K201:K205"/>
-    <mergeCell ref="J188:J194"/>
-    <mergeCell ref="K188:K194"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="J195:J200"/>
-    <mergeCell ref="K195:K200"/>
-    <mergeCell ref="D211:D215"/>
-    <mergeCell ref="E211:E215"/>
-    <mergeCell ref="F211:F215"/>
-    <mergeCell ref="G211:G215"/>
-    <mergeCell ref="J211:J215"/>
-    <mergeCell ref="K211:K215"/>
-    <mergeCell ref="D206:D210"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="F206:F210"/>
-    <mergeCell ref="G206:G210"/>
-    <mergeCell ref="J206:J210"/>
-    <mergeCell ref="K206:K210"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="C169:C215"/>
+    <mergeCell ref="A60:A76"/>
+    <mergeCell ref="B60:B76"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="C34:C49"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="C60:C76"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="C87:C119"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="A87:A119"/>
+    <mergeCell ref="B87:B119"/>
+    <mergeCell ref="A135:A168"/>
+    <mergeCell ref="B135:B168"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E7FBFF0D-DBB0-40E7-AB39-A55B670BE339}"/>
@@ -31325,7 +31325,7 @@
       <c r="G39" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H39" s="136" t="s">
+      <c r="H39" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="41" t="s">
@@ -31344,7 +31344,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="137"/>
+      <c r="H40" s="138"/>
       <c r="I40" s="34" t="s">
         <v>774</v>
       </c>
@@ -31610,7 +31610,7 @@
       <c r="G52" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H52" s="136" t="s">
+      <c r="H52" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="66" t="s">
@@ -31629,7 +31629,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="137"/>
+      <c r="H53" s="138"/>
       <c r="I53" s="34" t="s">
         <v>359</v>
       </c>
@@ -31644,7 +31644,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="137"/>
+      <c r="H54" s="138"/>
       <c r="I54" s="34" t="s">
         <v>360</v>
       </c>
@@ -31659,7 +31659,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="137" t="s">
+      <c r="H55" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="34" t="s">
@@ -31676,7 +31676,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="137"/>
+      <c r="H56" s="138"/>
       <c r="I56" s="34" t="s">
         <v>362</v>
       </c>
@@ -31691,7 +31691,7 @@
       <c r="E57" s="134"/>
       <c r="F57" s="125"/>
       <c r="G57" s="125"/>
-      <c r="H57" s="137" t="s">
+      <c r="H57" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="34" t="s">
@@ -31708,7 +31708,7 @@
       <c r="E58" s="135"/>
       <c r="F58" s="126"/>
       <c r="G58" s="126"/>
-      <c r="H58" s="138"/>
+      <c r="H58" s="139"/>
       <c r="I58" s="67" t="s">
         <v>247</v>
       </c>
@@ -31731,7 +31731,7 @@
       <c r="G59" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H59" s="136" t="s">
+      <c r="H59" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="66" t="s">
@@ -31750,7 +31750,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="137"/>
+      <c r="H60" s="138"/>
       <c r="I60" s="34" t="s">
         <v>365</v>
       </c>
@@ -31765,7 +31765,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="137"/>
+      <c r="H61" s="138"/>
       <c r="I61" s="34" t="s">
         <v>366</v>
       </c>
@@ -31780,7 +31780,7 @@
       <c r="E62" s="134"/>
       <c r="F62" s="125"/>
       <c r="G62" s="125"/>
-      <c r="H62" s="137" t="s">
+      <c r="H62" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="34" t="s">
@@ -31797,7 +31797,7 @@
       <c r="E63" s="134"/>
       <c r="F63" s="125"/>
       <c r="G63" s="125"/>
-      <c r="H63" s="137"/>
+      <c r="H63" s="138"/>
       <c r="I63" s="34" t="s">
         <v>368</v>
       </c>
@@ -31812,7 +31812,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="137"/>
+      <c r="H64" s="138"/>
       <c r="I64" s="34" t="s">
         <v>369</v>
       </c>
@@ -31827,7 +31827,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="138"/>
+      <c r="H65" s="139"/>
       <c r="I65" s="67" t="s">
         <v>370</v>
       </c>
@@ -31850,7 +31850,7 @@
       <c r="G66" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H66" s="136" t="s">
+      <c r="H66" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="66" t="s">
@@ -31869,7 +31869,7 @@
       <c r="E67" s="134"/>
       <c r="F67" s="125"/>
       <c r="G67" s="125"/>
-      <c r="H67" s="137"/>
+      <c r="H67" s="138"/>
       <c r="I67" s="34" t="s">
         <v>372</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="E68" s="134"/>
       <c r="F68" s="125"/>
       <c r="G68" s="125"/>
-      <c r="H68" s="137"/>
+      <c r="H68" s="138"/>
       <c r="I68" s="34" t="s">
         <v>373</v>
       </c>
@@ -31899,7 +31899,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="137" t="s">
+      <c r="H69" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="34" t="s">
@@ -31916,7 +31916,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="137"/>
+      <c r="H70" s="138"/>
       <c r="I70" s="34" t="s">
         <v>375</v>
       </c>
@@ -31931,7 +31931,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="137"/>
+      <c r="H71" s="138"/>
       <c r="I71" s="34" t="s">
         <v>376</v>
       </c>
@@ -31946,7 +31946,7 @@
       <c r="E72" s="135"/>
       <c r="F72" s="126"/>
       <c r="G72" s="126"/>
-      <c r="H72" s="138"/>
+      <c r="H72" s="139"/>
       <c r="I72" s="67" t="s">
         <v>247</v>
       </c>
@@ -31969,7 +31969,7 @@
       <c r="G73" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H73" s="136" t="s">
+      <c r="H73" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I73" s="66" t="s">
@@ -31988,7 +31988,7 @@
       <c r="E74" s="134"/>
       <c r="F74" s="125"/>
       <c r="G74" s="125"/>
-      <c r="H74" s="137"/>
+      <c r="H74" s="138"/>
       <c r="I74" s="34" t="s">
         <v>189</v>
       </c>
@@ -32003,7 +32003,7 @@
       <c r="E75" s="134"/>
       <c r="F75" s="125"/>
       <c r="G75" s="125"/>
-      <c r="H75" s="137"/>
+      <c r="H75" s="138"/>
       <c r="I75" s="34" t="s">
         <v>378</v>
       </c>
@@ -32018,7 +32018,7 @@
       <c r="E76" s="134"/>
       <c r="F76" s="125"/>
       <c r="G76" s="125"/>
-      <c r="H76" s="137" t="s">
+      <c r="H76" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="34" t="s">
@@ -32035,7 +32035,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="137"/>
+      <c r="H77" s="138"/>
       <c r="I77" s="34" t="s">
         <v>380</v>
       </c>
@@ -32050,7 +32050,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="137"/>
+      <c r="H78" s="138"/>
       <c r="I78" s="34" t="s">
         <v>381</v>
       </c>
@@ -32065,7 +32065,7 @@
       <c r="E79" s="135"/>
       <c r="F79" s="126"/>
       <c r="G79" s="126"/>
-      <c r="H79" s="138"/>
+      <c r="H79" s="139"/>
       <c r="I79" s="67" t="s">
         <v>247</v>
       </c>
@@ -32088,7 +32088,7 @@
       <c r="G80" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H80" s="136" t="s">
+      <c r="H80" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I80" s="66" t="s">
@@ -32107,7 +32107,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="137"/>
+      <c r="H81" s="138"/>
       <c r="I81" s="34" t="s">
         <v>383</v>
       </c>
@@ -32122,7 +32122,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="137"/>
+      <c r="H82" s="138"/>
       <c r="I82" s="34" t="s">
         <v>384</v>
       </c>
@@ -32137,7 +32137,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="137" t="s">
+      <c r="H83" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="34" t="s">
@@ -32154,7 +32154,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="137"/>
+      <c r="H84" s="138"/>
       <c r="I84" s="34" t="s">
         <v>386</v>
       </c>
@@ -32169,7 +32169,7 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="138"/>
+      <c r="H85" s="139"/>
       <c r="I85" s="67" t="s">
         <v>247</v>
       </c>
@@ -32310,7 +32310,7 @@
       <c r="G92" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H92" s="136" t="s">
+      <c r="H92" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I92" s="66" t="s">
@@ -32329,7 +32329,7 @@
       <c r="E93" s="134"/>
       <c r="F93" s="125"/>
       <c r="G93" s="125"/>
-      <c r="H93" s="137"/>
+      <c r="H93" s="138"/>
       <c r="I93" s="34" t="s">
         <v>73</v>
       </c>
@@ -32344,7 +32344,7 @@
       <c r="E94" s="134"/>
       <c r="F94" s="125"/>
       <c r="G94" s="125"/>
-      <c r="H94" s="137"/>
+      <c r="H94" s="138"/>
       <c r="I94" s="34" t="s">
         <v>74</v>
       </c>
@@ -32359,7 +32359,7 @@
       <c r="E95" s="134"/>
       <c r="F95" s="125"/>
       <c r="G95" s="125"/>
-      <c r="H95" s="137" t="s">
+      <c r="H95" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="34" t="s">
@@ -32376,7 +32376,7 @@
       <c r="E96" s="134"/>
       <c r="F96" s="125"/>
       <c r="G96" s="125"/>
-      <c r="H96" s="137"/>
+      <c r="H96" s="138"/>
       <c r="I96" s="34" t="s">
         <v>76</v>
       </c>
@@ -32391,7 +32391,7 @@
       <c r="E97" s="134"/>
       <c r="F97" s="125"/>
       <c r="G97" s="125"/>
-      <c r="H97" s="137"/>
+      <c r="H97" s="138"/>
       <c r="I97" s="34" t="s">
         <v>77</v>
       </c>
@@ -32406,7 +32406,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="137" t="s">
+      <c r="H98" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="34" t="s">
@@ -32423,7 +32423,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="137"/>
+      <c r="H99" s="138"/>
       <c r="I99" s="34" t="s">
         <v>79</v>
       </c>
@@ -32438,7 +32438,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="137" t="s">
+      <c r="H100" s="138" t="s">
         <v>6</v>
       </c>
       <c r="I100" s="34" t="s">
@@ -32455,7 +32455,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="137"/>
+      <c r="H101" s="138"/>
       <c r="I101" s="34" t="s">
         <v>81</v>
       </c>
@@ -32470,7 +32470,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="137"/>
+      <c r="H102" s="138"/>
       <c r="I102" s="34" t="s">
         <v>82</v>
       </c>
@@ -32485,7 +32485,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="137" t="s">
+      <c r="H103" s="138" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -32502,7 +32502,7 @@
       <c r="E104" s="135"/>
       <c r="F104" s="126"/>
       <c r="G104" s="126"/>
-      <c r="H104" s="138"/>
+      <c r="H104" s="139"/>
       <c r="I104" s="67" t="s">
         <v>69</v>
       </c>
@@ -32612,7 +32612,7 @@
       <c r="E110" s="134"/>
       <c r="F110" s="125"/>
       <c r="G110" s="125"/>
-      <c r="H110" s="137" t="s">
+      <c r="H110" s="138" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="34" t="s">
@@ -32629,7 +32629,7 @@
       <c r="E111" s="135"/>
       <c r="F111" s="126"/>
       <c r="G111" s="126"/>
-      <c r="H111" s="138"/>
+      <c r="H111" s="139"/>
       <c r="I111" s="67" t="s">
         <v>92</v>
       </c>
@@ -33035,109 +33035,77 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C51"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="G105:G111"/>
+    <mergeCell ref="J105:J111"/>
+    <mergeCell ref="K105:K111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="F92:F104"/>
+    <mergeCell ref="G92:G104"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="A86:A132"/>
+    <mergeCell ref="B86:B132"/>
+    <mergeCell ref="C86:C132"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="E92:E104"/>
+    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="G59:G65"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="K59:K65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="J80:J85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="G73:G79"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="J73:J79"/>
+    <mergeCell ref="K73:K79"/>
+    <mergeCell ref="H76:H79"/>
     <mergeCell ref="F52:F58"/>
     <mergeCell ref="G52:G58"/>
     <mergeCell ref="H52:H54"/>
@@ -33162,77 +33130,109 @@
     <mergeCell ref="G66:G72"/>
     <mergeCell ref="H66:H68"/>
     <mergeCell ref="J66:J72"/>
-    <mergeCell ref="K66:K72"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="G59:G65"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="K59:K65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="F80:F85"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="J80:J85"/>
-    <mergeCell ref="K80:K85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="G73:G79"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="J73:J79"/>
-    <mergeCell ref="K73:K79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="A86:A132"/>
-    <mergeCell ref="B86:B132"/>
-    <mergeCell ref="C86:C132"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="D92:D104"/>
-    <mergeCell ref="E92:E104"/>
-    <mergeCell ref="F105:F111"/>
-    <mergeCell ref="G105:G111"/>
-    <mergeCell ref="J105:J111"/>
-    <mergeCell ref="K105:K111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="F92:F104"/>
-    <mergeCell ref="G92:G104"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="J92:J104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="K123:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1" xr:uid="{B873AAFA-B675-43DD-B8CA-F179497ABCA7}"/>
@@ -33858,7 +33858,7 @@
       <c r="G28" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="41" t="s">
@@ -33877,7 +33877,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="137"/>
+      <c r="H29" s="138"/>
       <c r="I29" s="34" t="s">
         <v>463</v>
       </c>
@@ -34644,7 +34644,7 @@
       <c r="G68" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H68" s="136" t="s">
+      <c r="H68" s="140" t="s">
         <v>4</v>
       </c>
       <c r="I68" s="41" t="s">
@@ -34663,7 +34663,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="137"/>
+      <c r="H69" s="138"/>
       <c r="I69" s="34" t="s">
         <v>545</v>
       </c>
@@ -34678,7 +34678,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="137" t="s">
+      <c r="H70" s="138" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="34" t="s">
@@ -34695,7 +34695,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="137"/>
+      <c r="H71" s="138"/>
       <c r="I71" s="34" t="s">
         <v>547</v>
       </c>
@@ -34795,7 +34795,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="137" t="s">
+      <c r="H77" s="138" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="34" t="s">
@@ -34812,7 +34812,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="137"/>
+      <c r="H78" s="138"/>
       <c r="I78" s="34" t="s">
         <v>554</v>
       </c>
@@ -34827,7 +34827,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="137" t="s">
+      <c r="H79" s="138" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="34" t="s">
@@ -34844,7 +34844,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="137"/>
+      <c r="H80" s="138"/>
       <c r="I80" s="34" t="s">
         <v>556</v>
       </c>
@@ -34910,7 +34910,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="137" t="s">
+      <c r="H84" s="138" t="s">
         <v>543</v>
       </c>
       <c r="I84" s="34" t="s">
@@ -34927,7 +34927,7 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="138"/>
+      <c r="H85" s="139"/>
       <c r="I85" s="42" t="s">
         <v>132</v>
       </c>
@@ -35151,63 +35151,57 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="C2:C18"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A28:A45"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
+    <mergeCell ref="C46:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C85"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="K62:K67"/>
+    <mergeCell ref="A68:A85"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="D68:D85"/>
+    <mergeCell ref="E68:E85"/>
+    <mergeCell ref="F68:F85"/>
+    <mergeCell ref="G68:G85"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J85"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="K68:K85"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="E38:E41"/>
@@ -35232,57 +35226,63 @@
     <mergeCell ref="F58:F61"/>
     <mergeCell ref="G58:G61"/>
     <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="J62:J67"/>
-    <mergeCell ref="K62:K67"/>
-    <mergeCell ref="A68:A85"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="D68:D85"/>
-    <mergeCell ref="E68:E85"/>
-    <mergeCell ref="F68:F85"/>
-    <mergeCell ref="G68:G85"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J85"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="K68:K85"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="C46:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C85"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="K19:K27"/>
+    <mergeCell ref="A28:A45"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="C2:C18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E86" r:id="rId1" xr:uid="{B011B613-9CAB-4328-8D38-B7F9F35A327C}"/>

--- a/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
+++ b/Artificial-Intelligence-Specializations/Artificial-Intelligence-Specializations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C430015-CD20-487D-AC74-317FD6240D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF255238-6EBF-4E41-A6A4-BD2769C4D765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculus and Algebra" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1747">
   <si>
     <t>Specialization Name</t>
   </si>
@@ -5877,10 +5877,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5889,13 +5886,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5905,12 +5911,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6200,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88A8C84-0507-4A26-A483-AE7054777E77}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6277,7 +6277,7 @@
       <c r="G2" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="71" t="s">
@@ -6296,7 +6296,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="138"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="34" t="s">
         <v>334</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="138" t="s">
+      <c r="H64" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I64" s="34" t="s">
@@ -7528,7 +7528,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="139"/>
+      <c r="H65" s="138"/>
       <c r="I65" s="77" t="s">
         <v>1415</v>
       </c>
@@ -8888,7 +8888,7 @@
       <c r="G135" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H135" s="136" t="s">
+      <c r="H135" s="139" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="34" t="s">
@@ -8907,7 +8907,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="137"/>
+      <c r="H136" s="140"/>
       <c r="I136" s="34" t="s">
         <v>1516</v>
       </c>
@@ -9387,19 +9387,212 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K51:K56"/>
-    <mergeCell ref="A46:A60"/>
-    <mergeCell ref="B46:B60"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G158:G161"/>
+    <mergeCell ref="J158:J161"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="A144:A161"/>
+    <mergeCell ref="B144:B161"/>
+    <mergeCell ref="C144:C161"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="J144:J147"/>
+    <mergeCell ref="K144:K147"/>
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="J148:J151"/>
+    <mergeCell ref="K148:K151"/>
+    <mergeCell ref="D152:D157"/>
+    <mergeCell ref="E152:E157"/>
+    <mergeCell ref="F152:F157"/>
+    <mergeCell ref="G152:G157"/>
+    <mergeCell ref="J152:J157"/>
+    <mergeCell ref="K152:K157"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="G129:G134"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="K129:K134"/>
+    <mergeCell ref="A135:A143"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="C135:C143"/>
+    <mergeCell ref="D135:D143"/>
+    <mergeCell ref="E135:E143"/>
+    <mergeCell ref="F135:F143"/>
+    <mergeCell ref="G135:G143"/>
+    <mergeCell ref="J135:J143"/>
+    <mergeCell ref="K135:K143"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="A113:A134"/>
+    <mergeCell ref="B113:B134"/>
+    <mergeCell ref="C113:C134"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="F113:F118"/>
+    <mergeCell ref="G113:G118"/>
+    <mergeCell ref="J113:J118"/>
+    <mergeCell ref="D129:D134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="D109:D112"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="F109:F112"/>
+    <mergeCell ref="G109:G112"/>
+    <mergeCell ref="J109:J112"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="K113:K118"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="E119:E124"/>
+    <mergeCell ref="F119:F124"/>
+    <mergeCell ref="G119:G124"/>
+    <mergeCell ref="J119:J124"/>
+    <mergeCell ref="K119:K124"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="G125:G128"/>
+    <mergeCell ref="J125:J128"/>
+    <mergeCell ref="K125:K128"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="A100:A112"/>
+    <mergeCell ref="B100:B112"/>
+    <mergeCell ref="C100:C112"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="C84:C99"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="K84:K88"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="A61:A83"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="B61:B83"/>
+    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="K61:K65"/>
+    <mergeCell ref="D72:D78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="J72:J78"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="K26:K32"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K13:K16"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="D2:D6"/>
@@ -9424,212 +9617,19 @@
     <mergeCell ref="F38:F42"/>
     <mergeCell ref="A33:A37"/>
     <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="J26:J32"/>
-    <mergeCell ref="K26:K32"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="B61:B83"/>
-    <mergeCell ref="C61:C83"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="J61:J65"/>
-    <mergeCell ref="K61:K65"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="F66:F71"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="J66:J71"/>
-    <mergeCell ref="K66:K71"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="C84:C99"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="J84:J88"/>
-    <mergeCell ref="K84:K88"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="A61:A83"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="A100:A112"/>
-    <mergeCell ref="B100:B112"/>
-    <mergeCell ref="C100:C112"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="D129:D134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="G109:G112"/>
-    <mergeCell ref="J109:J112"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="K113:K118"/>
-    <mergeCell ref="D119:D124"/>
-    <mergeCell ref="E119:E124"/>
-    <mergeCell ref="F119:F124"/>
-    <mergeCell ref="G119:G124"/>
-    <mergeCell ref="J119:J124"/>
-    <mergeCell ref="K119:K124"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="G125:G128"/>
-    <mergeCell ref="J125:J128"/>
-    <mergeCell ref="K125:K128"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="G129:G134"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="K129:K134"/>
-    <mergeCell ref="A135:A143"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="C135:C143"/>
-    <mergeCell ref="D135:D143"/>
-    <mergeCell ref="E135:E143"/>
-    <mergeCell ref="F135:F143"/>
-    <mergeCell ref="G135:G143"/>
-    <mergeCell ref="J135:J143"/>
-    <mergeCell ref="K135:K143"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="A113:A134"/>
-    <mergeCell ref="B113:B134"/>
-    <mergeCell ref="C113:C134"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="F113:F118"/>
-    <mergeCell ref="G113:G118"/>
-    <mergeCell ref="J113:J118"/>
-    <mergeCell ref="G158:G161"/>
-    <mergeCell ref="J158:J161"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="A144:A161"/>
-    <mergeCell ref="B144:B161"/>
-    <mergeCell ref="C144:C161"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="J144:J147"/>
-    <mergeCell ref="K144:K147"/>
-    <mergeCell ref="D148:D151"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="J148:J151"/>
-    <mergeCell ref="K148:K151"/>
-    <mergeCell ref="D152:D157"/>
-    <mergeCell ref="E152:E157"/>
-    <mergeCell ref="F152:F157"/>
-    <mergeCell ref="G152:G157"/>
-    <mergeCell ref="J152:J157"/>
-    <mergeCell ref="K152:K157"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K51:K56"/>
+    <mergeCell ref="A46:A60"/>
+    <mergeCell ref="B46:B60"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E33" r:id="rId1" xr:uid="{635F6B92-C026-4D3A-8191-940C4FDC5525}"/>
@@ -9858,7 +9858,7 @@
       <c r="G7" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="66" t="s">
@@ -9877,7 +9877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="138"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="34" t="s">
         <v>334</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="E13" s="141"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="138" t="s">
+      <c r="H13" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="34" t="s">
@@ -9993,7 +9993,7 @@
       <c r="E14" s="141"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="138"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="34" t="s">
         <v>1285</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="E15" s="141"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="34" t="s">
@@ -10025,7 +10025,7 @@
       <c r="E16" s="141"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="138"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="34" t="s">
         <v>1601</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="E18" s="141"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="138" t="s">
+      <c r="H18" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="34" t="s">
@@ -10074,7 +10074,7 @@
       <c r="E19" s="141"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
-      <c r="H19" s="138"/>
+      <c r="H19" s="137"/>
       <c r="I19" s="34" t="s">
         <v>1602</v>
       </c>
@@ -10089,7 +10089,7 @@
       <c r="E20" s="141"/>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
-      <c r="H20" s="138" t="s">
+      <c r="H20" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="34" t="s">
@@ -10106,7 +10106,7 @@
       <c r="E21" s="141"/>
       <c r="F21" s="125"/>
       <c r="G21" s="125"/>
-      <c r="H21" s="138"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="34" t="s">
         <v>1604</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="G24" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="66" t="s">
@@ -10188,7 +10188,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="138"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="34" t="s">
         <v>1358</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="G41" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H41" s="140" t="s">
+      <c r="H41" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="66" t="s">
@@ -10495,7 +10495,7 @@
       <c r="E42" s="134"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="138"/>
+      <c r="H42" s="137"/>
       <c r="I42" s="34" t="s">
         <v>1377</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="G50" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H50" s="140" t="s">
+      <c r="H50" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="66" t="s">
@@ -10656,7 +10656,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="138"/>
+      <c r="H51" s="137"/>
       <c r="I51" s="34" t="s">
         <v>1386</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="G58" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I58" s="66" t="s">
@@ -10800,7 +10800,7 @@
       <c r="E59" s="134"/>
       <c r="F59" s="125"/>
       <c r="G59" s="125"/>
-      <c r="H59" s="138"/>
+      <c r="H59" s="137"/>
       <c r="I59" s="34" t="s">
         <v>1395</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="138"/>
+      <c r="H60" s="137"/>
       <c r="I60" s="34" t="s">
         <v>1396</v>
       </c>
@@ -12259,6 +12259,162 @@
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="K102:K106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="F107:F112"/>
+    <mergeCell ref="G107:G112"/>
+    <mergeCell ref="J107:J112"/>
+    <mergeCell ref="K107:K112"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="J12:J23"/>
+    <mergeCell ref="K12:K23"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="K24:K32"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:F40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="A24:A67"/>
+    <mergeCell ref="B24:B67"/>
+    <mergeCell ref="C24:C67"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J32"/>
+    <mergeCell ref="K41:K49"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="G50:G57"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="K50:K57"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="K58:K67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="E58:E67"/>
+    <mergeCell ref="F58:F67"/>
+    <mergeCell ref="G58:G67"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="J58:J67"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="J80:J84"/>
+    <mergeCell ref="K80:K84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="G85:G89"/>
+    <mergeCell ref="J85:J89"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="G113:G117"/>
+    <mergeCell ref="J113:J117"/>
+    <mergeCell ref="K113:K117"/>
+    <mergeCell ref="C90:C101"/>
+    <mergeCell ref="A90:A101"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="J90:J93"/>
+    <mergeCell ref="K90:K93"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="J94:J97"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="K98:K101"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="E113:E117"/>
+    <mergeCell ref="F113:F117"/>
     <mergeCell ref="G131:G133"/>
     <mergeCell ref="J131:J133"/>
     <mergeCell ref="K131:K133"/>
@@ -12283,162 +12439,6 @@
     <mergeCell ref="G127:G130"/>
     <mergeCell ref="J127:J130"/>
     <mergeCell ref="K127:K130"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="E113:E117"/>
-    <mergeCell ref="F113:F117"/>
-    <mergeCell ref="G113:G117"/>
-    <mergeCell ref="J113:J117"/>
-    <mergeCell ref="K113:K117"/>
-    <mergeCell ref="C90:C101"/>
-    <mergeCell ref="A90:A101"/>
-    <mergeCell ref="B90:B101"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="J90:J93"/>
-    <mergeCell ref="K90:K93"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="J94:J97"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="K98:K101"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="G85:G89"/>
-    <mergeCell ref="J85:J89"/>
-    <mergeCell ref="K85:K89"/>
-    <mergeCell ref="G76:G79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="J80:J84"/>
-    <mergeCell ref="K80:K84"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="K58:K67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="E58:E67"/>
-    <mergeCell ref="F58:F67"/>
-    <mergeCell ref="G58:G67"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="J58:J67"/>
-    <mergeCell ref="K24:K32"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="E33:E40"/>
-    <mergeCell ref="F33:F40"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="J33:J40"/>
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="A24:A67"/>
-    <mergeCell ref="B24:B67"/>
-    <mergeCell ref="C24:C67"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="E24:E32"/>
-    <mergeCell ref="F24:F32"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J32"/>
-    <mergeCell ref="K41:K49"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="F50:F57"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="K50:K57"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="C12:C23"/>
-    <mergeCell ref="D12:D23"/>
-    <mergeCell ref="E12:E23"/>
-    <mergeCell ref="F12:F23"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="J12:J23"/>
-    <mergeCell ref="K12:K23"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="F107:F112"/>
-    <mergeCell ref="G107:G112"/>
-    <mergeCell ref="J107:J112"/>
-    <mergeCell ref="K107:K112"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="K102:K106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{C44EB4F9-A338-4115-BF4C-D56C484F697C}"/>
@@ -12856,7 +12856,7 @@
       <c r="G17" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="55" t="s">
@@ -12875,7 +12875,7 @@
       <c r="E18" s="134"/>
       <c r="F18" s="125"/>
       <c r="G18" s="125"/>
-      <c r="H18" s="138"/>
+      <c r="H18" s="137"/>
       <c r="I18" s="34" t="s">
         <v>1158</v>
       </c>
@@ -12941,7 +12941,7 @@
       <c r="E22" s="134"/>
       <c r="F22" s="125"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="138" t="s">
+      <c r="H22" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="34" t="s">
@@ -12958,7 +12958,7 @@
       <c r="E23" s="134"/>
       <c r="F23" s="125"/>
       <c r="G23" s="125"/>
-      <c r="H23" s="139"/>
+      <c r="H23" s="138"/>
       <c r="I23" s="34" t="s">
         <v>1163</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="G24" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H24" s="140" t="s">
+      <c r="H24" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="55" t="s">
@@ -13006,7 +13006,7 @@
       <c r="E25" s="134"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
-      <c r="H25" s="138"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="34" t="s">
         <v>1177</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="138" t="s">
+      <c r="H29" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="34" t="s">
@@ -13089,7 +13089,7 @@
       <c r="E30" s="134"/>
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
-      <c r="H30" s="139"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="34" t="s">
         <v>1163</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="G52" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="140" t="s">
+      <c r="H52" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="41" t="s">
@@ -13550,7 +13550,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>1011</v>
       </c>
@@ -13700,7 +13700,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="138" t="s">
+      <c r="H61" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="34" t="s">
@@ -13717,7 +13717,7 @@
       <c r="E62" s="135"/>
       <c r="F62" s="126"/>
       <c r="G62" s="126"/>
-      <c r="H62" s="139"/>
+      <c r="H62" s="138"/>
       <c r="I62" s="42" t="s">
         <v>888</v>
       </c>
@@ -14504,26 +14504,124 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="C58:C78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="C83:C101"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C31:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K17:K23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="B31:B51"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K24:K30"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="G24:G30"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="K52:K57"/>
+    <mergeCell ref="A58:A78"/>
+    <mergeCell ref="B58:B78"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:K70"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="K75:K78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="K71:K74"/>
     <mergeCell ref="D88:D92"/>
     <mergeCell ref="E88:E92"/>
     <mergeCell ref="F88:F92"/>
@@ -14548,124 +14646,26 @@
     <mergeCell ref="G79:G82"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="E97:E101"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="K75:K78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="K52:K57"/>
-    <mergeCell ref="A58:A78"/>
-    <mergeCell ref="B58:B78"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:K70"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="B31:B51"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K24:K30"/>
-    <mergeCell ref="K17:K23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="C58:C78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C83:C101"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="C31:C51"/>
+    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B83" r:id="rId1" xr:uid="{CF6B9291-3D66-4CB8-9C54-731350528C0B}"/>
@@ -14779,7 +14779,7 @@
       <c r="G2" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="41" t="s">
@@ -14798,7 +14798,7 @@
       <c r="E3" s="134"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
-      <c r="H3" s="138"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="34" t="s">
         <v>20</v>
       </c>
@@ -14813,7 +14813,7 @@
       <c r="E4" s="134"/>
       <c r="F4" s="125"/>
       <c r="G4" s="125"/>
-      <c r="H4" s="138"/>
+      <c r="H4" s="137"/>
       <c r="I4" s="34" t="s">
         <v>21</v>
       </c>
@@ -14828,7 +14828,7 @@
       <c r="E5" s="134"/>
       <c r="F5" s="125"/>
       <c r="G5" s="125"/>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="34" t="s">
@@ -14845,7 +14845,7 @@
       <c r="E6" s="134"/>
       <c r="F6" s="125"/>
       <c r="G6" s="125"/>
-      <c r="H6" s="138"/>
+      <c r="H6" s="137"/>
       <c r="I6" s="34" t="s">
         <v>23</v>
       </c>
@@ -14860,7 +14860,7 @@
       <c r="E7" s="134"/>
       <c r="F7" s="125"/>
       <c r="G7" s="125"/>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="34" t="s">
@@ -14877,7 +14877,7 @@
       <c r="E8" s="134"/>
       <c r="F8" s="125"/>
       <c r="G8" s="125"/>
-      <c r="H8" s="138"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="34" t="s">
         <v>25</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="E11" s="134"/>
       <c r="F11" s="125"/>
       <c r="G11" s="125"/>
-      <c r="H11" s="138" t="s">
+      <c r="H11" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="34" t="s">
@@ -14943,7 +14943,7 @@
       <c r="E12" s="134"/>
       <c r="F12" s="125"/>
       <c r="G12" s="125"/>
-      <c r="H12" s="138"/>
+      <c r="H12" s="137"/>
       <c r="I12" s="34" t="s">
         <v>29</v>
       </c>
@@ -14975,7 +14975,7 @@
       <c r="E14" s="134"/>
       <c r="F14" s="125"/>
       <c r="G14" s="125"/>
-      <c r="H14" s="138" t="s">
+      <c r="H14" s="137" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -14992,7 +14992,7 @@
       <c r="E15" s="134"/>
       <c r="F15" s="125"/>
       <c r="G15" s="125"/>
-      <c r="H15" s="138"/>
+      <c r="H15" s="137"/>
       <c r="I15" s="34" t="s">
         <v>32</v>
       </c>
@@ -15007,7 +15007,7 @@
       <c r="E16" s="134"/>
       <c r="F16" s="125"/>
       <c r="G16" s="125"/>
-      <c r="H16" s="138" t="s">
+      <c r="H16" s="137" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="34" t="s">
@@ -15024,7 +15024,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="138"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="34" t="s">
         <v>34</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138" t="s">
+      <c r="H40" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="34" t="s">
@@ -15494,7 +15494,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="139"/>
+      <c r="H41" s="138"/>
       <c r="I41" s="42" t="s">
         <v>132</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="G42" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H42" s="140" t="s">
+      <c r="H42" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="41" t="s">
@@ -15536,7 +15536,7 @@
       <c r="E43" s="134"/>
       <c r="F43" s="125"/>
       <c r="G43" s="125"/>
-      <c r="H43" s="138"/>
+      <c r="H43" s="137"/>
       <c r="I43" s="22" t="s">
         <v>135</v>
       </c>
@@ -15619,7 +15619,7 @@
       <c r="E48" s="134"/>
       <c r="F48" s="125"/>
       <c r="G48" s="125"/>
-      <c r="H48" s="143" t="s">
+      <c r="H48" s="145" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="22" t="s">
@@ -15636,7 +15636,7 @@
       <c r="E49" s="135"/>
       <c r="F49" s="126"/>
       <c r="G49" s="126"/>
-      <c r="H49" s="144"/>
+      <c r="H49" s="146"/>
       <c r="I49" s="24" t="s">
         <v>132</v>
       </c>
@@ -15659,7 +15659,7 @@
       <c r="G50" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H50" s="145" t="s">
+      <c r="H50" s="147" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="25" t="s">
@@ -15678,7 +15678,7 @@
       <c r="E51" s="134"/>
       <c r="F51" s="125"/>
       <c r="G51" s="125"/>
-      <c r="H51" s="143"/>
+      <c r="H51" s="145"/>
       <c r="I51" s="22" t="s">
         <v>151</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="143" t="s">
+      <c r="H52" s="145" t="s">
         <v>7</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -15710,7 +15710,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="143"/>
+      <c r="H53" s="145"/>
       <c r="I53" s="22" t="s">
         <v>149</v>
       </c>
@@ -15742,7 +15742,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="143" t="s">
+      <c r="H55" s="145" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="22" t="s">
@@ -15759,7 +15759,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="143"/>
+      <c r="H56" s="145"/>
       <c r="I56" s="22" t="s">
         <v>146</v>
       </c>
@@ -16269,7 +16269,7 @@
       <c r="G82" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H82" s="140" t="s">
+      <c r="H82" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I82" s="41" t="s">
@@ -16288,7 +16288,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138"/>
+      <c r="H83" s="137"/>
       <c r="I83" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16408,7 +16408,7 @@
       <c r="E89" s="134"/>
       <c r="F89" s="125"/>
       <c r="G89" s="125"/>
-      <c r="H89" s="138" t="s">
+      <c r="H89" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="34" t="s">
@@ -16425,7 +16425,7 @@
       <c r="E90" s="134"/>
       <c r="F90" s="125"/>
       <c r="G90" s="125"/>
-      <c r="H90" s="138"/>
+      <c r="H90" s="137"/>
       <c r="I90" s="34" t="s">
         <v>30</v>
       </c>
@@ -16440,7 +16440,7 @@
       <c r="E91" s="134"/>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
-      <c r="H91" s="138" t="s">
+      <c r="H91" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="34" t="s">
@@ -16457,7 +16457,7 @@
       <c r="E92" s="134"/>
       <c r="F92" s="125"/>
       <c r="G92" s="125"/>
-      <c r="H92" s="138"/>
+      <c r="H92" s="137"/>
       <c r="I92" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="G97" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H97" s="140" t="s">
+      <c r="H97" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="48" t="s">
@@ -16583,7 +16583,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138"/>
+      <c r="H98" s="137"/>
       <c r="I98" s="34" t="s">
         <v>1103</v>
       </c>
@@ -16703,7 +16703,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138" t="s">
+      <c r="H104" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I104" s="34" t="s">
@@ -16720,7 +16720,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="138"/>
+      <c r="H105" s="137"/>
       <c r="I105" s="34" t="s">
         <v>30</v>
       </c>
@@ -16735,7 +16735,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="138" t="s">
+      <c r="H106" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I106" s="34" t="s">
@@ -16752,7 +16752,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="138"/>
+      <c r="H107" s="137"/>
       <c r="I107" s="34" t="s">
         <v>1111</v>
       </c>
@@ -16850,7 +16850,7 @@
       <c r="F112" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G112" s="140" t="s">
+      <c r="G112" s="136" t="s">
         <v>450</v>
       </c>
       <c r="H112" s="45" t="s">
@@ -16871,7 +16871,7 @@
       <c r="D113" s="125"/>
       <c r="E113" s="134"/>
       <c r="F113" s="125"/>
-      <c r="G113" s="138"/>
+      <c r="G113" s="137"/>
       <c r="H113" s="46" t="s">
         <v>7</v>
       </c>
@@ -16888,7 +16888,7 @@
       <c r="D114" s="125"/>
       <c r="E114" s="134"/>
       <c r="F114" s="125"/>
-      <c r="G114" s="138"/>
+      <c r="G114" s="137"/>
       <c r="H114" s="46" t="s">
         <v>8</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="D115" s="125"/>
       <c r="E115" s="134"/>
       <c r="F115" s="125"/>
-      <c r="G115" s="138"/>
+      <c r="G115" s="137"/>
       <c r="H115" s="46" t="s">
         <v>6</v>
       </c>
@@ -16922,7 +16922,7 @@
       <c r="D116" s="125"/>
       <c r="E116" s="134"/>
       <c r="F116" s="125"/>
-      <c r="G116" s="138"/>
+      <c r="G116" s="137"/>
       <c r="H116" s="46" t="s">
         <v>10</v>
       </c>
@@ -16939,7 +16939,7 @@
       <c r="D117" s="126"/>
       <c r="E117" s="135"/>
       <c r="F117" s="126"/>
-      <c r="G117" s="139"/>
+      <c r="G117" s="138"/>
       <c r="H117" s="46" t="s">
         <v>9</v>
       </c>
@@ -16962,7 +16962,7 @@
       <c r="F118" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G118" s="140" t="s">
+      <c r="G118" s="136" t="s">
         <v>450</v>
       </c>
       <c r="H118" s="45" t="s">
@@ -16983,7 +16983,7 @@
       <c r="D119" s="125"/>
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
-      <c r="G119" s="138"/>
+      <c r="G119" s="137"/>
       <c r="H119" s="46" t="s">
         <v>7</v>
       </c>
@@ -17000,7 +17000,7 @@
       <c r="D120" s="125"/>
       <c r="E120" s="134"/>
       <c r="F120" s="125"/>
-      <c r="G120" s="138"/>
+      <c r="G120" s="137"/>
       <c r="H120" s="46" t="s">
         <v>8</v>
       </c>
@@ -17017,7 +17017,7 @@
       <c r="D121" s="126"/>
       <c r="E121" s="135"/>
       <c r="F121" s="126"/>
-      <c r="G121" s="139"/>
+      <c r="G121" s="138"/>
       <c r="H121" s="47" t="s">
         <v>6</v>
       </c>
@@ -17256,7 +17256,7 @@
       <c r="G133" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H133" s="140" t="s">
+      <c r="H133" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="41" t="s">
@@ -17275,7 +17275,7 @@
       <c r="E134" s="134"/>
       <c r="F134" s="125"/>
       <c r="G134" s="125"/>
-      <c r="H134" s="138"/>
+      <c r="H134" s="137"/>
       <c r="I134" s="34" t="s">
         <v>255</v>
       </c>
@@ -17307,7 +17307,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="138" t="s">
+      <c r="H136" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I136" s="34" t="s">
@@ -17324,7 +17324,7 @@
       <c r="E137" s="135"/>
       <c r="F137" s="126"/>
       <c r="G137" s="126"/>
-      <c r="H137" s="139"/>
+      <c r="H137" s="138"/>
       <c r="I137" s="42" t="s">
         <v>247</v>
       </c>
@@ -17459,7 +17459,7 @@
       <c r="G144" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H144" s="140" t="s">
+      <c r="H144" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I144" s="41" t="s">
@@ -17478,7 +17478,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="138"/>
+      <c r="H145" s="137"/>
       <c r="I145" s="34" t="s">
         <v>266</v>
       </c>
@@ -17493,7 +17493,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="138"/>
+      <c r="H146" s="137"/>
       <c r="I146" s="34" t="s">
         <v>267</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="138" t="s">
+      <c r="H147" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I147" s="34" t="s">
@@ -17525,7 +17525,7 @@
       <c r="E148" s="134"/>
       <c r="F148" s="125"/>
       <c r="G148" s="125"/>
-      <c r="H148" s="138"/>
+      <c r="H148" s="137"/>
       <c r="I148" s="34" t="s">
         <v>269</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="E149" s="134"/>
       <c r="F149" s="125"/>
       <c r="G149" s="125"/>
-      <c r="H149" s="138" t="s">
+      <c r="H149" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I149" s="34" t="s">
@@ -17557,7 +17557,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="138"/>
+      <c r="H150" s="137"/>
       <c r="I150" s="34" t="s">
         <v>271</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="E151" s="135"/>
       <c r="F151" s="126"/>
       <c r="G151" s="126"/>
-      <c r="H151" s="139"/>
+      <c r="H151" s="138"/>
       <c r="I151" s="42" t="s">
         <v>247</v>
       </c>
@@ -17919,7 +17919,7 @@
       <c r="G168" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H168" s="140" t="s">
+      <c r="H168" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I168" s="41" t="s">
@@ -17938,7 +17938,7 @@
       <c r="E169" s="134"/>
       <c r="F169" s="125"/>
       <c r="G169" s="125"/>
-      <c r="H169" s="138"/>
+      <c r="H169" s="137"/>
       <c r="I169" s="34" t="s">
         <v>421</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="E172" s="134"/>
       <c r="F172" s="125"/>
       <c r="G172" s="125"/>
-      <c r="H172" s="138" t="s">
+      <c r="H172" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I172" s="34" t="s">
@@ -18004,7 +18004,7 @@
       <c r="E173" s="135"/>
       <c r="F173" s="126"/>
       <c r="G173" s="126"/>
-      <c r="H173" s="139"/>
+      <c r="H173" s="138"/>
       <c r="I173" s="42" t="s">
         <v>425</v>
       </c>
@@ -18027,7 +18027,7 @@
       <c r="G174" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H174" s="140" t="s">
+      <c r="H174" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I174" s="41" t="s">
@@ -18046,7 +18046,7 @@
       <c r="E175" s="134"/>
       <c r="F175" s="125"/>
       <c r="G175" s="125"/>
-      <c r="H175" s="138"/>
+      <c r="H175" s="137"/>
       <c r="I175" s="34" t="s">
         <v>428</v>
       </c>
@@ -18095,7 +18095,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="138" t="s">
+      <c r="H178" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -18112,7 +18112,7 @@
       <c r="E179" s="135"/>
       <c r="F179" s="126"/>
       <c r="G179" s="126"/>
-      <c r="H179" s="139"/>
+      <c r="H179" s="138"/>
       <c r="I179" s="42" t="s">
         <v>432</v>
       </c>
@@ -18135,7 +18135,7 @@
       <c r="G180" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H180" s="140" t="s">
+      <c r="H180" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I180" s="41" t="s">
@@ -18154,7 +18154,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="138"/>
+      <c r="H181" s="137"/>
       <c r="I181" s="34" t="s">
         <v>435</v>
       </c>
@@ -18340,10 +18340,10 @@
       <c r="G191" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H191" s="140" t="s">
+      <c r="H191" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="I191" s="146" t="s">
+      <c r="I191" s="143" t="s">
         <v>448</v>
       </c>
       <c r="J191" s="127">
@@ -18359,8 +18359,8 @@
       <c r="E192" s="135"/>
       <c r="F192" s="126"/>
       <c r="G192" s="126"/>
-      <c r="H192" s="139"/>
-      <c r="I192" s="147"/>
+      <c r="H192" s="138"/>
+      <c r="I192" s="144"/>
       <c r="J192" s="129"/>
       <c r="K192" s="129"/>
     </row>
@@ -18386,7 +18386,7 @@
       <c r="G193" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H193" s="140" t="s">
+      <c r="H193" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I193" s="41" t="s">
@@ -18405,7 +18405,7 @@
       <c r="E194" s="134"/>
       <c r="F194" s="125"/>
       <c r="G194" s="125"/>
-      <c r="H194" s="138"/>
+      <c r="H194" s="137"/>
       <c r="I194" s="34" t="s">
         <v>955</v>
       </c>
@@ -18479,7 +18479,7 @@
       <c r="G198" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H198" s="140" t="s">
+      <c r="H198" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I198" s="25" t="s">
@@ -18498,7 +18498,7 @@
       <c r="E199" s="134"/>
       <c r="F199" s="125"/>
       <c r="G199" s="125"/>
-      <c r="H199" s="138"/>
+      <c r="H199" s="137"/>
       <c r="I199" s="22" t="s">
         <v>4</v>
       </c>
@@ -18606,7 +18606,7 @@
       <c r="G205" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H205" s="140" t="s">
+      <c r="H205" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I205" s="25" t="s">
@@ -18625,7 +18625,7 @@
       <c r="E206" s="134"/>
       <c r="F206" s="125"/>
       <c r="G206" s="125"/>
-      <c r="H206" s="138"/>
+      <c r="H206" s="137"/>
       <c r="I206" s="22" t="s">
         <v>4</v>
       </c>
@@ -18733,7 +18733,7 @@
       <c r="G212" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H212" s="140" t="s">
+      <c r="H212" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I212" s="25" t="s">
@@ -18752,7 +18752,7 @@
       <c r="E213" s="134"/>
       <c r="F213" s="125"/>
       <c r="G213" s="125"/>
-      <c r="H213" s="138"/>
+      <c r="H213" s="137"/>
       <c r="I213" s="22" t="s">
         <v>4</v>
       </c>
@@ -18826,7 +18826,7 @@
       <c r="G217" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H217" s="140" t="s">
+      <c r="H217" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I217" s="25" t="s">
@@ -18845,7 +18845,7 @@
       <c r="E218" s="134"/>
       <c r="F218" s="125"/>
       <c r="G218" s="125"/>
-      <c r="H218" s="138"/>
+      <c r="H218" s="137"/>
       <c r="I218" s="22" t="s">
         <v>606</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="E221" s="134"/>
       <c r="F221" s="125"/>
       <c r="G221" s="125"/>
-      <c r="H221" s="138" t="s">
+      <c r="H221" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I221" s="22" t="s">
@@ -18911,7 +18911,7 @@
       <c r="E222" s="135"/>
       <c r="F222" s="126"/>
       <c r="G222" s="126"/>
-      <c r="H222" s="139"/>
+      <c r="H222" s="138"/>
       <c r="I222" s="24" t="s">
         <v>800</v>
       </c>
@@ -18934,7 +18934,7 @@
       <c r="G223" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H223" s="140" t="s">
+      <c r="H223" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I223" s="25" t="s">
@@ -18953,7 +18953,7 @@
       <c r="E224" s="134"/>
       <c r="F224" s="125"/>
       <c r="G224" s="125"/>
-      <c r="H224" s="138"/>
+      <c r="H224" s="137"/>
       <c r="I224" s="22" t="s">
         <v>802</v>
       </c>
@@ -19561,53 +19561,302 @@
     </row>
   </sheetData>
   <mergeCells count="367">
-    <mergeCell ref="J252:J255"/>
-    <mergeCell ref="K252:K255"/>
-    <mergeCell ref="J244:J247"/>
-    <mergeCell ref="K244:K247"/>
-    <mergeCell ref="J248:J251"/>
-    <mergeCell ref="K248:K251"/>
-    <mergeCell ref="J236:J239"/>
-    <mergeCell ref="K236:K239"/>
-    <mergeCell ref="J240:J243"/>
-    <mergeCell ref="K240:K243"/>
-    <mergeCell ref="D236:D239"/>
-    <mergeCell ref="E236:E239"/>
-    <mergeCell ref="F236:F239"/>
-    <mergeCell ref="G236:G239"/>
-    <mergeCell ref="D244:D247"/>
-    <mergeCell ref="E244:E247"/>
-    <mergeCell ref="F244:F247"/>
-    <mergeCell ref="G244:G247"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="F252:F255"/>
-    <mergeCell ref="G252:G255"/>
-    <mergeCell ref="D248:D251"/>
-    <mergeCell ref="E248:E251"/>
-    <mergeCell ref="F248:F251"/>
-    <mergeCell ref="G248:G251"/>
-    <mergeCell ref="D240:D243"/>
-    <mergeCell ref="E240:E243"/>
-    <mergeCell ref="F240:F243"/>
-    <mergeCell ref="G240:G243"/>
-    <mergeCell ref="C82:C96"/>
-    <mergeCell ref="C97:C121"/>
-    <mergeCell ref="C122:C151"/>
-    <mergeCell ref="C152:C167"/>
-    <mergeCell ref="C168:C192"/>
-    <mergeCell ref="C193:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C255"/>
-    <mergeCell ref="A236:A255"/>
-    <mergeCell ref="B236:B255"/>
-    <mergeCell ref="B193:B229"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="B152:B167"/>
-    <mergeCell ref="A82:A96"/>
-    <mergeCell ref="B82:B96"/>
-    <mergeCell ref="A97:A121"/>
-    <mergeCell ref="B97:B121"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B66:B81"/>
+    <mergeCell ref="C66:C81"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="K118:K121"/>
+    <mergeCell ref="J118:J121"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="J109:J111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="G103:G108"/>
+    <mergeCell ref="J103:J108"/>
+    <mergeCell ref="K103:K108"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A35:A65"/>
+    <mergeCell ref="B35:B65"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:J19"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="E50:E59"/>
+    <mergeCell ref="F50:F59"/>
+    <mergeCell ref="G50:G59"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J35:J41"/>
+    <mergeCell ref="J50:J59"/>
+    <mergeCell ref="C35:C65"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="K2:K19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="F42:F49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="K42:K49"/>
+    <mergeCell ref="K50:K59"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="J60:J65"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="K88:K93"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="D88:D93"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="J122:J127"/>
+    <mergeCell ref="K122:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="E103:E108"/>
+    <mergeCell ref="F103:F108"/>
+    <mergeCell ref="K133:K137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="G138:G143"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="K138:K143"/>
+    <mergeCell ref="D133:D137"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="G133:G137"/>
+    <mergeCell ref="D164:D167"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="F164:F167"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="J164:J167"/>
+    <mergeCell ref="A122:A151"/>
+    <mergeCell ref="B122:B151"/>
+    <mergeCell ref="D122:D127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="G122:G127"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="J133:J137"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E159"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="K156:K159"/>
+    <mergeCell ref="K144:K151"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="E152:E155"/>
+    <mergeCell ref="F152:F155"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="J152:J155"/>
+    <mergeCell ref="D144:D151"/>
+    <mergeCell ref="E144:E151"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="G144:G151"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="J144:J151"/>
+    <mergeCell ref="K164:K167"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="K160:K163"/>
+    <mergeCell ref="A168:A192"/>
+    <mergeCell ref="B168:B192"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="D185:D190"/>
+    <mergeCell ref="E185:E190"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="G185:G190"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="J168:J173"/>
+    <mergeCell ref="K168:K173"/>
+    <mergeCell ref="H172:H173"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H175"/>
+    <mergeCell ref="J174:J179"/>
+    <mergeCell ref="K174:K179"/>
+    <mergeCell ref="H178:H179"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="F180:F184"/>
+    <mergeCell ref="G180:G184"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="J180:J184"/>
+    <mergeCell ref="K180:K184"/>
+    <mergeCell ref="J185:J190"/>
+    <mergeCell ref="K185:K190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="J193:J197"/>
+    <mergeCell ref="K193:K197"/>
+    <mergeCell ref="D198:D204"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="F198:F204"/>
+    <mergeCell ref="G198:G204"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="J198:J204"/>
+    <mergeCell ref="K198:K204"/>
+    <mergeCell ref="D193:D197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="G193:G197"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="J205:J211"/>
+    <mergeCell ref="K205:K211"/>
+    <mergeCell ref="D212:D216"/>
+    <mergeCell ref="E212:E216"/>
+    <mergeCell ref="F212:F216"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="H212:H213"/>
+    <mergeCell ref="J212:J216"/>
+    <mergeCell ref="K212:K216"/>
+    <mergeCell ref="D205:D211"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="F205:F211"/>
+    <mergeCell ref="G205:G211"/>
     <mergeCell ref="J230:J235"/>
     <mergeCell ref="K230:K235"/>
     <mergeCell ref="A230:A235"/>
@@ -19632,302 +19881,53 @@
     <mergeCell ref="H217:H218"/>
     <mergeCell ref="J217:J222"/>
     <mergeCell ref="A193:A229"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="J205:J211"/>
-    <mergeCell ref="K205:K211"/>
-    <mergeCell ref="D212:D216"/>
-    <mergeCell ref="E212:E216"/>
-    <mergeCell ref="F212:F216"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="H212:H213"/>
-    <mergeCell ref="J212:J216"/>
-    <mergeCell ref="K212:K216"/>
-    <mergeCell ref="D205:D211"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="F205:F211"/>
-    <mergeCell ref="G205:G211"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="J193:J197"/>
-    <mergeCell ref="K193:K197"/>
-    <mergeCell ref="D198:D204"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="F198:F204"/>
-    <mergeCell ref="G198:G204"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="J198:J204"/>
-    <mergeCell ref="K198:K204"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="G193:G197"/>
-    <mergeCell ref="J185:J190"/>
-    <mergeCell ref="K185:K190"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H175"/>
-    <mergeCell ref="J174:J179"/>
-    <mergeCell ref="K174:K179"/>
-    <mergeCell ref="H178:H179"/>
-    <mergeCell ref="D180:D184"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="F180:F184"/>
-    <mergeCell ref="G180:G184"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="J180:J184"/>
-    <mergeCell ref="K180:K184"/>
-    <mergeCell ref="K164:K167"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="E160:E163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="K160:K163"/>
-    <mergeCell ref="A168:A192"/>
-    <mergeCell ref="B168:B192"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="D185:D190"/>
-    <mergeCell ref="E185:E190"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="G185:G190"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="J168:J173"/>
-    <mergeCell ref="K168:K173"/>
-    <mergeCell ref="H172:H173"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E156:E159"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="J156:J159"/>
-    <mergeCell ref="K156:K159"/>
-    <mergeCell ref="K144:K151"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="J152:J155"/>
-    <mergeCell ref="D144:D151"/>
-    <mergeCell ref="E144:E151"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="G144:G151"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="J144:J151"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="F164:F167"/>
-    <mergeCell ref="G164:G167"/>
-    <mergeCell ref="J164:J167"/>
-    <mergeCell ref="A122:A151"/>
-    <mergeCell ref="B122:B151"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="G122:G127"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="J133:J137"/>
-    <mergeCell ref="K133:K137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="D138:D143"/>
-    <mergeCell ref="E138:E143"/>
-    <mergeCell ref="F138:F143"/>
-    <mergeCell ref="G138:G143"/>
-    <mergeCell ref="J138:J143"/>
-    <mergeCell ref="K138:K143"/>
-    <mergeCell ref="D133:D137"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="G133:G137"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="J122:J127"/>
-    <mergeCell ref="K122:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="E103:E108"/>
-    <mergeCell ref="F103:F108"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="G88:G93"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="K88:K93"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="D88:D93"/>
-    <mergeCell ref="K50:K59"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="E60:E65"/>
-    <mergeCell ref="F60:F65"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="J60:J65"/>
-    <mergeCell ref="K60:K65"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="F42:F49"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="K2:K19"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="D2:D19"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="A35:A65"/>
-    <mergeCell ref="B35:B65"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:J19"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="E50:E59"/>
-    <mergeCell ref="F50:F59"/>
-    <mergeCell ref="G50:G59"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J35:J41"/>
-    <mergeCell ref="J50:J59"/>
-    <mergeCell ref="C35:C65"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="K118:K121"/>
-    <mergeCell ref="J118:J121"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="J109:J111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="G103:G108"/>
-    <mergeCell ref="J103:J108"/>
-    <mergeCell ref="K103:K108"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:D29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="J24:J29"/>
-    <mergeCell ref="K24:K29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="B66:B81"/>
-    <mergeCell ref="C66:C81"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="C82:C96"/>
+    <mergeCell ref="C97:C121"/>
+    <mergeCell ref="C122:C151"/>
+    <mergeCell ref="C152:C167"/>
+    <mergeCell ref="C168:C192"/>
+    <mergeCell ref="C193:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C255"/>
+    <mergeCell ref="A236:A255"/>
+    <mergeCell ref="B236:B255"/>
+    <mergeCell ref="B193:B229"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="B152:B167"/>
+    <mergeCell ref="A82:A96"/>
+    <mergeCell ref="B82:B96"/>
+    <mergeCell ref="A97:A121"/>
+    <mergeCell ref="B97:B121"/>
+    <mergeCell ref="D236:D239"/>
+    <mergeCell ref="E236:E239"/>
+    <mergeCell ref="F236:F239"/>
+    <mergeCell ref="G236:G239"/>
+    <mergeCell ref="D244:D247"/>
+    <mergeCell ref="E244:E247"/>
+    <mergeCell ref="F244:F247"/>
+    <mergeCell ref="G244:G247"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="F252:F255"/>
+    <mergeCell ref="G252:G255"/>
+    <mergeCell ref="D248:D251"/>
+    <mergeCell ref="E248:E251"/>
+    <mergeCell ref="F248:F251"/>
+    <mergeCell ref="G248:G251"/>
+    <mergeCell ref="D240:D243"/>
+    <mergeCell ref="E240:E243"/>
+    <mergeCell ref="F240:F243"/>
+    <mergeCell ref="G240:G243"/>
+    <mergeCell ref="J252:J255"/>
+    <mergeCell ref="K252:K255"/>
+    <mergeCell ref="J244:J247"/>
+    <mergeCell ref="K244:K247"/>
+    <mergeCell ref="J248:J251"/>
+    <mergeCell ref="K248:K251"/>
+    <mergeCell ref="J236:J239"/>
+    <mergeCell ref="K236:K239"/>
+    <mergeCell ref="J240:J243"/>
+    <mergeCell ref="K240:K243"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{564D3010-D93D-4F69-9C69-AC86DC76B81C}"/>
@@ -20358,7 +20358,7 @@
       <c r="G16" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="81" t="s">
@@ -20377,7 +20377,7 @@
       <c r="E17" s="134"/>
       <c r="F17" s="125"/>
       <c r="G17" s="125"/>
-      <c r="H17" s="138"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="34" t="s">
         <v>1593</v>
       </c>
@@ -21548,7 +21548,7 @@
       <c r="G78" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H78" s="140" t="s">
+      <c r="H78" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I78" s="20" t="s">
@@ -21567,7 +21567,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="138"/>
+      <c r="H79" s="137"/>
       <c r="I79" s="8" t="s">
         <v>910</v>
       </c>
@@ -21582,7 +21582,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="138" t="s">
+      <c r="H80" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -21599,7 +21599,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138"/>
+      <c r="H81" s="137"/>
       <c r="I81" s="8" t="s">
         <v>912</v>
       </c>
@@ -21614,7 +21614,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="138" t="s">
+      <c r="H82" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -21631,7 +21631,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138"/>
+      <c r="H83" s="137"/>
       <c r="I83" s="8" t="s">
         <v>914</v>
       </c>
@@ -21646,7 +21646,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138" t="s">
+      <c r="H84" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I84" s="8" t="s">
@@ -21663,7 +21663,7 @@
       <c r="E85" s="134"/>
       <c r="F85" s="125"/>
       <c r="G85" s="125"/>
-      <c r="H85" s="138"/>
+      <c r="H85" s="137"/>
       <c r="I85" s="8" t="s">
         <v>247</v>
       </c>
@@ -21678,7 +21678,7 @@
       <c r="E86" s="135"/>
       <c r="F86" s="126"/>
       <c r="G86" s="126"/>
-      <c r="H86" s="139"/>
+      <c r="H86" s="138"/>
       <c r="I86" s="21" t="s">
         <v>395</v>
       </c>
@@ -21897,7 +21897,7 @@
       <c r="G97" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H97" s="140" t="s">
+      <c r="H97" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I97" s="20" t="s">
@@ -21916,7 +21916,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138"/>
+      <c r="H98" s="137"/>
       <c r="I98" s="8" t="s">
         <v>910</v>
       </c>
@@ -21931,7 +21931,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="138" t="s">
+      <c r="H99" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I99" s="8" t="s">
@@ -21948,7 +21948,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="138"/>
+      <c r="H100" s="137"/>
       <c r="I100" s="8" t="s">
         <v>912</v>
       </c>
@@ -21963,7 +21963,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="138" t="s">
+      <c r="H101" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I101" s="8" t="s">
@@ -21980,7 +21980,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="138"/>
+      <c r="H102" s="137"/>
       <c r="I102" s="8" t="s">
         <v>914</v>
       </c>
@@ -21995,7 +21995,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I103" s="8" t="s">
@@ -22012,7 +22012,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138"/>
+      <c r="H104" s="137"/>
       <c r="I104" s="8" t="s">
         <v>247</v>
       </c>
@@ -22027,7 +22027,7 @@
       <c r="E105" s="135"/>
       <c r="F105" s="126"/>
       <c r="G105" s="126"/>
-      <c r="H105" s="139"/>
+      <c r="H105" s="138"/>
       <c r="I105" s="21" t="s">
         <v>395</v>
       </c>
@@ -22257,7 +22257,7 @@
       <c r="G117" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="140" t="s">
+      <c r="H117" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I117" s="20" t="s">
@@ -22276,7 +22276,7 @@
       <c r="E118" s="134"/>
       <c r="F118" s="125"/>
       <c r="G118" s="125"/>
-      <c r="H118" s="138"/>
+      <c r="H118" s="137"/>
       <c r="I118" s="8" t="s">
         <v>747</v>
       </c>
@@ -22291,7 +22291,7 @@
       <c r="E119" s="134"/>
       <c r="F119" s="125"/>
       <c r="G119" s="125"/>
-      <c r="H119" s="138"/>
+      <c r="H119" s="137"/>
       <c r="I119" s="8" t="s">
         <v>748</v>
       </c>
@@ -23090,6 +23090,214 @@
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="A133:A148"/>
+    <mergeCell ref="B133:B148"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B70:B86"/>
+    <mergeCell ref="A87:A122"/>
+    <mergeCell ref="B87:B122"/>
+    <mergeCell ref="K123:K128"/>
+    <mergeCell ref="J145:J148"/>
+    <mergeCell ref="J123:J128"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J97:J105"/>
+    <mergeCell ref="J106:J110"/>
+    <mergeCell ref="J111:J116"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="K78:K86"/>
+    <mergeCell ref="K111:K116"/>
+    <mergeCell ref="K117:K122"/>
+    <mergeCell ref="E141:E144"/>
+    <mergeCell ref="F141:F144"/>
+    <mergeCell ref="K129:K132"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E111:E116"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="F111:F116"/>
+    <mergeCell ref="F97:F105"/>
+    <mergeCell ref="G97:G105"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G111:G116"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="K133:K136"/>
+    <mergeCell ref="K137:K140"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="F129:F132"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F133:F136"/>
+    <mergeCell ref="A36:A69"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E128"/>
+    <mergeCell ref="G123:G128"/>
+    <mergeCell ref="F123:F128"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="D51:D57"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C36:C69"/>
+    <mergeCell ref="C70:C86"/>
+    <mergeCell ref="C87:C122"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="J149:J152"/>
+    <mergeCell ref="K149:K152"/>
+    <mergeCell ref="K51:K57"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G78:G86"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="D78:D86"/>
+    <mergeCell ref="E78:E86"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="B36:B69"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="G153:G155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G129:G132"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="J78:J86"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H117:H119"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="D97:D105"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="J137:J140"/>
+    <mergeCell ref="J141:J144"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K97:K105"/>
+    <mergeCell ref="K106:K110"/>
+    <mergeCell ref="J156:J158"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="K156:K158"/>
+    <mergeCell ref="K141:K144"/>
+    <mergeCell ref="K145:K148"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="K153:K155"/>
+    <mergeCell ref="F78:F86"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="E145:E148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G137:G140"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="G133:G136"/>
+    <mergeCell ref="J129:J132"/>
+    <mergeCell ref="J133:J136"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="J10:J12"/>
@@ -23114,214 +23322,6 @@
     <mergeCell ref="K24:K27"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="K153:K155"/>
-    <mergeCell ref="F78:F86"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="E145:E148"/>
-    <mergeCell ref="F145:F148"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G137:G140"/>
-    <mergeCell ref="D145:D148"/>
-    <mergeCell ref="G133:G136"/>
-    <mergeCell ref="J129:J132"/>
-    <mergeCell ref="J133:J136"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K97:K105"/>
-    <mergeCell ref="K106:K110"/>
-    <mergeCell ref="J156:J158"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="K156:K158"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="K145:K148"/>
-    <mergeCell ref="B36:B69"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="G153:G155"/>
-    <mergeCell ref="J153:J155"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="G129:G132"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="J78:J86"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H117:H119"/>
-    <mergeCell ref="G106:G110"/>
-    <mergeCell ref="D97:D105"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="J137:J140"/>
-    <mergeCell ref="J141:J144"/>
-    <mergeCell ref="A149:A158"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C36:C69"/>
-    <mergeCell ref="C70:C86"/>
-    <mergeCell ref="C87:C122"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="J149:J152"/>
-    <mergeCell ref="K149:K152"/>
-    <mergeCell ref="K51:K57"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G78:G86"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="D78:D86"/>
-    <mergeCell ref="E78:E86"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="G51:G57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="K36:K42"/>
-    <mergeCell ref="K133:K136"/>
-    <mergeCell ref="K137:K140"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="F129:F132"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F133:F136"/>
-    <mergeCell ref="A36:A69"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="D123:D128"/>
-    <mergeCell ref="E123:E128"/>
-    <mergeCell ref="G123:G128"/>
-    <mergeCell ref="F123:F128"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="E111:E116"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="D106:D110"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="F111:F116"/>
-    <mergeCell ref="F97:F105"/>
-    <mergeCell ref="G97:G105"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G111:G116"/>
-    <mergeCell ref="A133:A148"/>
-    <mergeCell ref="B133:B148"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B70:B86"/>
-    <mergeCell ref="A87:A122"/>
-    <mergeCell ref="B87:B122"/>
-    <mergeCell ref="K123:K128"/>
-    <mergeCell ref="J145:J148"/>
-    <mergeCell ref="J123:J128"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J97:J105"/>
-    <mergeCell ref="J106:J110"/>
-    <mergeCell ref="J111:J116"/>
-    <mergeCell ref="J117:J122"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="K78:K86"/>
-    <mergeCell ref="K111:K116"/>
-    <mergeCell ref="K117:K122"/>
-    <mergeCell ref="E141:E144"/>
-    <mergeCell ref="F141:F144"/>
-    <mergeCell ref="K129:K132"/>
-    <mergeCell ref="K87:K92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E123" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
@@ -24173,7 +24173,7 @@
       <c r="G39" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H39" s="140" t="s">
+      <c r="H39" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="76" t="s">
@@ -24192,7 +24192,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138"/>
+      <c r="H40" s="137"/>
       <c r="I40" s="34" t="s">
         <v>1552</v>
       </c>
@@ -24207,7 +24207,7 @@
       <c r="E41" s="134"/>
       <c r="F41" s="125"/>
       <c r="G41" s="125"/>
-      <c r="H41" s="138"/>
+      <c r="H41" s="137"/>
       <c r="I41" s="34" t="s">
         <v>1553</v>
       </c>
@@ -24256,7 +24256,7 @@
       <c r="E44" s="134"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="138" t="s">
+      <c r="H44" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I44" s="34" t="s">
@@ -24273,7 +24273,7 @@
       <c r="E45" s="134"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="138"/>
+      <c r="H45" s="137"/>
       <c r="I45" s="34" t="s">
         <v>1557</v>
       </c>
@@ -24288,7 +24288,7 @@
       <c r="E46" s="134"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="138" t="s">
+      <c r="H46" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
@@ -24305,7 +24305,7 @@
       <c r="E47" s="134"/>
       <c r="F47" s="125"/>
       <c r="G47" s="125"/>
-      <c r="H47" s="138"/>
+      <c r="H47" s="137"/>
       <c r="I47" s="34" t="s">
         <v>1559</v>
       </c>
@@ -24388,7 +24388,7 @@
       <c r="E52" s="134"/>
       <c r="F52" s="125"/>
       <c r="G52" s="125"/>
-      <c r="H52" s="138" t="s">
+      <c r="H52" s="137" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="34" t="s">
@@ -24405,7 +24405,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>1565</v>
       </c>
@@ -24420,7 +24420,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="138" t="s">
+      <c r="H54" s="137" t="s">
         <v>18</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -24437,7 +24437,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="138"/>
+      <c r="H55" s="137"/>
       <c r="I55" s="4" t="s">
         <v>1567</v>
       </c>
@@ -24909,7 +24909,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138" t="s">
+      <c r="H81" s="137" t="s">
         <v>17</v>
       </c>
       <c r="I81" s="34" t="s">
@@ -24926,7 +24926,7 @@
       <c r="E82" s="135"/>
       <c r="F82" s="126"/>
       <c r="G82" s="126"/>
-      <c r="H82" s="139"/>
+      <c r="H82" s="138"/>
       <c r="I82" s="42" t="s">
         <v>605</v>
       </c>
@@ -25815,69 +25815,63 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A108:A128"/>
-    <mergeCell ref="B108:B128"/>
-    <mergeCell ref="C108:C128"/>
-    <mergeCell ref="D117:D123"/>
-    <mergeCell ref="E117:E123"/>
-    <mergeCell ref="F117:F123"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="J117:J123"/>
-    <mergeCell ref="K117:K123"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="J124:J128"/>
-    <mergeCell ref="K124:K128"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:E116"/>
-    <mergeCell ref="F108:F116"/>
-    <mergeCell ref="G108:G116"/>
-    <mergeCell ref="J108:J116"/>
-    <mergeCell ref="K108:K116"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="G16:G24"/>
-    <mergeCell ref="J16:J24"/>
-    <mergeCell ref="K16:K24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="J104:J107"/>
-    <mergeCell ref="K104:K107"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="K96:K99"/>
-    <mergeCell ref="J100:J103"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="A92:A107"/>
-    <mergeCell ref="B92:B107"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="E100:E103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="E104:E107"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="C92:C107"/>
+    <mergeCell ref="D39:D59"/>
+    <mergeCell ref="E39:E59"/>
+    <mergeCell ref="F39:F59"/>
+    <mergeCell ref="G39:G59"/>
+    <mergeCell ref="J39:J59"/>
+    <mergeCell ref="K39:K59"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="J31:J38"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="C60:C71"/>
+    <mergeCell ref="C72:C82"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="A39:A59"/>
+    <mergeCell ref="B39:B59"/>
+    <mergeCell ref="C39:C59"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="D60:D71"/>
     <mergeCell ref="E60:E71"/>
     <mergeCell ref="F60:F71"/>
@@ -25902,63 +25896,69 @@
     <mergeCell ref="G72:G82"/>
     <mergeCell ref="J72:J82"/>
     <mergeCell ref="C83:C91"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="A39:A59"/>
-    <mergeCell ref="B39:B59"/>
-    <mergeCell ref="C39:C59"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="J31:J38"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="C60:C71"/>
-    <mergeCell ref="C72:C82"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D39:D59"/>
-    <mergeCell ref="E39:E59"/>
-    <mergeCell ref="F39:F59"/>
-    <mergeCell ref="G39:G59"/>
-    <mergeCell ref="J39:J59"/>
-    <mergeCell ref="K39:K59"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="A92:A107"/>
+    <mergeCell ref="B92:B107"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="E104:E107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="C92:C107"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="K104:K107"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="K96:K99"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="J16:J24"/>
+    <mergeCell ref="K16:K24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="A108:A128"/>
+    <mergeCell ref="B108:B128"/>
+    <mergeCell ref="C108:C128"/>
+    <mergeCell ref="D117:D123"/>
+    <mergeCell ref="E117:E123"/>
+    <mergeCell ref="F117:F123"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="J117:J123"/>
+    <mergeCell ref="K117:K123"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:E116"/>
+    <mergeCell ref="F108:F116"/>
+    <mergeCell ref="G108:G116"/>
+    <mergeCell ref="J108:J116"/>
+    <mergeCell ref="K108:K116"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -25993,7 +25993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F5260F-2AAF-4F2E-9369-7A38E6089BE0}">
   <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -28085,7 +28085,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -28102,7 +28102,7 @@
       <c r="E104" s="134"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
-      <c r="H104" s="138"/>
+      <c r="H104" s="137"/>
       <c r="I104" s="34" t="s">
         <v>571</v>
       </c>
@@ -28117,7 +28117,7 @@
       <c r="E105" s="134"/>
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
-      <c r="H105" s="138" t="s">
+      <c r="H105" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I105" s="34" t="s">
@@ -28134,7 +28134,7 @@
       <c r="E106" s="134"/>
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
-      <c r="H106" s="138"/>
+      <c r="H106" s="137"/>
       <c r="I106" s="34" t="s">
         <v>573</v>
       </c>
@@ -28149,7 +28149,7 @@
       <c r="E107" s="134"/>
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
-      <c r="H107" s="138" t="s">
+      <c r="H107" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I107" s="34" t="s">
@@ -28166,7 +28166,7 @@
       <c r="E108" s="134"/>
       <c r="F108" s="125"/>
       <c r="G108" s="125"/>
-      <c r="H108" s="138"/>
+      <c r="H108" s="137"/>
       <c r="I108" s="34" t="s">
         <v>754</v>
       </c>
@@ -28693,7 +28693,7 @@
       <c r="G135" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H135" s="140" t="s">
+      <c r="H135" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I135" s="41" t="s">
@@ -28712,7 +28712,7 @@
       <c r="E136" s="134"/>
       <c r="F136" s="125"/>
       <c r="G136" s="125"/>
-      <c r="H136" s="138"/>
+      <c r="H136" s="137"/>
       <c r="I136" s="34" t="s">
         <v>359</v>
       </c>
@@ -28727,7 +28727,7 @@
       <c r="E137" s="134"/>
       <c r="F137" s="125"/>
       <c r="G137" s="125"/>
-      <c r="H137" s="138"/>
+      <c r="H137" s="137"/>
       <c r="I137" s="34" t="s">
         <v>360</v>
       </c>
@@ -28742,7 +28742,7 @@
       <c r="E138" s="134"/>
       <c r="F138" s="125"/>
       <c r="G138" s="125"/>
-      <c r="H138" s="138" t="s">
+      <c r="H138" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I138" s="34" t="s">
@@ -28759,7 +28759,7 @@
       <c r="E139" s="134"/>
       <c r="F139" s="125"/>
       <c r="G139" s="125"/>
-      <c r="H139" s="138"/>
+      <c r="H139" s="137"/>
       <c r="I139" s="34" t="s">
         <v>362</v>
       </c>
@@ -28774,7 +28774,7 @@
       <c r="E140" s="134"/>
       <c r="F140" s="125"/>
       <c r="G140" s="125"/>
-      <c r="H140" s="138" t="s">
+      <c r="H140" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I140" s="34" t="s">
@@ -28791,7 +28791,7 @@
       <c r="E141" s="135"/>
       <c r="F141" s="126"/>
       <c r="G141" s="126"/>
-      <c r="H141" s="139"/>
+      <c r="H141" s="138"/>
       <c r="I141" s="42" t="s">
         <v>247</v>
       </c>
@@ -28814,7 +28814,7 @@
       <c r="G142" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H142" s="140" t="s">
+      <c r="H142" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I142" s="41" t="s">
@@ -28833,7 +28833,7 @@
       <c r="E143" s="134"/>
       <c r="F143" s="125"/>
       <c r="G143" s="125"/>
-      <c r="H143" s="138"/>
+      <c r="H143" s="137"/>
       <c r="I143" s="34" t="s">
         <v>365</v>
       </c>
@@ -28848,7 +28848,7 @@
       <c r="E144" s="134"/>
       <c r="F144" s="125"/>
       <c r="G144" s="125"/>
-      <c r="H144" s="138"/>
+      <c r="H144" s="137"/>
       <c r="I144" s="34" t="s">
         <v>366</v>
       </c>
@@ -28863,7 +28863,7 @@
       <c r="E145" s="134"/>
       <c r="F145" s="125"/>
       <c r="G145" s="125"/>
-      <c r="H145" s="138" t="s">
+      <c r="H145" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I145" s="34" t="s">
@@ -28880,7 +28880,7 @@
       <c r="E146" s="134"/>
       <c r="F146" s="125"/>
       <c r="G146" s="125"/>
-      <c r="H146" s="138"/>
+      <c r="H146" s="137"/>
       <c r="I146" s="34" t="s">
         <v>368</v>
       </c>
@@ -28895,7 +28895,7 @@
       <c r="E147" s="134"/>
       <c r="F147" s="125"/>
       <c r="G147" s="125"/>
-      <c r="H147" s="138"/>
+      <c r="H147" s="137"/>
       <c r="I147" s="34" t="s">
         <v>369</v>
       </c>
@@ -28910,7 +28910,7 @@
       <c r="E148" s="135"/>
       <c r="F148" s="126"/>
       <c r="G148" s="126"/>
-      <c r="H148" s="139"/>
+      <c r="H148" s="138"/>
       <c r="I148" s="42" t="s">
         <v>370</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="G149" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H149" s="140" t="s">
+      <c r="H149" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I149" s="41" t="s">
@@ -28952,7 +28952,7 @@
       <c r="E150" s="134"/>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
-      <c r="H150" s="138"/>
+      <c r="H150" s="137"/>
       <c r="I150" s="34" t="s">
         <v>372</v>
       </c>
@@ -28967,7 +28967,7 @@
       <c r="E151" s="134"/>
       <c r="F151" s="125"/>
       <c r="G151" s="125"/>
-      <c r="H151" s="138"/>
+      <c r="H151" s="137"/>
       <c r="I151" s="34" t="s">
         <v>373</v>
       </c>
@@ -28982,7 +28982,7 @@
       <c r="E152" s="134"/>
       <c r="F152" s="125"/>
       <c r="G152" s="125"/>
-      <c r="H152" s="138" t="s">
+      <c r="H152" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I152" s="34" t="s">
@@ -28999,7 +28999,7 @@
       <c r="E153" s="134"/>
       <c r="F153" s="125"/>
       <c r="G153" s="125"/>
-      <c r="H153" s="138"/>
+      <c r="H153" s="137"/>
       <c r="I153" s="34" t="s">
         <v>375</v>
       </c>
@@ -29014,7 +29014,7 @@
       <c r="E154" s="134"/>
       <c r="F154" s="125"/>
       <c r="G154" s="125"/>
-      <c r="H154" s="138"/>
+      <c r="H154" s="137"/>
       <c r="I154" s="34" t="s">
         <v>376</v>
       </c>
@@ -29029,7 +29029,7 @@
       <c r="E155" s="135"/>
       <c r="F155" s="126"/>
       <c r="G155" s="126"/>
-      <c r="H155" s="139"/>
+      <c r="H155" s="138"/>
       <c r="I155" s="42" t="s">
         <v>247</v>
       </c>
@@ -29052,7 +29052,7 @@
       <c r="G156" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H156" s="140" t="s">
+      <c r="H156" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I156" s="41" t="s">
@@ -29071,7 +29071,7 @@
       <c r="E157" s="134"/>
       <c r="F157" s="125"/>
       <c r="G157" s="125"/>
-      <c r="H157" s="138"/>
+      <c r="H157" s="137"/>
       <c r="I157" s="34" t="s">
         <v>189</v>
       </c>
@@ -29086,7 +29086,7 @@
       <c r="E158" s="134"/>
       <c r="F158" s="125"/>
       <c r="G158" s="125"/>
-      <c r="H158" s="138"/>
+      <c r="H158" s="137"/>
       <c r="I158" s="34" t="s">
         <v>378</v>
       </c>
@@ -29101,7 +29101,7 @@
       <c r="E159" s="134"/>
       <c r="F159" s="125"/>
       <c r="G159" s="125"/>
-      <c r="H159" s="138" t="s">
+      <c r="H159" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I159" s="34" t="s">
@@ -29118,7 +29118,7 @@
       <c r="E160" s="134"/>
       <c r="F160" s="125"/>
       <c r="G160" s="125"/>
-      <c r="H160" s="138"/>
+      <c r="H160" s="137"/>
       <c r="I160" s="34" t="s">
         <v>380</v>
       </c>
@@ -29133,7 +29133,7 @@
       <c r="E161" s="134"/>
       <c r="F161" s="125"/>
       <c r="G161" s="125"/>
-      <c r="H161" s="138"/>
+      <c r="H161" s="137"/>
       <c r="I161" s="34" t="s">
         <v>381</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="E162" s="135"/>
       <c r="F162" s="126"/>
       <c r="G162" s="126"/>
-      <c r="H162" s="139"/>
+      <c r="H162" s="138"/>
       <c r="I162" s="42" t="s">
         <v>247</v>
       </c>
@@ -29171,7 +29171,7 @@
       <c r="G163" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H163" s="140" t="s">
+      <c r="H163" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I163" s="41" t="s">
@@ -29190,7 +29190,7 @@
       <c r="E164" s="134"/>
       <c r="F164" s="125"/>
       <c r="G164" s="125"/>
-      <c r="H164" s="138"/>
+      <c r="H164" s="137"/>
       <c r="I164" s="34" t="s">
         <v>383</v>
       </c>
@@ -29205,7 +29205,7 @@
       <c r="E165" s="134"/>
       <c r="F165" s="125"/>
       <c r="G165" s="125"/>
-      <c r="H165" s="138"/>
+      <c r="H165" s="137"/>
       <c r="I165" s="34" t="s">
         <v>384</v>
       </c>
@@ -29220,7 +29220,7 @@
       <c r="E166" s="134"/>
       <c r="F166" s="125"/>
       <c r="G166" s="125"/>
-      <c r="H166" s="138" t="s">
+      <c r="H166" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I166" s="34" t="s">
@@ -29237,7 +29237,7 @@
       <c r="E167" s="134"/>
       <c r="F167" s="125"/>
       <c r="G167" s="125"/>
-      <c r="H167" s="138"/>
+      <c r="H167" s="137"/>
       <c r="I167" s="34" t="s">
         <v>386</v>
       </c>
@@ -29252,7 +29252,7 @@
       <c r="E168" s="135"/>
       <c r="F168" s="126"/>
       <c r="G168" s="126"/>
-      <c r="H168" s="139"/>
+      <c r="H168" s="138"/>
       <c r="I168" s="42" t="s">
         <v>247</v>
       </c>
@@ -29393,7 +29393,7 @@
       <c r="G175" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H175" s="140" t="s">
+      <c r="H175" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I175" s="41" t="s">
@@ -29412,7 +29412,7 @@
       <c r="E176" s="134"/>
       <c r="F176" s="125"/>
       <c r="G176" s="125"/>
-      <c r="H176" s="138"/>
+      <c r="H176" s="137"/>
       <c r="I176" s="34" t="s">
         <v>73</v>
       </c>
@@ -29427,7 +29427,7 @@
       <c r="E177" s="134"/>
       <c r="F177" s="125"/>
       <c r="G177" s="125"/>
-      <c r="H177" s="138"/>
+      <c r="H177" s="137"/>
       <c r="I177" s="34" t="s">
         <v>74</v>
       </c>
@@ -29442,7 +29442,7 @@
       <c r="E178" s="134"/>
       <c r="F178" s="125"/>
       <c r="G178" s="125"/>
-      <c r="H178" s="138" t="s">
+      <c r="H178" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I178" s="34" t="s">
@@ -29459,7 +29459,7 @@
       <c r="E179" s="134"/>
       <c r="F179" s="125"/>
       <c r="G179" s="125"/>
-      <c r="H179" s="138"/>
+      <c r="H179" s="137"/>
       <c r="I179" s="34" t="s">
         <v>76</v>
       </c>
@@ -29474,7 +29474,7 @@
       <c r="E180" s="134"/>
       <c r="F180" s="125"/>
       <c r="G180" s="125"/>
-      <c r="H180" s="138"/>
+      <c r="H180" s="137"/>
       <c r="I180" s="34" t="s">
         <v>77</v>
       </c>
@@ -29489,7 +29489,7 @@
       <c r="E181" s="134"/>
       <c r="F181" s="125"/>
       <c r="G181" s="125"/>
-      <c r="H181" s="138" t="s">
+      <c r="H181" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I181" s="34" t="s">
@@ -29506,7 +29506,7 @@
       <c r="E182" s="134"/>
       <c r="F182" s="125"/>
       <c r="G182" s="125"/>
-      <c r="H182" s="138"/>
+      <c r="H182" s="137"/>
       <c r="I182" s="34" t="s">
         <v>79</v>
       </c>
@@ -29521,7 +29521,7 @@
       <c r="E183" s="134"/>
       <c r="F183" s="125"/>
       <c r="G183" s="125"/>
-      <c r="H183" s="138" t="s">
+      <c r="H183" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I183" s="34" t="s">
@@ -29538,7 +29538,7 @@
       <c r="E184" s="134"/>
       <c r="F184" s="125"/>
       <c r="G184" s="125"/>
-      <c r="H184" s="138"/>
+      <c r="H184" s="137"/>
       <c r="I184" s="34" t="s">
         <v>81</v>
       </c>
@@ -29553,7 +29553,7 @@
       <c r="E185" s="134"/>
       <c r="F185" s="125"/>
       <c r="G185" s="125"/>
-      <c r="H185" s="138"/>
+      <c r="H185" s="137"/>
       <c r="I185" s="34" t="s">
         <v>82</v>
       </c>
@@ -29568,7 +29568,7 @@
       <c r="E186" s="134"/>
       <c r="F186" s="125"/>
       <c r="G186" s="125"/>
-      <c r="H186" s="138" t="s">
+      <c r="H186" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="34" t="s">
@@ -29585,7 +29585,7 @@
       <c r="E187" s="135"/>
       <c r="F187" s="126"/>
       <c r="G187" s="126"/>
-      <c r="H187" s="139"/>
+      <c r="H187" s="138"/>
       <c r="I187" s="42" t="s">
         <v>69</v>
       </c>
@@ -29695,7 +29695,7 @@
       <c r="E193" s="134"/>
       <c r="F193" s="125"/>
       <c r="G193" s="125"/>
-      <c r="H193" s="138" t="s">
+      <c r="H193" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I193" s="34" t="s">
@@ -29712,7 +29712,7 @@
       <c r="E194" s="135"/>
       <c r="F194" s="126"/>
       <c r="G194" s="126"/>
-      <c r="H194" s="139"/>
+      <c r="H194" s="138"/>
       <c r="I194" s="42" t="s">
         <v>92</v>
       </c>
@@ -30131,34 +30131,268 @@
     </row>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="D211:D215"/>
-    <mergeCell ref="E211:E215"/>
-    <mergeCell ref="F211:F215"/>
-    <mergeCell ref="G211:G215"/>
-    <mergeCell ref="J211:J215"/>
-    <mergeCell ref="K211:K215"/>
-    <mergeCell ref="D206:D210"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="F206:F210"/>
-    <mergeCell ref="G206:G210"/>
-    <mergeCell ref="J206:J210"/>
-    <mergeCell ref="K206:K210"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="D201:D205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:G205"/>
-    <mergeCell ref="J201:J205"/>
-    <mergeCell ref="K201:K205"/>
-    <mergeCell ref="J188:J194"/>
-    <mergeCell ref="K188:K194"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="F195:F200"/>
-    <mergeCell ref="G195:G200"/>
-    <mergeCell ref="J195:J200"/>
-    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="C169:C215"/>
+    <mergeCell ref="A60:A76"/>
+    <mergeCell ref="B60:B76"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="C34:C49"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="C60:C76"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="C87:C119"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="A87:A119"/>
+    <mergeCell ref="B87:B119"/>
+    <mergeCell ref="A135:A168"/>
+    <mergeCell ref="B135:B168"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="K69:K72"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F76"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="A120:A134"/>
+    <mergeCell ref="B120:B134"/>
+    <mergeCell ref="D120:D124"/>
+    <mergeCell ref="E120:E124"/>
+    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="G120:G124"/>
+    <mergeCell ref="J120:J124"/>
+    <mergeCell ref="K120:K124"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="F125:F129"/>
+    <mergeCell ref="G125:G129"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="K125:K129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="E130:E134"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="G130:G134"/>
+    <mergeCell ref="J130:J134"/>
+    <mergeCell ref="K130:K134"/>
+    <mergeCell ref="C120:C134"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="K53:K56"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="D87:D92"/>
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="F87:F92"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="J87:J92"/>
+    <mergeCell ref="K87:K92"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="J97:J101"/>
+    <mergeCell ref="K97:K101"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G102:G109"/>
+    <mergeCell ref="J102:J109"/>
+    <mergeCell ref="K102:K109"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="F115:F119"/>
+    <mergeCell ref="G115:G119"/>
+    <mergeCell ref="J115:J119"/>
+    <mergeCell ref="K115:K119"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="F110:F114"/>
+    <mergeCell ref="G110:G114"/>
+    <mergeCell ref="J110:J114"/>
+    <mergeCell ref="K110:K114"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:E168"/>
+    <mergeCell ref="F163:F168"/>
+    <mergeCell ref="G163:G168"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="J149:J155"/>
+    <mergeCell ref="J163:J168"/>
+    <mergeCell ref="C135:C168"/>
+    <mergeCell ref="D135:D141"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="G135:G141"/>
+    <mergeCell ref="H135:H137"/>
+    <mergeCell ref="J135:J141"/>
+    <mergeCell ref="H145:H148"/>
+    <mergeCell ref="D149:D155"/>
+    <mergeCell ref="E149:E155"/>
+    <mergeCell ref="F149:F155"/>
+    <mergeCell ref="G149:G155"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="K135:K141"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="D142:D148"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="F142:F148"/>
+    <mergeCell ref="G142:G148"/>
+    <mergeCell ref="H142:H144"/>
+    <mergeCell ref="J142:J148"/>
+    <mergeCell ref="K142:K148"/>
+    <mergeCell ref="K149:K155"/>
+    <mergeCell ref="H152:H155"/>
+    <mergeCell ref="D156:D162"/>
+    <mergeCell ref="E156:E162"/>
+    <mergeCell ref="F156:F162"/>
+    <mergeCell ref="G156:G162"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="J156:J162"/>
+    <mergeCell ref="K156:K162"/>
+    <mergeCell ref="H159:H162"/>
     <mergeCell ref="K163:K168"/>
     <mergeCell ref="H166:H168"/>
     <mergeCell ref="A169:A215"/>
@@ -30183,268 +30417,34 @@
     <mergeCell ref="J175:J187"/>
     <mergeCell ref="K175:K187"/>
     <mergeCell ref="H178:H180"/>
-    <mergeCell ref="K149:K155"/>
-    <mergeCell ref="H152:H155"/>
-    <mergeCell ref="D156:D162"/>
-    <mergeCell ref="E156:E162"/>
-    <mergeCell ref="F156:F162"/>
-    <mergeCell ref="G156:G162"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="J156:J162"/>
-    <mergeCell ref="K156:K162"/>
-    <mergeCell ref="H159:H162"/>
-    <mergeCell ref="K135:K141"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="D142:D148"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="F142:F148"/>
-    <mergeCell ref="G142:G148"/>
-    <mergeCell ref="H142:H144"/>
-    <mergeCell ref="J142:J148"/>
-    <mergeCell ref="K142:K148"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:E168"/>
-    <mergeCell ref="F163:F168"/>
-    <mergeCell ref="G163:G168"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="J149:J155"/>
-    <mergeCell ref="J163:J168"/>
-    <mergeCell ref="C135:C168"/>
-    <mergeCell ref="D135:D141"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="G135:G141"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="J135:J141"/>
-    <mergeCell ref="H145:H148"/>
-    <mergeCell ref="D149:D155"/>
-    <mergeCell ref="E149:E155"/>
-    <mergeCell ref="F149:F155"/>
-    <mergeCell ref="G149:G155"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="F115:F119"/>
-    <mergeCell ref="G115:G119"/>
-    <mergeCell ref="J115:J119"/>
-    <mergeCell ref="K115:K119"/>
-    <mergeCell ref="D110:D114"/>
-    <mergeCell ref="E110:E114"/>
-    <mergeCell ref="F110:F114"/>
-    <mergeCell ref="G110:G114"/>
-    <mergeCell ref="J110:J114"/>
-    <mergeCell ref="K110:K114"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="G102:G109"/>
-    <mergeCell ref="J102:J109"/>
-    <mergeCell ref="K102:K109"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="D87:D92"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="F87:F92"/>
-    <mergeCell ref="G87:G92"/>
-    <mergeCell ref="J87:J92"/>
-    <mergeCell ref="K87:K92"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="J97:J101"/>
-    <mergeCell ref="K97:K101"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="K53:K56"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="J130:J134"/>
-    <mergeCell ref="K130:K134"/>
-    <mergeCell ref="C120:C134"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F76"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="K73:K76"/>
-    <mergeCell ref="A120:A134"/>
-    <mergeCell ref="B120:B134"/>
-    <mergeCell ref="D120:D124"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
-    <mergeCell ref="G120:G124"/>
-    <mergeCell ref="J120:J124"/>
-    <mergeCell ref="K120:K124"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="E125:E129"/>
-    <mergeCell ref="F125:F129"/>
-    <mergeCell ref="G125:G129"/>
-    <mergeCell ref="J125:J129"/>
-    <mergeCell ref="K125:K129"/>
-    <mergeCell ref="D130:D134"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="G130:G134"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="K65:K68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="K69:K72"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="K77:K80"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="C169:C215"/>
-    <mergeCell ref="A60:A76"/>
-    <mergeCell ref="B60:B76"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C49"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="C60:C76"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="C87:C119"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="B34:B49"/>
-    <mergeCell ref="A87:A119"/>
-    <mergeCell ref="B87:B119"/>
-    <mergeCell ref="A135:A168"/>
-    <mergeCell ref="B135:B168"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="D201:D205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:G205"/>
+    <mergeCell ref="J201:J205"/>
+    <mergeCell ref="K201:K205"/>
+    <mergeCell ref="J188:J194"/>
+    <mergeCell ref="K188:K194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="F195:F200"/>
+    <mergeCell ref="G195:G200"/>
+    <mergeCell ref="J195:J200"/>
+    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="D211:D215"/>
+    <mergeCell ref="E211:E215"/>
+    <mergeCell ref="F211:F215"/>
+    <mergeCell ref="G211:G215"/>
+    <mergeCell ref="J211:J215"/>
+    <mergeCell ref="K211:K215"/>
+    <mergeCell ref="D206:D210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="F206:F210"/>
+    <mergeCell ref="G206:G210"/>
+    <mergeCell ref="J206:J210"/>
+    <mergeCell ref="K206:K210"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E7FBFF0D-DBB0-40E7-AB39-A55B670BE339}"/>
@@ -31325,7 +31325,7 @@
       <c r="G39" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H39" s="140" t="s">
+      <c r="H39" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="41" t="s">
@@ -31344,7 +31344,7 @@
       <c r="E40" s="134"/>
       <c r="F40" s="125"/>
       <c r="G40" s="125"/>
-      <c r="H40" s="138"/>
+      <c r="H40" s="137"/>
       <c r="I40" s="34" t="s">
         <v>774</v>
       </c>
@@ -31610,7 +31610,7 @@
       <c r="G52" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H52" s="140" t="s">
+      <c r="H52" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I52" s="66" t="s">
@@ -31629,7 +31629,7 @@
       <c r="E53" s="134"/>
       <c r="F53" s="125"/>
       <c r="G53" s="125"/>
-      <c r="H53" s="138"/>
+      <c r="H53" s="137"/>
       <c r="I53" s="34" t="s">
         <v>359</v>
       </c>
@@ -31644,7 +31644,7 @@
       <c r="E54" s="134"/>
       <c r="F54" s="125"/>
       <c r="G54" s="125"/>
-      <c r="H54" s="138"/>
+      <c r="H54" s="137"/>
       <c r="I54" s="34" t="s">
         <v>360</v>
       </c>
@@ -31659,7 +31659,7 @@
       <c r="E55" s="134"/>
       <c r="F55" s="125"/>
       <c r="G55" s="125"/>
-      <c r="H55" s="138" t="s">
+      <c r="H55" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="34" t="s">
@@ -31676,7 +31676,7 @@
       <c r="E56" s="134"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
-      <c r="H56" s="138"/>
+      <c r="H56" s="137"/>
       <c r="I56" s="34" t="s">
         <v>362</v>
       </c>
@@ -31691,7 +31691,7 @@
       <c r="E57" s="134"/>
       <c r="F57" s="125"/>
       <c r="G57" s="125"/>
-      <c r="H57" s="138" t="s">
+      <c r="H57" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="34" t="s">
@@ -31708,7 +31708,7 @@
       <c r="E58" s="135"/>
       <c r="F58" s="126"/>
       <c r="G58" s="126"/>
-      <c r="H58" s="139"/>
+      <c r="H58" s="138"/>
       <c r="I58" s="67" t="s">
         <v>247</v>
       </c>
@@ -31731,7 +31731,7 @@
       <c r="G59" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H59" s="140" t="s">
+      <c r="H59" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="66" t="s">
@@ -31750,7 +31750,7 @@
       <c r="E60" s="134"/>
       <c r="F60" s="125"/>
       <c r="G60" s="125"/>
-      <c r="H60" s="138"/>
+      <c r="H60" s="137"/>
       <c r="I60" s="34" t="s">
         <v>365</v>
       </c>
@@ -31765,7 +31765,7 @@
       <c r="E61" s="134"/>
       <c r="F61" s="125"/>
       <c r="G61" s="125"/>
-      <c r="H61" s="138"/>
+      <c r="H61" s="137"/>
       <c r="I61" s="34" t="s">
         <v>366</v>
       </c>
@@ -31780,7 +31780,7 @@
       <c r="E62" s="134"/>
       <c r="F62" s="125"/>
       <c r="G62" s="125"/>
-      <c r="H62" s="138" t="s">
+      <c r="H62" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="34" t="s">
@@ -31797,7 +31797,7 @@
       <c r="E63" s="134"/>
       <c r="F63" s="125"/>
       <c r="G63" s="125"/>
-      <c r="H63" s="138"/>
+      <c r="H63" s="137"/>
       <c r="I63" s="34" t="s">
         <v>368</v>
       </c>
@@ -31812,7 +31812,7 @@
       <c r="E64" s="134"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="138"/>
+      <c r="H64" s="137"/>
       <c r="I64" s="34" t="s">
         <v>369</v>
       </c>
@@ -31827,7 +31827,7 @@
       <c r="E65" s="135"/>
       <c r="F65" s="126"/>
       <c r="G65" s="126"/>
-      <c r="H65" s="139"/>
+      <c r="H65" s="138"/>
       <c r="I65" s="67" t="s">
         <v>370</v>
       </c>
@@ -31850,7 +31850,7 @@
       <c r="G66" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H66" s="140" t="s">
+      <c r="H66" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="66" t="s">
@@ -31869,7 +31869,7 @@
       <c r="E67" s="134"/>
       <c r="F67" s="125"/>
       <c r="G67" s="125"/>
-      <c r="H67" s="138"/>
+      <c r="H67" s="137"/>
       <c r="I67" s="34" t="s">
         <v>372</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="E68" s="134"/>
       <c r="F68" s="125"/>
       <c r="G68" s="125"/>
-      <c r="H68" s="138"/>
+      <c r="H68" s="137"/>
       <c r="I68" s="34" t="s">
         <v>373</v>
       </c>
@@ -31899,7 +31899,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="138" t="s">
+      <c r="H69" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="34" t="s">
@@ -31916,7 +31916,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="138"/>
+      <c r="H70" s="137"/>
       <c r="I70" s="34" t="s">
         <v>375</v>
       </c>
@@ -31931,7 +31931,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="138"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="34" t="s">
         <v>376</v>
       </c>
@@ -31946,7 +31946,7 @@
       <c r="E72" s="135"/>
       <c r="F72" s="126"/>
       <c r="G72" s="126"/>
-      <c r="H72" s="139"/>
+      <c r="H72" s="138"/>
       <c r="I72" s="67" t="s">
         <v>247</v>
       </c>
@@ -31969,7 +31969,7 @@
       <c r="G73" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H73" s="140" t="s">
+      <c r="H73" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I73" s="66" t="s">
@@ -31988,7 +31988,7 @@
       <c r="E74" s="134"/>
       <c r="F74" s="125"/>
       <c r="G74" s="125"/>
-      <c r="H74" s="138"/>
+      <c r="H74" s="137"/>
       <c r="I74" s="34" t="s">
         <v>189</v>
       </c>
@@ -32003,7 +32003,7 @@
       <c r="E75" s="134"/>
       <c r="F75" s="125"/>
       <c r="G75" s="125"/>
-      <c r="H75" s="138"/>
+      <c r="H75" s="137"/>
       <c r="I75" s="34" t="s">
         <v>378</v>
       </c>
@@ -32018,7 +32018,7 @@
       <c r="E76" s="134"/>
       <c r="F76" s="125"/>
       <c r="G76" s="125"/>
-      <c r="H76" s="138" t="s">
+      <c r="H76" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I76" s="34" t="s">
@@ -32035,7 +32035,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="138"/>
+      <c r="H77" s="137"/>
       <c r="I77" s="34" t="s">
         <v>380</v>
       </c>
@@ -32050,7 +32050,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="138"/>
+      <c r="H78" s="137"/>
       <c r="I78" s="34" t="s">
         <v>381</v>
       </c>
@@ -32065,7 +32065,7 @@
       <c r="E79" s="135"/>
       <c r="F79" s="126"/>
       <c r="G79" s="126"/>
-      <c r="H79" s="139"/>
+      <c r="H79" s="138"/>
       <c r="I79" s="67" t="s">
         <v>247</v>
       </c>
@@ -32088,7 +32088,7 @@
       <c r="G80" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H80" s="140" t="s">
+      <c r="H80" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I80" s="66" t="s">
@@ -32107,7 +32107,7 @@
       <c r="E81" s="134"/>
       <c r="F81" s="125"/>
       <c r="G81" s="125"/>
-      <c r="H81" s="138"/>
+      <c r="H81" s="137"/>
       <c r="I81" s="34" t="s">
         <v>383</v>
       </c>
@@ -32122,7 +32122,7 @@
       <c r="E82" s="134"/>
       <c r="F82" s="125"/>
       <c r="G82" s="125"/>
-      <c r="H82" s="138"/>
+      <c r="H82" s="137"/>
       <c r="I82" s="34" t="s">
         <v>384</v>
       </c>
@@ -32137,7 +32137,7 @@
       <c r="E83" s="134"/>
       <c r="F83" s="125"/>
       <c r="G83" s="125"/>
-      <c r="H83" s="138" t="s">
+      <c r="H83" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="34" t="s">
@@ -32154,7 +32154,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138"/>
+      <c r="H84" s="137"/>
       <c r="I84" s="34" t="s">
         <v>386</v>
       </c>
@@ -32169,7 +32169,7 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="139"/>
+      <c r="H85" s="138"/>
       <c r="I85" s="67" t="s">
         <v>247</v>
       </c>
@@ -32310,7 +32310,7 @@
       <c r="G92" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H92" s="140" t="s">
+      <c r="H92" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I92" s="66" t="s">
@@ -32329,7 +32329,7 @@
       <c r="E93" s="134"/>
       <c r="F93" s="125"/>
       <c r="G93" s="125"/>
-      <c r="H93" s="138"/>
+      <c r="H93" s="137"/>
       <c r="I93" s="34" t="s">
         <v>73</v>
       </c>
@@ -32344,7 +32344,7 @@
       <c r="E94" s="134"/>
       <c r="F94" s="125"/>
       <c r="G94" s="125"/>
-      <c r="H94" s="138"/>
+      <c r="H94" s="137"/>
       <c r="I94" s="34" t="s">
         <v>74</v>
       </c>
@@ -32359,7 +32359,7 @@
       <c r="E95" s="134"/>
       <c r="F95" s="125"/>
       <c r="G95" s="125"/>
-      <c r="H95" s="138" t="s">
+      <c r="H95" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I95" s="34" t="s">
@@ -32376,7 +32376,7 @@
       <c r="E96" s="134"/>
       <c r="F96" s="125"/>
       <c r="G96" s="125"/>
-      <c r="H96" s="138"/>
+      <c r="H96" s="137"/>
       <c r="I96" s="34" t="s">
         <v>76</v>
       </c>
@@ -32391,7 +32391,7 @@
       <c r="E97" s="134"/>
       <c r="F97" s="125"/>
       <c r="G97" s="125"/>
-      <c r="H97" s="138"/>
+      <c r="H97" s="137"/>
       <c r="I97" s="34" t="s">
         <v>77</v>
       </c>
@@ -32406,7 +32406,7 @@
       <c r="E98" s="134"/>
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
-      <c r="H98" s="138" t="s">
+      <c r="H98" s="137" t="s">
         <v>8</v>
       </c>
       <c r="I98" s="34" t="s">
@@ -32423,7 +32423,7 @@
       <c r="E99" s="134"/>
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
-      <c r="H99" s="138"/>
+      <c r="H99" s="137"/>
       <c r="I99" s="34" t="s">
         <v>79</v>
       </c>
@@ -32438,7 +32438,7 @@
       <c r="E100" s="134"/>
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
-      <c r="H100" s="138" t="s">
+      <c r="H100" s="137" t="s">
         <v>6</v>
       </c>
       <c r="I100" s="34" t="s">
@@ -32455,7 +32455,7 @@
       <c r="E101" s="134"/>
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
-      <c r="H101" s="138"/>
+      <c r="H101" s="137"/>
       <c r="I101" s="34" t="s">
         <v>81</v>
       </c>
@@ -32470,7 +32470,7 @@
       <c r="E102" s="134"/>
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
-      <c r="H102" s="138"/>
+      <c r="H102" s="137"/>
       <c r="I102" s="34" t="s">
         <v>82</v>
       </c>
@@ -32485,7 +32485,7 @@
       <c r="E103" s="134"/>
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
-      <c r="H103" s="138" t="s">
+      <c r="H103" s="137" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="34" t="s">
@@ -32502,7 +32502,7 @@
       <c r="E104" s="135"/>
       <c r="F104" s="126"/>
       <c r="G104" s="126"/>
-      <c r="H104" s="139"/>
+      <c r="H104" s="138"/>
       <c r="I104" s="67" t="s">
         <v>69</v>
       </c>
@@ -32612,7 +32612,7 @@
       <c r="E110" s="134"/>
       <c r="F110" s="125"/>
       <c r="G110" s="125"/>
-      <c r="H110" s="138" t="s">
+      <c r="H110" s="137" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="34" t="s">
@@ -32629,7 +32629,7 @@
       <c r="E111" s="135"/>
       <c r="F111" s="126"/>
       <c r="G111" s="126"/>
-      <c r="H111" s="139"/>
+      <c r="H111" s="138"/>
       <c r="I111" s="67" t="s">
         <v>92</v>
       </c>
@@ -33035,77 +33035,109 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="K123:K127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E128:E132"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="K128:K132"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="J112:J117"/>
-    <mergeCell ref="K112:K117"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="J118:J122"/>
-    <mergeCell ref="K118:K122"/>
-    <mergeCell ref="F105:F111"/>
-    <mergeCell ref="G105:G111"/>
-    <mergeCell ref="J105:J111"/>
-    <mergeCell ref="K105:K111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="F92:F104"/>
-    <mergeCell ref="G92:G104"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="J92:J104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="A86:A132"/>
-    <mergeCell ref="B86:B132"/>
-    <mergeCell ref="C86:C132"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="D112:D117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E123:E127"/>
-    <mergeCell ref="D92:D104"/>
-    <mergeCell ref="E92:E104"/>
-    <mergeCell ref="K66:K72"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="G59:G65"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="K59:K65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="F80:F85"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="J80:J85"/>
-    <mergeCell ref="K80:K85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="F73:F79"/>
-    <mergeCell ref="G73:G79"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="J73:J79"/>
-    <mergeCell ref="K73:K79"/>
-    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="C18:C33"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
     <mergeCell ref="F52:F58"/>
     <mergeCell ref="G52:G58"/>
     <mergeCell ref="H52:H54"/>
@@ -33130,109 +33162,77 @@
     <mergeCell ref="G66:G72"/>
     <mergeCell ref="H66:H68"/>
     <mergeCell ref="J66:J72"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C51"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="K66:K72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="G59:G65"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="K59:K65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="F80:F85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="J80:J85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="G73:G79"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="J73:J79"/>
+    <mergeCell ref="K73:K79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="A86:A132"/>
+    <mergeCell ref="B86:B132"/>
+    <mergeCell ref="C86:C132"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="E123:E127"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="E92:E104"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="G105:G111"/>
+    <mergeCell ref="J105:J111"/>
+    <mergeCell ref="K105:K111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="F92:F104"/>
+    <mergeCell ref="G92:G104"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="J112:J117"/>
+    <mergeCell ref="K112:K117"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="K118:K122"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="K123:K127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="K128:K132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1" xr:uid="{B873AAFA-B675-43DD-B8CA-F179497ABCA7}"/>
@@ -33275,7 +33275,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A72B18-6306-4528-B61A-BD202838A0E3}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -33858,7 +33858,7 @@
       <c r="G28" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="140" t="s">
+      <c r="H28" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="41" t="s">
@@ -33877,7 +33877,7 @@
       <c r="E29" s="134"/>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
-      <c r="H29" s="138"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="34" t="s">
         <v>463</v>
       </c>
@@ -34644,7 +34644,7 @@
       <c r="G68" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="H68" s="140" t="s">
+      <c r="H68" s="136" t="s">
         <v>4</v>
       </c>
       <c r="I68" s="41" t="s">
@@ -34663,7 +34663,7 @@
       <c r="E69" s="134"/>
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
-      <c r="H69" s="138"/>
+      <c r="H69" s="137"/>
       <c r="I69" s="34" t="s">
         <v>545</v>
       </c>
@@ -34678,7 +34678,7 @@
       <c r="E70" s="134"/>
       <c r="F70" s="125"/>
       <c r="G70" s="125"/>
-      <c r="H70" s="138" t="s">
+      <c r="H70" s="137" t="s">
         <v>7</v>
       </c>
       <c r="I70" s="34" t="s">
@@ -34695,7 +34695,7 @@
       <c r="E71" s="134"/>
       <c r="F71" s="125"/>
       <c r="G71" s="125"/>
-      <c r="H71" s="138"/>
+      <c r="H71" s="137"/>
       <c r="I71" s="34" t="s">
         <v>547</v>
       </c>
@@ -34795,7 +34795,7 @@
       <c r="E77" s="134"/>
       <c r="F77" s="125"/>
       <c r="G77" s="125"/>
-      <c r="H77" s="138" t="s">
+      <c r="H77" s="137" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="34" t="s">
@@ -34812,7 +34812,7 @@
       <c r="E78" s="134"/>
       <c r="F78" s="125"/>
       <c r="G78" s="125"/>
-      <c r="H78" s="138"/>
+      <c r="H78" s="137"/>
       <c r="I78" s="34" t="s">
         <v>554</v>
       </c>
@@ -34827,7 +34827,7 @@
       <c r="E79" s="134"/>
       <c r="F79" s="125"/>
       <c r="G79" s="125"/>
-      <c r="H79" s="138" t="s">
+      <c r="H79" s="137" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="34" t="s">
@@ -34844,7 +34844,7 @@
       <c r="E80" s="134"/>
       <c r="F80" s="125"/>
       <c r="G80" s="125"/>
-      <c r="H80" s="138"/>
+      <c r="H80" s="137"/>
       <c r="I80" s="34" t="s">
         <v>556</v>
       </c>
@@ -34910,7 +34910,7 @@
       <c r="E84" s="134"/>
       <c r="F84" s="125"/>
       <c r="G84" s="125"/>
-      <c r="H84" s="138" t="s">
+      <c r="H84" s="137" t="s">
         <v>543</v>
       </c>
       <c r="I84" s="34" t="s">
@@ -34927,281 +34927,85 @@
       <c r="E85" s="135"/>
       <c r="F85" s="126"/>
       <c r="G85" s="126"/>
-      <c r="H85" s="139"/>
+      <c r="H85" s="138"/>
       <c r="I85" s="42" t="s">
         <v>132</v>
       </c>
       <c r="J85" s="129"/>
       <c r="K85" s="129"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="131" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B86" s="131" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C86" s="131">
-        <v>1</v>
-      </c>
-      <c r="D86" s="125" t="s">
-        <v>655</v>
-      </c>
-      <c r="E86" s="134" t="s">
-        <v>654</v>
-      </c>
-      <c r="F86" s="125" t="s">
-        <v>478</v>
-      </c>
-      <c r="G86" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="H86" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" s="34" t="s">
-        <v>656</v>
-      </c>
-      <c r="J86" s="128">
-        <v>10</v>
-      </c>
-      <c r="K86" s="128"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="131"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="J87" s="128"/>
-      <c r="K87" s="128"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="131"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="134"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" s="34" t="s">
-        <v>658</v>
-      </c>
-      <c r="J88" s="128"/>
-      <c r="K88" s="128"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="131"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" s="34" t="s">
-        <v>659</v>
-      </c>
-      <c r="J89" s="128"/>
-      <c r="K89" s="128"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="131"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="J90" s="128"/>
-      <c r="K90" s="128"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="132"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="135"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="J91" s="129"/>
-      <c r="K91" s="129"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="130" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B92" s="130" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C92" s="130">
-        <v>1</v>
-      </c>
-      <c r="D92" s="124" t="s">
-        <v>662</v>
-      </c>
-      <c r="E92" s="133" t="s">
-        <v>663</v>
-      </c>
-      <c r="F92" s="124" t="s">
-        <v>478</v>
-      </c>
-      <c r="G92" s="124" t="s">
-        <v>452</v>
-      </c>
-      <c r="H92" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" s="34" t="s">
-        <v>664</v>
-      </c>
-      <c r="J92" s="127">
-        <v>5</v>
-      </c>
-      <c r="K92" s="127"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="131"/>
-      <c r="B93" s="131"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="134"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I93" s="34" t="s">
-        <v>665</v>
-      </c>
-      <c r="J93" s="128"/>
-      <c r="K93" s="128"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="131"/>
-      <c r="B94" s="131"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="125"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="125"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="34" t="s">
-        <v>666</v>
-      </c>
-      <c r="J94" s="128"/>
-      <c r="K94" s="128"/>
-    </row>
-    <row r="95" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="132"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="126"/>
-      <c r="H95" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I95" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
-    </row>
-    <row r="96" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
-      <c r="B96" s="123"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
+    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="C46:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C85"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="J62:J67"/>
-    <mergeCell ref="K62:K67"/>
-    <mergeCell ref="A68:A85"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="D68:D85"/>
-    <mergeCell ref="E68:E85"/>
-    <mergeCell ref="F68:F85"/>
-    <mergeCell ref="G68:G85"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J85"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="G62:G67"/>
-    <mergeCell ref="K68:K85"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="K50:K53"/>
+  <mergeCells count="114">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A28:A45"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="K19:K27"/>
     <mergeCell ref="K42:K45"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="E38:E41"/>
@@ -35226,87 +35030,61 @@
     <mergeCell ref="F58:F61"/>
     <mergeCell ref="G58:G61"/>
     <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="K19:K27"/>
-    <mergeCell ref="A28:A45"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="E19:E27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="K62:K67"/>
+    <mergeCell ref="A68:A85"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="D68:D85"/>
+    <mergeCell ref="E68:E85"/>
+    <mergeCell ref="F68:F85"/>
+    <mergeCell ref="G68:G85"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J85"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="K68:K85"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="C46:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E86" r:id="rId1" xr:uid="{B011B613-9CAB-4328-8D38-B7F9F35A327C}"/>
-    <hyperlink ref="E92" r:id="rId2" xr:uid="{A7158D60-284B-4D13-B241-87E55A0E3E67}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{296D511C-7135-4EE0-97B6-F48D4E0B1679}"/>
-    <hyperlink ref="E28" r:id="rId4" xr:uid="{92E65AB3-F77B-493F-A211-1D19152E034E}"/>
-    <hyperlink ref="E33" r:id="rId5" xr:uid="{095DEAD2-C6D1-469C-BCDA-26F666585860}"/>
-    <hyperlink ref="E38" r:id="rId6" xr:uid="{7B0FFA58-5E39-4BE7-8D7C-50BAF4B40298}"/>
-    <hyperlink ref="E42" r:id="rId7" xr:uid="{DF763D04-4808-4799-B5B6-BA6478C63E83}"/>
-    <hyperlink ref="E19" r:id="rId8" xr:uid="{89069651-7FFE-4742-9CB4-3B09B4062A11}"/>
-    <hyperlink ref="B46" r:id="rId9" xr:uid="{5F3F9187-7B68-41BF-B46D-E71572812087}"/>
-    <hyperlink ref="E46" r:id="rId10" xr:uid="{E7F09003-E5CA-488C-B11C-2C00469CDE59}"/>
-    <hyperlink ref="E50" r:id="rId11" xr:uid="{A582A694-78F4-43D2-A029-49B58D7859E6}"/>
-    <hyperlink ref="E54" r:id="rId12" xr:uid="{8F28EDD8-BA00-47BC-9454-5B0AC69A84DF}"/>
-    <hyperlink ref="E58" r:id="rId13" xr:uid="{229A4378-6A85-4ED2-BB99-F9DAA2A5942D}"/>
-    <hyperlink ref="E68" r:id="rId14" xr:uid="{ED7ED814-A6AE-4381-91D8-98D9DA225995}"/>
-    <hyperlink ref="E62" r:id="rId15" xr:uid="{C42777DC-99F7-4CA7-9BC1-5B435BC07ADB}"/>
-    <hyperlink ref="B2" r:id="rId16" xr:uid="{1358877A-B402-4F3A-85A2-72930DDBE474}"/>
-    <hyperlink ref="E2" r:id="rId17" xr:uid="{A16AA6D9-2A73-4A2C-BF23-7F9CAD66927E}"/>
-    <hyperlink ref="E6" r:id="rId18" xr:uid="{86CDDC2B-F0C5-4A90-9457-12901F80571E}"/>
-    <hyperlink ref="E10" r:id="rId19" xr:uid="{FB1EA7CA-D281-4B9F-9A11-681090D03B07}"/>
-    <hyperlink ref="E15" r:id="rId20" xr:uid="{55C896FD-0060-4F1D-8838-471B05855A61}"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{296D511C-7135-4EE0-97B6-F48D4E0B1679}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{92E65AB3-F77B-493F-A211-1D19152E034E}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{095DEAD2-C6D1-469C-BCDA-26F666585860}"/>
+    <hyperlink ref="E38" r:id="rId4" xr:uid="{7B0FFA58-5E39-4BE7-8D7C-50BAF4B40298}"/>
+    <hyperlink ref="E42" r:id="rId5" xr:uid="{DF763D04-4808-4799-B5B6-BA6478C63E83}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{89069651-7FFE-4742-9CB4-3B09B4062A11}"/>
+    <hyperlink ref="B46" r:id="rId7" xr:uid="{5F3F9187-7B68-41BF-B46D-E71572812087}"/>
+    <hyperlink ref="E46" r:id="rId8" xr:uid="{E7F09003-E5CA-488C-B11C-2C00469CDE59}"/>
+    <hyperlink ref="E50" r:id="rId9" xr:uid="{A582A694-78F4-43D2-A029-49B58D7859E6}"/>
+    <hyperlink ref="E54" r:id="rId10" xr:uid="{8F28EDD8-BA00-47BC-9454-5B0AC69A84DF}"/>
+    <hyperlink ref="E58" r:id="rId11" xr:uid="{229A4378-6A85-4ED2-BB99-F9DAA2A5942D}"/>
+    <hyperlink ref="E68" r:id="rId12" xr:uid="{ED7ED814-A6AE-4381-91D8-98D9DA225995}"/>
+    <hyperlink ref="E62" r:id="rId13" xr:uid="{C42777DC-99F7-4CA7-9BC1-5B435BC07ADB}"/>
+    <hyperlink ref="B2" r:id="rId14" xr:uid="{1358877A-B402-4F3A-85A2-72930DDBE474}"/>
+    <hyperlink ref="E2" r:id="rId15" xr:uid="{A16AA6D9-2A73-4A2C-BF23-7F9CAD66927E}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{86CDDC2B-F0C5-4A90-9457-12901F80571E}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{FB1EA7CA-D281-4B9F-9A11-681090D03B07}"/>
+    <hyperlink ref="E15" r:id="rId18" xr:uid="{55C896FD-0060-4F1D-8838-471B05855A61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>